--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29720" windowHeight="17680" activeTab="6"/>
+    <workbookView windowWidth="29720" windowHeight="17680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -16675,8 +16675,8 @@
   <sheetPr/>
   <dimension ref="J21:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -17197,7 +17197,7 @@
   <sheetPr/>
   <dimension ref="D6:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -1496,7 +1496,7 @@
     <t>暴击耐性</t>
   </si>
   <si>
-    <t>电击攻击强化</t>
+    <t>电属性攻击强化</t>
   </si>
   <si>
     <t>电击耐性</t>
@@ -1553,7 +1553,7 @@
     <t>实验室工作人员</t>
   </si>
   <si>
-    <t>燃烧攻击强化</t>
+    <t>火属性攻击强化</t>
   </si>
   <si>
     <t>挑战</t>
@@ -3849,7 +3849,7 @@
   <dimension ref="B3:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -7031,7 +7031,7 @@
   <dimension ref="A1:Z164"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29720" windowHeight="17680"/>
+    <workbookView windowWidth="29720" windowHeight="17680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="699">
   <si>
     <t>F09457</t>
   </si>
@@ -1854,13 +1854,10 @@
     <t>燃烧、电击、潮湿、冻伤</t>
   </si>
   <si>
-    <t>解剖达人</t>
-  </si>
-  <si>
-    <t>使用任何武器可以收割动物</t>
-  </si>
-  <si>
-    <t>或许可以考虑在弹药上新增逻辑来实现</t>
+    <t>混乱</t>
+  </si>
+  <si>
+    <t>每过5秒将会随机打乱腰带物品</t>
   </si>
   <si>
     <t>FF1111</t>
@@ -3848,8 +3845,8 @@
   <sheetPr/>
   <dimension ref="B3:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -16761,10 +16758,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="J21:N39"/>
+  <dimension ref="J21:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -16884,15 +16881,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="11:13">
-      <c r="K39" t="s">
+    <row r="40" spans="11:12">
+      <c r="K40" t="s">
         <v>606</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L40" t="s">
         <v>607</v>
-      </c>
-      <c r="M39" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -16930,92 +16924,92 @@
   <sheetData>
     <row r="4" spans="6:8">
       <c r="F4" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="120" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="6:6">
@@ -17026,22 +17020,22 @@
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>634</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -17059,12 +17053,12 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -17074,53 +17068,53 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="K19" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="L19" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="M19" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="N19" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="O19" s="22" t="s">
         <v>648</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>649</v>
       </c>
       <c r="P19" s="21"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -17136,55 +17130,55 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="J21" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="N21" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="O21" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
@@ -17200,44 +17194,44 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="J23" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="L23" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="M23" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="N23" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="O23" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="P23" s="25" t="s">
         <v>675</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -17300,133 +17294,133 @@
   <sheetData>
     <row r="6" spans="12:12">
       <c r="L6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="D8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" t="s">
+        <v>678</v>
+      </c>
+      <c r="J8" t="s">
         <v>679</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>680</v>
-      </c>
-      <c r="L8" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="9" spans="4:12">
       <c r="D9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" t="s">
+        <v>682</v>
+      </c>
+      <c r="J9" t="s">
         <v>683</v>
       </c>
-      <c r="J9" t="s">
-        <v>684</v>
-      </c>
       <c r="L9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="4:12">
       <c r="D10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
+        <v>685</v>
+      </c>
+      <c r="J10" t="s">
         <v>686</v>
       </c>
-      <c r="J10" t="s">
-        <v>687</v>
-      </c>
       <c r="L10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="4:12">
       <c r="D12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" t="s">
+        <v>688</v>
+      </c>
+      <c r="J12" t="s">
+        <v>679</v>
+      </c>
+      <c r="L12" t="s">
         <v>689</v>
-      </c>
-      <c r="J12" t="s">
-        <v>680</v>
-      </c>
-      <c r="L12" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="13" spans="4:12">
       <c r="D13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="4:12">
       <c r="D14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="7:12">
       <c r="G16" t="s">
+        <v>694</v>
+      </c>
+      <c r="H16" t="s">
         <v>695</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
+        <v>679</v>
+      </c>
+      <c r="L16" t="s">
         <v>696</v>
-      </c>
-      <c r="J16" t="s">
-        <v>680</v>
-      </c>
-      <c r="L16" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="17" spans="7:12">
       <c r="G17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="7:12">
       <c r="G18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29720" windowHeight="17680" activeTab="4"/>
+    <workbookView windowWidth="29720" windowHeight="17680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -1604,7 +1604,7 @@
     <t>摩托车手</t>
   </si>
   <si>
-    <t>穿甲弹/箭强化</t>
+    <t>贯通弹强化</t>
   </si>
   <si>
     <t>Lumberjack</t>
@@ -3186,7 +3186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3482,12 +3482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4046,11 +4040,11 @@
       <c r="F9" s="81"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="109"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="59"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="11" t="s">
@@ -4102,7 +4096,7 @@
       <c r="J11" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="110">
+      <c r="K11" s="70">
         <v>150</v>
       </c>
       <c r="L11" s="77" t="s">
@@ -4133,7 +4127,7 @@
       <c r="J12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="70">
         <v>150</v>
       </c>
       <c r="L12" s="77" t="s">
@@ -4154,11 +4148,11 @@
       <c r="F13" s="81"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="109"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="59"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="11" t="s">
@@ -4200,13 +4194,13 @@
       <c r="H15" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="70">
         <v>30</v>
       </c>
       <c r="J15" s="77"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="11" t="s">
@@ -4219,11 +4213,11 @@
       <c r="F16" s="81"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
-      <c r="I16" s="109"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="59"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="6:13">
       <c r="F17" s="74"/>
@@ -4312,7 +4306,7 @@
       <c r="M23" s="88">
         <v>11</v>
       </c>
-      <c r="N23" s="111">
+      <c r="N23" s="109">
         <v>12</v>
       </c>
     </row>
@@ -4344,19 +4338,19 @@
       <c r="J24" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="112">
+      <c r="K24" s="110">
         <f t="shared" ref="K24:N24" si="0">ROUNDUP(K30/4,0)</f>
         <v>40</v>
       </c>
-      <c r="L24" s="112">
+      <c r="L24" s="110">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M24" s="112">
+      <c r="M24" s="110">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="N24" s="113">
+      <c r="N24" s="111">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
@@ -4406,7 +4400,7 @@
       <c r="M25" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="114" t="s">
+      <c r="N25" s="112" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4458,7 +4452,7 @@
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
-      <c r="N26" s="115">
+      <c r="N26" s="113">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
@@ -4491,16 +4485,16 @@
       <c r="J27" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="116">
+      <c r="K27" s="114">
         <v>32</v>
       </c>
-      <c r="L27" s="116">
+      <c r="L27" s="114">
         <v>64</v>
       </c>
-      <c r="M27" s="116">
+      <c r="M27" s="114">
         <v>128</v>
       </c>
-      <c r="N27" s="117">
+      <c r="N27" s="115">
         <v>256</v>
       </c>
     </row>
@@ -4541,7 +4535,7 @@
       <c r="M28" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="112" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4593,7 +4587,7 @@
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="N29" s="115">
+      <c r="N29" s="113">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
@@ -4626,19 +4620,19 @@
       <c r="J30" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="112">
+      <c r="K30" s="110">
         <f>K27*5</f>
         <v>160</v>
       </c>
-      <c r="L30" s="112">
+      <c r="L30" s="110">
         <f t="shared" ref="L30:N30" si="6">L27*10-K30</f>
         <v>480</v>
       </c>
-      <c r="M30" s="112">
+      <c r="M30" s="110">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
-      <c r="N30" s="113">
+      <c r="N30" s="111">
         <f t="shared" si="6"/>
         <v>1760</v>
       </c>
@@ -4687,7 +4681,7 @@
       <c r="M31" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="112" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4728,7 +4722,7 @@
       <c r="M32" s="98">
         <v>80000</v>
       </c>
-      <c r="N32" s="118">
+      <c r="N32" s="116">
         <v>90000</v>
       </c>
     </row>
@@ -4760,19 +4754,19 @@
       <c r="J33" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="112">
+      <c r="K33" s="110">
         <f t="shared" ref="K33:N33" si="8">K36</f>
         <v>160</v>
       </c>
-      <c r="L33" s="112">
+      <c r="L33" s="110">
         <f t="shared" si="8"/>
         <v>640</v>
       </c>
-      <c r="M33" s="112">
+      <c r="M33" s="110">
         <f t="shared" si="8"/>
         <v>1440</v>
       </c>
-      <c r="N33" s="113">
+      <c r="N33" s="111">
         <f t="shared" si="8"/>
         <v>3200</v>
       </c>
@@ -4825,7 +4819,7 @@
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
-      <c r="N34" s="119">
+      <c r="N34" s="117">
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
@@ -4877,7 +4871,7 @@
         <f t="shared" si="11"/>
         <v>330000</v>
       </c>
-      <c r="N35" s="115">
+      <c r="N35" s="113">
         <f t="shared" si="11"/>
         <v>420000</v>
       </c>
@@ -4910,19 +4904,19 @@
       <c r="J36" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="112">
+      <c r="K36" s="110">
         <f>K30</f>
         <v>160</v>
       </c>
-      <c r="L36" s="112">
+      <c r="L36" s="110">
         <f t="shared" ref="L36:N36" si="12">K36+L30</f>
         <v>640</v>
       </c>
-      <c r="M36" s="112">
+      <c r="M36" s="110">
         <f t="shared" si="12"/>
         <v>1440</v>
       </c>
-      <c r="N36" s="113">
+      <c r="N36" s="111">
         <f t="shared" si="12"/>
         <v>3200</v>
       </c>
@@ -4972,7 +4966,7 @@
       <c r="M37" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="114" t="s">
+      <c r="N37" s="112" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5024,7 +5018,7 @@
         <f t="shared" si="14"/>
         <v>330000</v>
       </c>
-      <c r="N38" s="115">
+      <c r="N38" s="113">
         <f t="shared" si="14"/>
         <v>420000</v>
       </c>
@@ -7027,8 +7021,8 @@
   <sheetPr/>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -16760,7 +16754,7 @@
   <sheetPr/>
   <dimension ref="J21:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
@@ -17004,7 +16998,7 @@
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="118" t="s">
         <v>626</v>
       </c>
       <c r="G13" s="18"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28830" windowHeight="16840" activeTab="1"/>
+    <workbookView windowWidth="28830" windowHeight="16840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -3768,8 +3768,8 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17198,8 +17198,8 @@
   <sheetPr/>
   <dimension ref="J21:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28830" windowHeight="16840" activeTab="5"/>
+    <workbookView windowWidth="28830" windowHeight="16840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
     <t>汤姆·克拉克</t>
   </si>
   <si>
-    <t>寻宝达人</t>
+    <t>拾荒达人</t>
   </si>
   <si>
     <t>死里逃生</t>
@@ -6273,7 +6273,7 @@
   <dimension ref="B4:L52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -7146,8 +7146,8 @@
   <sheetPr/>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -17198,7 +17198,7 @@
   <sheetPr/>
   <dimension ref="J21:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="621">
   <si>
     <t>来源</t>
   </si>
@@ -2074,7 +2074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="76">
+  <fills count="77">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2216,6 +2216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,7 +2833,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2851,16 +2857,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="49" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2869,89 +2875,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3102,28 +3108,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3138,7 +3150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3165,7 +3177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3174,10 +3186,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3190,17 +3202,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3222,20 +3234,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3243,16 +3252,19 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3267,9 +3279,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3283,6 +3292,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
@@ -3635,7 +3647,7 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="117"/>
       <c r="G8" t="s">
         <v>2</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="118"/>
       <c r="G9" t="s">
         <v>6</v>
       </c>
@@ -3665,7 +3677,7 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="119"/>
       <c r="G10" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3692,7 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="120"/>
       <c r="G12" t="s">
         <v>12</v>
       </c>
@@ -3695,7 +3707,7 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="121"/>
       <c r="G13" t="s">
         <v>15</v>
       </c>
@@ -3710,7 +3722,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="120"/>
+      <c r="E14" s="122"/>
       <c r="G14" t="s">
         <v>17</v>
       </c>
@@ -3784,770 +3796,770 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="68">
-        <v>1</v>
-      </c>
-      <c r="D4" s="68">
-        <v>2</v>
-      </c>
-      <c r="E4" s="68">
+      <c r="C4" s="70">
+        <v>1</v>
+      </c>
+      <c r="D4" s="70">
+        <v>2</v>
+      </c>
+      <c r="E4" s="70">
         <v>3</v>
       </c>
-      <c r="F4" s="68">
-        <v>4</v>
-      </c>
-      <c r="G4" s="68">
+      <c r="F4" s="70">
+        <v>4</v>
+      </c>
+      <c r="G4" s="70">
         <v>5</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="70">
         <v>6</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="70">
         <v>7</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="70">
         <v>8</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="70">
         <v>9</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="70">
         <v>10</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="70">
         <v>11</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="97">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="98">
         <f t="shared" ref="K5:N5" si="0">ROUNDUP(K11/4,0)</f>
         <v>40</v>
       </c>
-      <c r="L5" s="96">
+      <c r="L5" s="98">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M5" s="96">
+      <c r="M5" s="98">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="N5" s="97">
+      <c r="N5" s="99">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="74">
         <f>C18/10</f>
         <v>1</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="74">
         <f t="shared" ref="D6:J6" si="1">D12/10</f>
         <v>3</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="74">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="74">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="74">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="74">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="74">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="74">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="98" t="s">
+      <c r="N6" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="76">
         <f>C19/10</f>
         <v>50</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="76">
         <f t="shared" ref="D7:J7" si="2">D13/10</f>
         <v>150</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="76">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="76">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="76">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="76">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="76">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="76">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="76">
         <f>ROUNDDOWN(K13/600,0)*100</f>
         <v>10000</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="76">
         <f t="shared" ref="L7:N7" si="3">ROUNDDOWN(L13/6000,0)*1000</f>
         <v>11000</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="76">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
-      <c r="N7" s="99">
+      <c r="N7" s="101">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="102">
         <v>32</v>
       </c>
-      <c r="L8" s="100">
+      <c r="L8" s="102">
         <v>64</v>
       </c>
-      <c r="M8" s="100">
+      <c r="M8" s="102">
         <v>128</v>
       </c>
-      <c r="N8" s="101">
+      <c r="N8" s="103">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="75">
-        <v>2</v>
-      </c>
-      <c r="D9" s="75">
-        <v>4</v>
-      </c>
-      <c r="E9" s="75">
+      <c r="C9" s="77">
+        <v>2</v>
+      </c>
+      <c r="D9" s="77">
+        <v>4</v>
+      </c>
+      <c r="E9" s="77">
         <v>8</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="77">
         <v>16</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="77">
         <v>32</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="77">
         <v>64</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="77">
         <v>128</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="77">
         <v>256</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="98" t="s">
+      <c r="N9" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="76">
         <f t="shared" ref="C10:J10" si="4">ROUNDUP(C9/0.75,0)</f>
         <v>3</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="76">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="76">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="76">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="76">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="76">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="76">
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="76">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="76">
         <f t="shared" ref="K10:N10" si="5">ROUNDUP(K8/0.75,0)</f>
         <v>43</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="76">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="76">
         <f t="shared" si="5"/>
         <v>171</v>
       </c>
-      <c r="N10" s="99">
+      <c r="N10" s="101">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="98">
         <f>K8*5</f>
         <v>160</v>
       </c>
-      <c r="L11" s="96">
+      <c r="L11" s="98">
         <f t="shared" ref="L11:N11" si="6">L8*10-K11</f>
         <v>480</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="98">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="99">
         <f t="shared" si="6"/>
         <v>1760</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="74">
         <f>D9*10-C15</f>
         <v>30</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="74">
         <f t="shared" ref="E12:J12" si="7">E9*10-D12</f>
         <v>50</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="74">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="74">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="74">
         <f t="shared" si="7"/>
         <v>430</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="74">
         <f t="shared" si="7"/>
         <v>850</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="74">
         <f t="shared" si="7"/>
         <v>1710</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="76" t="s">
+      <c r="M12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="80">
         <v>1500</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="80">
         <v>3000</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="80">
         <v>5000</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="80">
         <v>10000</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="80">
         <v>20000</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="80">
         <v>30000</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="80">
         <v>50000</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="80">
         <v>60000</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="80">
         <v>70000</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="80">
         <v>80000</v>
       </c>
-      <c r="N13" s="102">
+      <c r="N13" s="104">
         <v>90000</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="96">
+      <c r="K14" s="98">
         <f t="shared" ref="K14:N14" si="8">K17</f>
         <v>160</v>
       </c>
-      <c r="L14" s="96">
+      <c r="L14" s="98">
         <f t="shared" si="8"/>
         <v>640</v>
       </c>
-      <c r="M14" s="96">
+      <c r="M14" s="98">
         <f t="shared" si="8"/>
         <v>1440</v>
       </c>
-      <c r="N14" s="97">
+      <c r="N14" s="99">
         <f t="shared" si="8"/>
         <v>3200</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="74">
         <f>C9*5</f>
         <v>10</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="74">
         <f t="shared" ref="D15:J15" si="9">C18+D12</f>
         <v>40</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="74">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="74">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="74">
         <f t="shared" si="9"/>
         <v>410</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="74">
         <f t="shared" si="9"/>
         <v>840</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="74">
         <f t="shared" si="9"/>
         <v>1690</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="74">
         <f t="shared" si="9"/>
         <v>3400</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="74">
         <f t="shared" ref="K15:N15" si="10">J15</f>
         <v>3400</v>
       </c>
-      <c r="L15" s="72">
+      <c r="L15" s="74">
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="74">
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
-      <c r="N15" s="103">
+      <c r="N15" s="105">
         <f t="shared" si="10"/>
         <v>3400</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="80">
         <v>500</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="76">
         <f t="shared" ref="D16:N16" si="11">C19+D13</f>
         <v>2000</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="76">
         <f t="shared" si="11"/>
         <v>5000</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="76">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="76">
         <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="76">
         <f t="shared" si="11"/>
         <v>40000</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="76">
         <f t="shared" si="11"/>
         <v>70000</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="76">
         <f t="shared" si="11"/>
         <v>120000</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="76">
         <f t="shared" si="11"/>
         <v>180000</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="76">
         <f t="shared" si="11"/>
         <v>250000</v>
       </c>
-      <c r="M16" s="74">
+      <c r="M16" s="76">
         <f t="shared" si="11"/>
         <v>330000</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="101">
         <f t="shared" si="11"/>
         <v>420000</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="98">
         <f>K11</f>
         <v>160</v>
       </c>
-      <c r="L17" s="96">
+      <c r="L17" s="98">
         <f t="shared" ref="L17:N17" si="12">K17+L11</f>
         <v>640</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="98">
         <f t="shared" si="12"/>
         <v>1440</v>
       </c>
-      <c r="N17" s="97">
+      <c r="N17" s="99">
         <f t="shared" si="12"/>
         <v>3200</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="74">
         <f>C15</f>
         <v>10</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="74">
         <f t="shared" ref="D18:J18" si="13">C18+D12</f>
         <v>40</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="74">
         <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="74">
         <f t="shared" si="13"/>
         <v>200</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="74">
         <f t="shared" si="13"/>
         <v>410</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="74">
         <f t="shared" si="13"/>
         <v>840</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="74">
         <f t="shared" si="13"/>
         <v>1690</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="74">
         <f t="shared" si="13"/>
         <v>3400</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="76" t="s">
+      <c r="M18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="98" t="s">
+      <c r="N18" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="76">
         <f>C16</f>
         <v>500</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="76">
         <f t="shared" ref="D19:N19" si="14">C19+D13</f>
         <v>2000</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="76">
         <f t="shared" si="14"/>
         <v>5000</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="76">
         <f t="shared" si="14"/>
         <v>10000</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="76">
         <f t="shared" si="14"/>
         <v>20000</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="76">
         <f t="shared" si="14"/>
         <v>40000</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="76">
         <f t="shared" si="14"/>
         <v>70000</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="76">
         <f t="shared" si="14"/>
         <v>120000</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="76">
         <f t="shared" si="14"/>
         <v>180000</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="76">
         <f t="shared" si="14"/>
         <v>250000</v>
       </c>
-      <c r="M19" s="74">
+      <c r="M19" s="76">
         <f t="shared" si="14"/>
         <v>330000</v>
       </c>
-      <c r="N19" s="99">
+      <c r="N19" s="101">
         <f t="shared" si="14"/>
         <v>420000</v>
       </c>
     </row>
     <row r="23" spans="10:13">
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="57" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4558,27 +4570,27 @@
       <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81" t="s">
+      <c r="D24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="81" t="s">
+      <c r="I24" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="104" t="s">
+      <c r="J24" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="106" t="s">
+      <c r="L24" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="109" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4590,28 +4602,28 @@
         <v>54</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="83" t="s">
+      <c r="I25" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="83" t="s">
+      <c r="J25" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="83" t="s">
+      <c r="L25" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="83" t="s">
+      <c r="M25" s="85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4623,28 +4635,28 @@
         <v>60</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="85">
         <v>70</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="85">
         <v>70</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="85">
         <v>70</v>
       </c>
-      <c r="J26" s="83" t="s">
+      <c r="J26" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="83" t="s">
+      <c r="K26" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="83" t="s">
+      <c r="L26" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="83" t="s">
+      <c r="M26" s="85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4655,29 +4667,29 @@
       <c r="C27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="F27" s="82">
+      <c r="D27" s="86"/>
+      <c r="F27" s="84">
         <v>762</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="83" t="s">
+      <c r="H27" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="83" t="s">
+      <c r="I27" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="L27" s="83" t="s">
+      <c r="L27" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="83" t="s">
+      <c r="M27" s="85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4688,29 +4700,29 @@
       <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="F28" s="82" t="s">
+      <c r="D28" s="87"/>
+      <c r="F28" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="83" t="s">
+      <c r="I28" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="83" t="s">
+      <c r="J28" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="83" t="s">
+      <c r="L28" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="83" t="s">
+      <c r="M28" s="85" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4721,8 +4733,8 @@
       <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
       <c r="I29" s="28"/>
@@ -4739,24 +4751,24 @@
         <v>72</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="82"/>
+      <c r="G30" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="81"/>
-      <c r="J30" s="108" t="s">
+      <c r="I30" s="83"/>
+      <c r="J30" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="109" t="s">
+      <c r="K30" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="110" t="s">
+      <c r="L30" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="109" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4767,27 +4779,27 @@
       <c r="C31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="F31" s="82" t="s">
+      <c r="D31" s="90"/>
+      <c r="F31" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83" t="s">
+      <c r="I31" s="85"/>
+      <c r="J31" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="66">
         <v>150</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="L31" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="83" t="s">
+      <c r="M31" s="85" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4799,26 +4811,26 @@
         <v>84</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="85">
         <v>50</v>
       </c>
-      <c r="H32" s="83">
+      <c r="H32" s="85">
         <v>50</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83" t="s">
+      <c r="I32" s="85"/>
+      <c r="J32" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="66">
         <v>150</v>
       </c>
-      <c r="L32" s="83" t="s">
+      <c r="L32" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="85" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4829,8 +4841,8 @@
       <c r="C33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="F33" s="87"/>
+      <c r="D33" s="91"/>
+      <c r="F33" s="89"/>
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
       <c r="I33" s="28"/>
@@ -4846,21 +4858,21 @@
       <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81" t="s">
+      <c r="D34" s="92"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="81" t="s">
+      <c r="I34" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="6" t="s">
@@ -4869,23 +4881,23 @@
       <c r="C35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="91"/>
-      <c r="F35" s="82" t="s">
+      <c r="D35" s="93"/>
+      <c r="F35" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="66">
         <v>30</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="6" t="s">
@@ -4894,8 +4906,8 @@
       <c r="C36" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="F36" s="87"/>
+      <c r="D36" s="94"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
       <c r="I36" s="28"/>
@@ -4905,20 +4917,20 @@
       <c r="M36" s="28"/>
     </row>
     <row r="37" spans="6:13">
-      <c r="F37" s="80"/>
-      <c r="G37" s="81" t="s">
+      <c r="F37" s="82"/>
+      <c r="G37" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="81" t="s">
+      <c r="I37" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="6" t="s">
@@ -4928,112 +4940,112 @@
         <v>101</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="83" t="s">
+      <c r="G38" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="83" t="s">
+      <c r="H38" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="I38" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93" t="s">
+      <c r="C42" s="95"/>
+      <c r="D42" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="93" t="s">
+      <c r="E42" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="I42" s="93" t="s">
+      <c r="I42" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="J42" s="93" t="s">
+      <c r="J42" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="L42" s="93" t="s">
+      <c r="L42" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="M42" s="93" t="s">
+      <c r="M42" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="N42" s="93" t="s">
+      <c r="N42" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="O42" s="93" t="s">
+      <c r="O42" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="P42" s="93" t="s">
+      <c r="P42" s="95" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="96" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D43" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="94" t="s">
+      <c r="F43" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="94" t="s">
+      <c r="G43" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="94" t="s">
+      <c r="H43" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="94" t="s">
+      <c r="I43" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="94" t="s">
+      <c r="J43" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="K43" s="94" t="s">
+      <c r="K43" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="L43" s="94" t="s">
+      <c r="L43" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="M43" s="94" t="s">
+      <c r="M43" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="94" t="s">
+      <c r="N43" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="94" t="s">
+      <c r="O43" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="P43" s="94" t="s">
+      <c r="P43" s="96" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5100,49 +5112,49 @@
       <c r="P45" s="53"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="96" t="s">
         <v>68</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="94" t="s">
+      <c r="E46" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="94" t="s">
+      <c r="F46" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="94" t="s">
+      <c r="G46" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="94" t="s">
+      <c r="H46" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="94" t="s">
+      <c r="I46" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="J46" s="94" t="s">
+      <c r="J46" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="K46" s="94" t="s">
+      <c r="K46" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="94" t="s">
+      <c r="L46" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="M46" s="94" t="s">
+      <c r="M46" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="N46" s="94" t="s">
+      <c r="N46" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="O46" s="94" t="s">
+      <c r="O46" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="P46" s="94" t="s">
+      <c r="P46" s="96" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5344,49 +5356,49 @@
       <c r="P51" s="53"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="96" t="s">
         <v>166</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="94" t="s">
+      <c r="E52" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="94" t="s">
+      <c r="F52" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="94" t="s">
+      <c r="G52" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="H52" s="94" t="s">
+      <c r="H52" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="I52" s="94" t="s">
+      <c r="I52" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="J52" s="94" t="s">
+      <c r="J52" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="K52" s="94" t="s">
+      <c r="K52" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="L52" s="94" t="s">
+      <c r="L52" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="M52" s="94" t="s">
+      <c r="M52" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="N52" s="94" t="s">
+      <c r="N52" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="O52" s="94" t="s">
+      <c r="O52" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="P52" s="94" t="s">
+      <c r="P52" s="96" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5498,49 +5510,49 @@
       <c r="P55" s="53"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="96" t="s">
         <v>121</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="94" t="s">
+      <c r="D56" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="94" t="s">
+      <c r="E56" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="94" t="s">
+      <c r="F56" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="94" t="s">
+      <c r="G56" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="94" t="s">
+      <c r="H56" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="I56" s="94" t="s">
+      <c r="I56" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="J56" s="94" t="s">
+      <c r="J56" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="K56" s="94" t="s">
+      <c r="K56" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="L56" s="94" t="s">
+      <c r="L56" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="M56" s="94" t="s">
+      <c r="M56" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="N56" s="94" t="s">
+      <c r="N56" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="O56" s="94" t="s">
+      <c r="O56" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="P56" s="94" t="s">
+      <c r="P56" s="96" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5652,49 +5664,49 @@
       <c r="P59" s="53"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="96" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="G60" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="94" t="s">
+      <c r="H60" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="94" t="s">
+      <c r="I60" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="J60" s="94" t="s">
+      <c r="J60" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="K60" s="94" t="s">
+      <c r="K60" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="L60" s="94" t="s">
+      <c r="L60" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="M60" s="94" t="s">
+      <c r="M60" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="N60" s="94" t="s">
+      <c r="N60" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="O60" s="94" t="s">
+      <c r="O60" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="P60" s="94" t="s">
+      <c r="P60" s="96" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5806,143 +5818,143 @@
       <c r="P63" s="53"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="96" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="94" t="s">
+      <c r="E64" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="94" t="s">
+      <c r="F64" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="G64" s="94" t="s">
+      <c r="G64" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="H64" s="94" t="s">
+      <c r="H64" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="I64" s="94" t="s">
+      <c r="I64" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="J64" s="94" t="s">
+      <c r="J64" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="K64" s="94" t="s">
+      <c r="K64" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="L64" s="94" t="s">
+      <c r="L64" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="M64" s="94" t="s">
+      <c r="M64" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="N64" s="94" t="s">
+      <c r="N64" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="O64" s="94" t="s">
+      <c r="O64" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="P64" s="94" t="s">
+      <c r="P64" s="96" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="66" spans="2:16">
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="96" t="s">
         <v>217</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="G66" s="94" t="s">
+      <c r="G66" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="H66" s="94" t="s">
+      <c r="H66" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="I66" s="94" t="s">
+      <c r="I66" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="J66" s="94" t="s">
+      <c r="J66" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="K66" s="94" t="s">
+      <c r="K66" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="L66" s="94" t="s">
+      <c r="L66" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="M66" s="94" t="s">
+      <c r="M66" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="N66" s="94" t="s">
+      <c r="N66" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="O66" s="94" t="s">
+      <c r="O66" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="P66" s="94" t="s">
+      <c r="P66" s="96" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="68" spans="2:16">
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="96" t="s">
         <v>187</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="94" t="s">
+      <c r="E68" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="94" t="s">
+      <c r="F68" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="G68" s="94" t="s">
+      <c r="G68" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="H68" s="94" t="s">
+      <c r="H68" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="I68" s="94" t="s">
+      <c r="I68" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="J68" s="94" t="s">
+      <c r="J68" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="K68" s="94" t="s">
+      <c r="K68" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="L68" s="94" t="s">
+      <c r="L68" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="M68" s="94" t="s">
+      <c r="M68" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="N68" s="94" t="s">
+      <c r="N68" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="O68" s="94" t="s">
+      <c r="O68" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="P68" s="94" t="s">
+      <c r="P68" s="96" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5951,265 +5963,265 @@
       <c r="C69" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D69" s="111">
+      <c r="D69" s="113">
         <v>45</v>
       </c>
-      <c r="E69" s="111">
+      <c r="E69" s="113">
         <v>60</v>
       </c>
-      <c r="F69" s="111">
+      <c r="F69" s="113">
         <v>75</v>
       </c>
-      <c r="G69" s="111">
+      <c r="G69" s="113">
         <v>90</v>
       </c>
-      <c r="H69" s="111">
+      <c r="H69" s="113">
         <v>105</v>
       </c>
-      <c r="I69" s="111">
+      <c r="I69" s="113">
         <v>120</v>
       </c>
-      <c r="J69" s="111">
+      <c r="J69" s="113">
         <v>135</v>
       </c>
-      <c r="K69" s="111">
+      <c r="K69" s="113">
         <v>150</v>
       </c>
-      <c r="L69" s="111">
+      <c r="L69" s="113">
         <v>165</v>
       </c>
-      <c r="M69" s="111">
+      <c r="M69" s="113">
         <v>180</v>
       </c>
-      <c r="N69" s="111">
+      <c r="N69" s="113">
         <v>195</v>
       </c>
-      <c r="O69" s="111">
+      <c r="O69" s="113">
         <v>210</v>
       </c>
-      <c r="P69" s="111">
+      <c r="P69" s="113">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="53"/>
       <c r="C70" s="28"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
     </row>
     <row r="71" customFormat="1" spans="2:16">
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="96" t="s">
         <v>187</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="94" t="s">
+      <c r="D71" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="94" t="s">
+      <c r="E71" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="F71" s="94" t="s">
+      <c r="F71" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="94" t="s">
+      <c r="G71" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="H71" s="94" t="s">
+      <c r="H71" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="I71" s="94" t="s">
+      <c r="I71" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="J71" s="94" t="s">
+      <c r="J71" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="K71" s="94" t="s">
+      <c r="K71" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="L71" s="94" t="s">
+      <c r="L71" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="M71" s="94" t="s">
+      <c r="M71" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="N71" s="94" t="s">
+      <c r="N71" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="O71" s="94" t="s">
+      <c r="O71" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="P71" s="94" t="s">
+      <c r="P71" s="96" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="72" spans="2:16">
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="114" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D72" s="113">
+      <c r="D72" s="115">
         <v>55</v>
       </c>
-      <c r="E72" s="113">
+      <c r="E72" s="115">
         <v>70</v>
       </c>
-      <c r="F72" s="113">
+      <c r="F72" s="115">
         <v>85</v>
       </c>
-      <c r="G72" s="113">
+      <c r="G72" s="115">
         <v>100</v>
       </c>
-      <c r="H72" s="113">
+      <c r="H72" s="115">
         <v>120</v>
       </c>
-      <c r="I72" s="113">
+      <c r="I72" s="115">
         <v>140</v>
       </c>
-      <c r="J72" s="113">
+      <c r="J72" s="115">
         <v>160</v>
       </c>
-      <c r="K72" s="113">
+      <c r="K72" s="115">
         <v>180</v>
       </c>
-      <c r="L72" s="113">
+      <c r="L72" s="115">
         <v>210</v>
       </c>
-      <c r="M72" s="113">
+      <c r="M72" s="115">
         <v>240</v>
       </c>
-      <c r="N72" s="113">
+      <c r="N72" s="115">
         <v>270</v>
       </c>
-      <c r="O72" s="113">
+      <c r="O72" s="115">
         <v>300</v>
       </c>
-      <c r="P72" s="113" t="s">
+      <c r="P72" s="115" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="2:16">
       <c r="B73" s="53"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
     </row>
     <row r="74" customFormat="1" spans="2:16">
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="96" t="s">
         <v>187</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D74" s="94" t="s">
+      <c r="D74" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="94" t="s">
+      <c r="E74" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="F74" s="94" t="s">
+      <c r="F74" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="G74" s="94" t="s">
+      <c r="G74" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="H74" s="94" t="s">
+      <c r="H74" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="I74" s="94" t="s">
+      <c r="I74" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="J74" s="94" t="s">
+      <c r="J74" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="K74" s="94" t="s">
+      <c r="K74" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="L74" s="94" t="s">
+      <c r="L74" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="M74" s="94" t="s">
+      <c r="M74" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="N74" s="94" t="s">
+      <c r="N74" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="O74" s="94" t="s">
+      <c r="O74" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="P74" s="94" t="s">
+      <c r="P74" s="96" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:16">
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="114" t="s">
         <v>86</v>
       </c>
       <c r="C75" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="113">
+      <c r="D75" s="115">
         <v>115</v>
       </c>
-      <c r="E75" s="113">
+      <c r="E75" s="115">
         <v>130</v>
       </c>
-      <c r="F75" s="113">
+      <c r="F75" s="115">
         <v>145</v>
       </c>
-      <c r="G75" s="113">
+      <c r="G75" s="115">
         <v>160</v>
       </c>
-      <c r="H75" s="113">
+      <c r="H75" s="115">
         <v>180</v>
       </c>
-      <c r="I75" s="113">
+      <c r="I75" s="115">
         <v>200</v>
       </c>
-      <c r="J75" s="113">
+      <c r="J75" s="115">
         <v>220</v>
       </c>
-      <c r="K75" s="114">
+      <c r="K75" s="116">
         <v>240</v>
       </c>
-      <c r="L75" s="113">
+      <c r="L75" s="115">
         <v>280</v>
       </c>
-      <c r="M75" s="113">
+      <c r="M75" s="115">
         <v>320</v>
       </c>
-      <c r="N75" s="113">
+      <c r="N75" s="115">
         <v>360</v>
       </c>
-      <c r="O75" s="113">
+      <c r="O75" s="115">
         <v>400</v>
       </c>
-      <c r="P75" s="113" t="s">
+      <c r="P75" s="115" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6220,43 +6232,43 @@
       <c r="C76" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="111">
+      <c r="D76" s="113">
         <v>60</v>
       </c>
-      <c r="E76" s="111">
+      <c r="E76" s="113">
         <v>70</v>
       </c>
-      <c r="F76" s="111">
+      <c r="F76" s="113">
         <v>80</v>
       </c>
-      <c r="G76" s="111">
+      <c r="G76" s="113">
         <v>90</v>
       </c>
-      <c r="H76" s="111">
+      <c r="H76" s="113">
         <v>105</v>
       </c>
-      <c r="I76" s="111">
+      <c r="I76" s="113">
         <v>120</v>
       </c>
-      <c r="J76" s="111">
+      <c r="J76" s="113">
         <v>135</v>
       </c>
-      <c r="K76" s="111">
+      <c r="K76" s="113">
         <v>150</v>
       </c>
-      <c r="L76" s="111">
+      <c r="L76" s="113">
         <v>170</v>
       </c>
-      <c r="M76" s="111">
+      <c r="M76" s="113">
         <v>190</v>
       </c>
-      <c r="N76" s="111">
+      <c r="N76" s="113">
         <v>210</v>
       </c>
-      <c r="O76" s="111">
+      <c r="O76" s="113">
         <v>230</v>
       </c>
-      <c r="P76" s="111" t="s">
+      <c r="P76" s="113" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6294,826 +6306,826 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:12">
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="J6" s="63" t="s">
+      <c r="D6" s="61"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="J6" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="67" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="J7" s="63" t="s">
+      <c r="D7" s="61"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="J7" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="64"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="J8" s="63" t="s">
+      <c r="D8" s="61"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="J8" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L8" s="64"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="J9" s="63" t="s">
+      <c r="D9" s="61"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="J9" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61" t="s">
+      <c r="D11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61" t="s">
+      <c r="J11" s="62"/>
+      <c r="K11" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="F12" s="63" t="s">
+      <c r="D12" s="61"/>
+      <c r="F12" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="67" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="F13" s="63" t="s">
+      <c r="D13" s="61"/>
+      <c r="F13" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="J13" s="63" t="s">
+      <c r="H13" s="66"/>
+      <c r="J13" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="F14" s="63" t="s">
+      <c r="D14" s="61"/>
+      <c r="F14" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="J14" s="63" t="s">
+      <c r="H14" s="66"/>
+      <c r="J14" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L14" s="64"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="59"/>
-      <c r="F15" s="63" t="s">
+      <c r="D15" s="61"/>
+      <c r="F15" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="J15" s="63" t="s">
+      <c r="H15" s="66"/>
+      <c r="J15" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L15" s="64"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="59"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61" t="s">
+      <c r="D17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="59"/>
-      <c r="F18" s="63" t="s">
+      <c r="D18" s="61"/>
+      <c r="F18" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="67" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="59"/>
-      <c r="F19" s="63" t="s">
+      <c r="D19" s="61"/>
+      <c r="F19" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="64"/>
-      <c r="J19" s="63" t="s">
+      <c r="H19" s="66"/>
+      <c r="J19" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="59"/>
-      <c r="F20" s="63" t="s">
+      <c r="D20" s="61"/>
+      <c r="F20" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="J20" s="63" t="s">
+      <c r="H20" s="66"/>
+      <c r="J20" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="59"/>
-      <c r="F21" s="63" t="s">
+      <c r="D21" s="61"/>
+      <c r="F21" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="J21" s="63" t="s">
+      <c r="H21" s="66"/>
+      <c r="J21" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="59"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
+      <c r="D23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61" t="s">
+      <c r="J23" s="62"/>
+      <c r="K23" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="59"/>
-      <c r="F24" s="63" t="s">
+      <c r="D24" s="61"/>
+      <c r="F24" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="67" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="59"/>
-      <c r="F25" s="63" t="s">
+      <c r="D25" s="61"/>
+      <c r="F25" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="J25" s="63" t="s">
+      <c r="H25" s="66"/>
+      <c r="J25" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="L25" s="64"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="59"/>
-      <c r="F26" s="63" t="s">
+      <c r="D26" s="61"/>
+      <c r="F26" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="J26" s="63" t="s">
+      <c r="H26" s="66"/>
+      <c r="J26" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="59"/>
-      <c r="F27" s="63" t="s">
+      <c r="D27" s="61"/>
+      <c r="F27" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="J27" s="63" t="s">
+      <c r="H27" s="66"/>
+      <c r="J27" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="66"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="59"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61" t="s">
+      <c r="D29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="59"/>
-      <c r="F30" s="63" t="s">
+      <c r="D30" s="61"/>
+      <c r="F30" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="66" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="59"/>
-      <c r="F31" s="63" t="s">
+      <c r="D31" s="61"/>
+      <c r="F31" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="J31" s="63" t="s">
+      <c r="H31" s="66"/>
+      <c r="J31" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="66"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="59"/>
-      <c r="F32" s="63" t="s">
+      <c r="D32" s="61"/>
+      <c r="F32" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="J32" s="63" t="s">
+      <c r="H32" s="66"/>
+      <c r="J32" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="L32" s="64"/>
+      <c r="L32" s="66"/>
     </row>
     <row r="33" spans="4:12">
-      <c r="D33" s="59"/>
-      <c r="F33" s="63" t="s">
+      <c r="D33" s="61"/>
+      <c r="F33" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="J33" s="63" t="s">
+      <c r="H33" s="66"/>
+      <c r="J33" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L33" s="64"/>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="59"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="59"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61" t="s">
+      <c r="D35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61" t="s">
+      <c r="J35" s="62"/>
+      <c r="K35" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="59"/>
-      <c r="F36" s="63" t="s">
+      <c r="D36" s="61"/>
+      <c r="F36" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="J36" s="63" t="s">
+      <c r="J36" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="K36" s="55" t="s">
+      <c r="K36" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="L36" s="67" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="59"/>
-      <c r="F37" s="63" t="s">
+      <c r="D37" s="61"/>
+      <c r="F37" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="J37" s="63" t="s">
+      <c r="H37" s="66"/>
+      <c r="J37" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="K37" s="55" t="s">
+      <c r="K37" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="L37" s="64"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="59"/>
-      <c r="F38" s="63" t="s">
+      <c r="D38" s="61"/>
+      <c r="F38" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="J38" s="63" t="s">
+      <c r="H38" s="66"/>
+      <c r="J38" s="65" t="s">
         <v>311</v>
       </c>
       <c r="K38" t="s">
         <v>269</v>
       </c>
-      <c r="L38" s="64"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="59"/>
-      <c r="F39" s="63" t="s">
+      <c r="D39" s="61"/>
+      <c r="F39" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="H39" s="64"/>
-      <c r="J39" s="63" t="s">
+      <c r="H39" s="66"/>
+      <c r="J39" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="K39" s="55" t="s">
+      <c r="K39" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L39" s="64"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="59"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="59"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61" t="s">
+      <c r="D41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J41" s="60"/>
-      <c r="K41" s="61" t="s">
+      <c r="J41" s="62"/>
+      <c r="K41" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L41" s="62" t="s">
+      <c r="L41" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="59"/>
-      <c r="F42" s="63" t="s">
+      <c r="D42" s="61"/>
+      <c r="F42" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="J42" s="63" t="s">
+      <c r="J42" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="K42" s="55" t="s">
+      <c r="K42" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="L42" s="64" t="s">
+      <c r="L42" s="66" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="43" spans="4:12">
-      <c r="D43" s="59"/>
-      <c r="F43" s="63" t="s">
+      <c r="D43" s="61"/>
+      <c r="F43" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="H43" s="64"/>
-      <c r="J43" s="63" t="s">
+      <c r="H43" s="66"/>
+      <c r="J43" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="K43" s="55" t="s">
+      <c r="K43" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="L43" s="64"/>
+      <c r="L43" s="66"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="59"/>
-      <c r="F44" s="63" t="s">
+      <c r="D44" s="61"/>
+      <c r="F44" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="J44" s="63" t="s">
+      <c r="H44" s="66"/>
+      <c r="J44" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="K44" s="55" t="s">
+      <c r="K44" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="L44" s="64"/>
+      <c r="L44" s="66"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="59"/>
-      <c r="F45" s="63" t="s">
+      <c r="D45" s="61"/>
+      <c r="F45" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="64"/>
-      <c r="J45" s="63" t="s">
+      <c r="H45" s="66"/>
+      <c r="J45" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="K45" s="55" t="s">
+      <c r="K45" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="L45" s="64"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="59"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="D46" s="61"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="59"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61" t="s">
+      <c r="D47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="61" t="s">
+      <c r="J47" s="62"/>
+      <c r="K47" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L47" s="62" t="s">
+      <c r="L47" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="59"/>
-      <c r="F48" s="63" t="s">
+      <c r="D48" s="61"/>
+      <c r="F48" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="H48" s="65" t="s">
+      <c r="H48" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="J48" s="63" t="s">
+      <c r="J48" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="K48" s="55" t="s">
+      <c r="K48" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="L48" s="67" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="59"/>
-      <c r="F49" s="63" t="s">
+      <c r="D49" s="61"/>
+      <c r="F49" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="H49" s="64"/>
-      <c r="J49" s="63" t="s">
+      <c r="H49" s="66"/>
+      <c r="J49" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="K49" s="55" t="s">
+      <c r="K49" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L49" s="64"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="59"/>
-      <c r="F50" s="63" t="s">
+      <c r="D50" s="61"/>
+      <c r="F50" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="64"/>
-      <c r="J50" s="63" t="s">
+      <c r="H50" s="66"/>
+      <c r="J50" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="K50" s="55" t="s">
+      <c r="K50" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="L50" s="64"/>
+      <c r="L50" s="66"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="66"/>
-      <c r="F51" s="63" t="s">
+      <c r="D51" s="68"/>
+      <c r="F51" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="H51" s="64"/>
-      <c r="J51" s="63" t="s">
+      <c r="H51" s="66"/>
+      <c r="J51" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="K51" s="55" t="s">
+      <c r="K51" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="L51" s="64"/>
+      <c r="L51" s="66"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7146,8 +7158,8 @@
   <sheetPr/>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="Y97" sqref="Y97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -7720,7 +7732,7 @@
         <v>339</v>
       </c>
       <c r="B19" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="29"/>
@@ -7752,7 +7764,7 @@
         <v>340</v>
       </c>
       <c r="B20" s="29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="29"/>
@@ -14007,7 +14019,7 @@
         <v>2</v>
       </c>
       <c r="X115" s="27"/>
-      <c r="Y115" s="42" t="s">
+      <c r="Y115" s="54" t="s">
         <v>376</v>
       </c>
       <c r="Z115" s="29">
@@ -14085,7 +14097,7 @@
         <v>2</v>
       </c>
       <c r="X116" s="27"/>
-      <c r="Y116" s="41" t="s">
+      <c r="Y116" s="54" t="s">
         <v>382</v>
       </c>
       <c r="Z116" s="29">
@@ -14163,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="X117" s="27"/>
-      <c r="Y117" s="42" t="s">
+      <c r="Y117" s="54" t="s">
         <v>387</v>
       </c>
       <c r="Z117" s="29">
@@ -14241,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="X118" s="27"/>
-      <c r="Y118" s="41" t="s">
+      <c r="Y118" s="54" t="s">
         <v>389</v>
       </c>
       <c r="Z118" s="29">
@@ -14631,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="X123" s="27"/>
-      <c r="Y123" s="42" t="s">
+      <c r="Y123" s="54" t="s">
         <v>416</v>
       </c>
       <c r="Z123" s="29">
@@ -14727,7 +14739,7 @@
         <v>422</v>
       </c>
       <c r="D125" s="51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E125" s="42" t="s">
         <v>357</v>
@@ -14742,7 +14754,7 @@
         <v>358</v>
       </c>
       <c r="I125" s="51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J125" s="42" t="s">
         <v>357</v>
@@ -14757,7 +14769,7 @@
         <v>358</v>
       </c>
       <c r="N125" s="51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O125" s="42" t="s">
         <v>357</v>
@@ -14772,7 +14784,7 @@
         <v>358</v>
       </c>
       <c r="S125" s="51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T125" s="42" t="s">
         <v>357</v>
@@ -14787,9 +14799,7 @@
         <v>358</v>
       </c>
       <c r="X125" s="27"/>
-      <c r="Y125" s="42" t="s">
-        <v>521</v>
-      </c>
+      <c r="Y125" s="42"/>
       <c r="Z125" s="29">
         <v>1</v>
       </c>
@@ -14943,7 +14953,7 @@
         <v>2</v>
       </c>
       <c r="X127" s="27"/>
-      <c r="Y127" s="42" t="s">
+      <c r="Y127" s="54" t="s">
         <v>432</v>
       </c>
       <c r="Z127" s="29">
@@ -15021,7 +15031,7 @@
         <v>358</v>
       </c>
       <c r="X128" s="27"/>
-      <c r="Y128" s="41" t="s">
+      <c r="Y128" s="54" t="s">
         <v>437</v>
       </c>
       <c r="Z128" s="29">
@@ -15099,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="X129" s="27"/>
-      <c r="Y129" s="42" t="s">
+      <c r="Y129" s="54" t="s">
         <v>372</v>
       </c>
       <c r="Z129" s="29">
@@ -15177,7 +15187,7 @@
         <v>2</v>
       </c>
       <c r="X130" s="27"/>
-      <c r="Y130" s="41" t="s">
+      <c r="Y130" s="54" t="s">
         <v>446</v>
       </c>
       <c r="Z130" s="29">
@@ -15567,7 +15577,7 @@
         <v>2</v>
       </c>
       <c r="X135" s="27"/>
-      <c r="Y135" s="42" t="s">
+      <c r="Y135" s="54" t="s">
         <v>407</v>
       </c>
       <c r="Z135" s="29">
@@ -15645,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="X136" s="27"/>
-      <c r="Y136" s="28" t="s">
+      <c r="Y136" s="55" t="s">
         <v>366</v>
       </c>
       <c r="Z136" s="29">
@@ -15723,7 +15733,7 @@
         <v>358</v>
       </c>
       <c r="X137" s="27"/>
-      <c r="Y137" s="42" t="s">
+      <c r="Y137" s="54" t="s">
         <v>477</v>
       </c>
       <c r="Z137" s="29">
@@ -15879,7 +15889,7 @@
         <v>2</v>
       </c>
       <c r="X139" s="27"/>
-      <c r="Y139" s="43" t="s">
+      <c r="Y139" s="55" t="s">
         <v>483</v>
       </c>
       <c r="Z139" s="29">
@@ -15957,7 +15967,7 @@
         <v>1</v>
       </c>
       <c r="X140" s="27"/>
-      <c r="Y140" s="41" t="s">
+      <c r="Y140" s="54" t="s">
         <v>365</v>
       </c>
       <c r="Z140" s="29">
@@ -16113,7 +16123,7 @@
         <v>2</v>
       </c>
       <c r="X142" s="27"/>
-      <c r="Y142" s="41" t="s">
+      <c r="Y142" s="54" t="s">
         <v>495</v>
       </c>
       <c r="Z142" s="29">
@@ -16425,7 +16435,7 @@
         <v>2</v>
       </c>
       <c r="X146" s="27"/>
-      <c r="Y146" s="41" t="s">
+      <c r="Y146" s="54" t="s">
         <v>402</v>
       </c>
       <c r="Z146" s="29">
@@ -16581,7 +16591,7 @@
         <v>2</v>
       </c>
       <c r="X148" s="27"/>
-      <c r="Y148" s="41" t="s">
+      <c r="Y148" s="54" t="s">
         <v>417</v>
       </c>
       <c r="Z148" s="29">
@@ -16923,7 +16933,7 @@
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="123" t="s">
         <v>546</v>
       </c>
       <c r="G13" s="13"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="625">
   <si>
     <t>来源</t>
   </si>
@@ -1072,7 +1072,7 @@
     <t>总技能点数偏移</t>
   </si>
   <si>
-    <t>普通10</t>
+    <t>普通6</t>
   </si>
   <si>
     <t>护甲</t>
@@ -1612,10 +1612,7 @@
     <t>总点数偏移</t>
   </si>
   <si>
-    <t>晶化16</t>
-  </si>
-  <si>
-    <t>霜爪丧尸的霸气</t>
+    <t>晶化12</t>
   </si>
   <si>
     <t>可安装多技能晶石</t>
@@ -7165,8 +7162,8 @@
   <sheetPr/>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:W67"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="Y84" sqref="Y84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -10851,8 +10848,8 @@
       <c r="C67" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="D67" s="29">
-        <v>3</v>
+      <c r="D67" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>358</v>
@@ -10866,8 +10863,8 @@
       <c r="H67" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="I67" s="29">
-        <v>3</v>
+      <c r="I67" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="J67" s="42" t="s">
         <v>358</v>
@@ -10881,8 +10878,8 @@
       <c r="M67" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="N67" s="29">
-        <v>3</v>
+      <c r="N67" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="O67" s="42" t="s">
         <v>358</v>
@@ -10896,8 +10893,8 @@
       <c r="R67" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="S67" s="29">
-        <v>3</v>
+      <c r="S67" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="T67" s="42" t="s">
         <v>358</v>
@@ -11914,9 +11911,7 @@
         <v>359</v>
       </c>
       <c r="X83" s="27"/>
-      <c r="Y83" s="43" t="s">
-        <v>527</v>
-      </c>
+      <c r="Y83" s="27"/>
       <c r="Z83" s="29">
         <v>1</v>
       </c>
@@ -13693,8 +13688,8 @@
       <c r="C109" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="D109" s="29">
-        <v>4</v>
+      <c r="D109" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="E109" s="42" t="s">
         <v>358</v>
@@ -13708,8 +13703,8 @@
       <c r="H109" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="I109" s="29">
-        <v>4</v>
+      <c r="I109" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="J109" s="42" t="s">
         <v>358</v>
@@ -13723,8 +13718,8 @@
       <c r="M109" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="N109" s="29">
-        <v>4</v>
+      <c r="N109" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="O109" s="42" t="s">
         <v>358</v>
@@ -13738,8 +13733,8 @@
       <c r="R109" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="S109" s="29">
-        <v>4</v>
+      <c r="S109" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="T109" s="42" t="s">
         <v>358</v>
@@ -13819,7 +13814,7 @@
     <row r="112" s="2" customFormat="1" spans="1:26">
       <c r="A112" s="27"/>
       <c r="B112" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="28"/>
@@ -13844,10 +13839,10 @@
       <c r="W112" s="28"/>
       <c r="X112" s="27"/>
       <c r="Y112" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z112" s="29" t="s">
         <v>529</v>
-      </c>
-      <c r="Z112" s="29" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:26">
@@ -13855,7 +13850,7 @@
         <v>525</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>347</v>
@@ -13922,7 +13917,7 @@
       </c>
       <c r="X113" s="27"/>
       <c r="Y113" s="52" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z113" s="29"/>
     </row>
@@ -14793,7 +14788,7 @@
         <v>359</v>
       </c>
       <c r="X125" s="27"/>
-      <c r="Y125" s="43"/>
+      <c r="Y125" s="55"/>
       <c r="Z125" s="29">
         <v>1</v>
       </c>
@@ -16821,92 +16816,92 @@
   <sheetData>
     <row r="4" spans="6:8">
       <c r="F4" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="6:6">
@@ -16917,22 +16912,22 @@
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>558</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -16950,12 +16945,12 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="23"/>
       <c r="K18" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -16965,53 +16960,53 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="J19" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="M19" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="N19" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="17" t="s">
         <v>572</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>573</v>
       </c>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
@@ -17027,55 +17022,55 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="O21" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="P21" s="18" t="s">
         <v>586</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
@@ -17091,44 +17086,44 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="I23" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="J23" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="L23" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="M23" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="N23" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="O23" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="P23" s="20" t="s">
         <v>599</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -17191,33 +17186,33 @@
   <sheetData>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="11:12">
       <c r="K27" t="s">
+        <v>603</v>
+      </c>
+      <c r="L27" t="s">
         <v>604</v>
-      </c>
-      <c r="L27" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="28" spans="11:12">
       <c r="K28" t="s">
+        <v>605</v>
+      </c>
+      <c r="L28" t="s">
         <v>606</v>
-      </c>
-      <c r="L28" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="29" spans="11:11">
@@ -17227,13 +17222,13 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
+        <v>607</v>
+      </c>
+      <c r="L30" t="s">
         <v>608</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>609</v>
-      </c>
-      <c r="M30" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="31" spans="11:11">
@@ -17248,61 +17243,61 @@
     </row>
     <row r="33" spans="11:12">
       <c r="K33" t="s">
+        <v>610</v>
+      </c>
+      <c r="L33" t="s">
         <v>611</v>
-      </c>
-      <c r="L33" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
+        <v>613</v>
+      </c>
+      <c r="M35" t="s">
         <v>614</v>
-      </c>
-      <c r="M35" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="36" spans="11:12">
       <c r="K36" t="s">
+        <v>615</v>
+      </c>
+      <c r="L36" t="s">
         <v>616</v>
-      </c>
-      <c r="L36" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="37" spans="11:12">
       <c r="K37" t="s">
+        <v>617</v>
+      </c>
+      <c r="L37" t="s">
         <v>618</v>
-      </c>
-      <c r="L37" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="38" ht="43" customHeight="1" spans="11:14">
       <c r="K38" t="s">
+        <v>619</v>
+      </c>
+      <c r="L38" t="s">
         <v>620</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" t="s">
         <v>622</v>
-      </c>
-      <c r="N38" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="40" spans="11:12">
       <c r="K40" t="s">
+        <v>623</v>
+      </c>
+      <c r="L40" t="s">
         <v>624</v>
-      </c>
-      <c r="L40" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="10"/>
+    <workbookView windowHeight="16840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="903">
   <si>
     <t>来源</t>
   </si>
@@ -1654,6 +1654,9 @@
   </si>
   <si>
     <t>【极意】炼铜</t>
+  </si>
+  <si>
+    <t>【极意】火场怪力</t>
   </si>
   <si>
     <t>【极意】精灵加护</t>
@@ -4930,26 +4933,26 @@
   <sheetData>
     <row r="15" customFormat="1" spans="5:5">
       <c r="E15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="6:11">
       <c r="F16" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>861</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:13">
       <c r="E17" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>186</v>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>68</v>
@@ -4971,7 +4974,7 @@
     </row>
     <row r="18" customFormat="1" spans="5:13">
       <c r="E18" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>186</v>
@@ -4981,7 +4984,7 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>68</v>
@@ -4993,7 +4996,7 @@
     </row>
     <row r="19" customFormat="1" spans="5:13">
       <c r="E19" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>186</v>
@@ -5003,7 +5006,7 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>154</v>
@@ -5015,7 +5018,7 @@
     </row>
     <row r="20" customFormat="1" spans="5:13">
       <c r="E20" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>186</v>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>68</v>
@@ -5037,7 +5040,7 @@
     </row>
     <row r="21" customFormat="1" spans="5:13">
       <c r="E21" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>186</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>68</v>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="22" customFormat="1" spans="5:13">
       <c r="E22" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>186</v>
@@ -5069,7 +5072,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>68</v>
@@ -5081,7 +5084,7 @@
     </row>
     <row r="23" customFormat="1" spans="5:13">
       <c r="E23" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>186</v>
@@ -5091,7 +5094,7 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>68</v>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="25" customFormat="1" spans="5:13">
       <c r="E25" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>186</v>
@@ -5122,10 +5125,10 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>381</v>
@@ -5134,7 +5137,7 @@
     </row>
     <row r="26" customFormat="1" spans="5:13">
       <c r="E26" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>186</v>
@@ -5144,10 +5147,10 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>381</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="27" customFormat="1" spans="5:13">
       <c r="E27" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>186</v>
@@ -5166,10 +5169,10 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>381</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:13">
       <c r="E28" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>186</v>
@@ -5188,10 +5191,10 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>381</v>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:13">
       <c r="E29" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>186</v>
@@ -5210,10 +5213,10 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>381</v>
@@ -5222,7 +5225,7 @@
     </row>
     <row r="30" customFormat="1" spans="5:13">
       <c r="E30" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>186</v>
@@ -5232,10 +5235,10 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>381</v>
@@ -5255,31 +5258,31 @@
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:13">
       <c r="E37" s="7"/>
       <c r="F37" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H37" s="6"/>
       <c r="J37" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:13">
       <c r="E38" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>68</v>
@@ -5289,7 +5292,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>64</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="39" customFormat="1" spans="5:13">
       <c r="E39" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>68</v>
@@ -5313,7 +5316,7 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>181</v>
@@ -5327,7 +5330,7 @@
     </row>
     <row r="40" customFormat="1" spans="5:13">
       <c r="E40" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>68</v>
@@ -5337,7 +5340,7 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>148</v>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="41" customFormat="1" spans="5:13">
       <c r="E41" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>68</v>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="42" customFormat="1" spans="5:13">
       <c r="E42" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>68</v>
@@ -5381,7 +5384,7 @@
     </row>
     <row r="43" customFormat="1" spans="5:13">
       <c r="E43" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>68</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="44" customFormat="1" spans="5:13">
       <c r="E44" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>68</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="45" customFormat="1" spans="5:13">
       <c r="E45" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>68</v>
@@ -5435,7 +5438,7 @@
   <sheetPr/>
   <dimension ref="D21:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -5451,33 +5454,33 @@
   <sheetData>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="11:12">
       <c r="K27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L27" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="28" spans="11:12">
       <c r="K28" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="29" spans="11:11">
@@ -5487,13 +5490,13 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="L30" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M30" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="31" spans="11:11">
@@ -5508,39 +5511,39 @@
     </row>
     <row r="33" spans="11:12">
       <c r="K33" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L33" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M35" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36" spans="11:12">
       <c r="K36" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L36" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="11:12">
       <c r="K37" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L37" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38" ht="43" customHeight="1" spans="11:14">
@@ -5548,32 +5551,32 @@
         <v>516</v>
       </c>
       <c r="L38" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N38" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="11:12">
       <c r="K40" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="L40" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="D46" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -8976,8 +8979,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Y61" sqref="Y61"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Y115" sqref="Y115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -15923,8 +15926,12 @@
       <c r="W110" s="124">
         <v>1</v>
       </c>
-      <c r="X110" s="106"/>
-      <c r="Y110" s="122"/>
+      <c r="X110" s="134" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y110" s="122" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="111" s="17" customFormat="1" spans="1:25">
       <c r="A111" s="107">
@@ -16000,7 +16007,7 @@
         <v>534</v>
       </c>
       <c r="Y111" s="122" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="112" s="17" customFormat="1" spans="1:25">
@@ -16515,7 +16522,7 @@
         <v>534</v>
       </c>
       <c r="Y118" s="122" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" s="17" customFormat="1" spans="1:25">
@@ -16592,7 +16599,7 @@
         <v>534</v>
       </c>
       <c r="Y119" s="122" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" s="17" customFormat="1" spans="1:25">
@@ -16669,7 +16676,7 @@
         <v>534</v>
       </c>
       <c r="Y120" s="122" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" s="17" customFormat="1" spans="1:25">
@@ -16746,7 +16753,7 @@
         <v>534</v>
       </c>
       <c r="Y121" s="122" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" s="17" customFormat="1" spans="1:25">
@@ -17042,7 +17049,7 @@
         <v>534</v>
       </c>
       <c r="Y125" s="122" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" s="17" customFormat="1" spans="1:25">
@@ -17192,7 +17199,7 @@
         <v>534</v>
       </c>
       <c r="Y127" s="122" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" s="17" customFormat="1" spans="1:25">
@@ -17269,7 +17276,7 @@
         <v>534</v>
       </c>
       <c r="Y128" s="122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" s="17" customFormat="1" spans="1:25">
@@ -17419,7 +17426,7 @@
         <v>534</v>
       </c>
       <c r="Y130" s="122" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" s="17" customFormat="1" spans="1:25">
@@ -17496,7 +17503,7 @@
         <v>534</v>
       </c>
       <c r="Y131" s="122" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" s="17" customFormat="1" spans="1:25">
@@ -17573,7 +17580,7 @@
         <v>534</v>
       </c>
       <c r="Y132" s="122" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" s="17" customFormat="1" spans="1:25">
@@ -17723,7 +17730,7 @@
         <v>534</v>
       </c>
       <c r="Y134" s="122" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" s="17" customFormat="1" spans="1:25">
@@ -18031,7 +18038,7 @@
   <sheetData>
     <row r="3" spans="3:26">
       <c r="C3" s="69" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
@@ -18044,14 +18051,14 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="P3" s="69" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="69"/>
       <c r="S3" s="69"/>
       <c r="T3" s="69"/>
       <c r="W3" s="69" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="X3" s="69"/>
       <c r="Y3" s="69"/>
@@ -18105,22 +18112,22 @@
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
       <c r="E7" s="42" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" spans="2:23">
       <c r="B8" s="89"/>
       <c r="C8" s="90" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>367</v>
@@ -18129,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>452</v>
@@ -18138,7 +18145,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>470</v>
@@ -18147,19 +18154,19 @@
         <v>5</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S8" s="103" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T8" s="101" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="W8" s="104" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" spans="2:26">
@@ -18184,16 +18191,16 @@
         <v>5</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T9" s="101" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>367</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" spans="2:26">
@@ -18218,16 +18225,16 @@
         <v>3</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="X10" s="89" t="s">
         <v>359</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="1" spans="2:20">
@@ -18297,22 +18304,22 @@
         <v>5</v>
       </c>
       <c r="P13" s="99" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S13" s="105" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>495</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" s="17" customFormat="1" spans="2:26">
@@ -18331,14 +18338,14 @@
         <v>5</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T14" s="42"/>
       <c r="X14" s="17" t="s">
         <v>417</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" s="17" customFormat="1" spans="2:17">
@@ -18357,7 +18364,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" s="17" customFormat="1" spans="2:13">
@@ -18395,7 +18402,7 @@
         <v>455</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" s="17" customFormat="1" spans="2:26">
@@ -18417,7 +18424,7 @@
         <v>494</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" s="17" customFormat="1" spans="2:15">
@@ -18430,7 +18437,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M19" s="42" t="s">
         <v>385</v>
@@ -18457,7 +18464,7 @@
         <v>375</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" s="17" customFormat="1" spans="2:26">
@@ -18479,7 +18486,7 @@
         <v>446</v>
       </c>
       <c r="Z21" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" s="17" customFormat="1" spans="2:13">
@@ -18508,7 +18515,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M23" s="42" t="s">
         <v>95</v>
@@ -18524,7 +18531,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M24" s="42" t="s">
         <v>95</v>
@@ -18533,7 +18540,7 @@
         <v>388</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" s="17" customFormat="1" spans="2:13">
@@ -18546,7 +18553,7 @@
         <v>95</v>
       </c>
       <c r="L25" s="101" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M25" s="42" t="s">
         <v>381</v>
@@ -18566,7 +18573,7 @@
         <v>370</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="12:13">
@@ -18605,7 +18612,7 @@
     <row r="30" s="17" customFormat="1" spans="2:26">
       <c r="B30" s="89"/>
       <c r="C30" s="92" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>379</v>
@@ -18614,7 +18621,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="93" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H30" s="89" t="s">
         <v>393</v>
@@ -18623,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="102" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L30" s="17" t="s">
         <v>438</v>
@@ -18635,7 +18642,7 @@
         <v>419</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" s="17" customFormat="1" spans="2:26">
@@ -18663,7 +18670,7 @@
         <v>395</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" s="17" customFormat="1" spans="2:26">
@@ -18691,7 +18698,7 @@
         <v>493</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" s="17" customFormat="1" spans="2:26">
@@ -18719,7 +18726,7 @@
         <v>522</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="1" spans="2:13">
@@ -18788,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="S36" s="89" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T36" s="42"/>
     </row>
@@ -18796,7 +18803,7 @@
       <c r="B37" s="89"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>95</v>
@@ -18818,7 +18825,7 @@
         <v>388</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" s="17" customFormat="1" spans="2:21">
@@ -18840,7 +18847,7 @@
         <v>382</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" s="17" customFormat="1" spans="2:21">
@@ -18862,7 +18869,7 @@
         <v>516</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" s="17" customFormat="1" spans="2:21">
@@ -18884,7 +18891,7 @@
         <v>429</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" s="17" customFormat="1" spans="2:21">
@@ -18906,7 +18913,7 @@
         <v>413</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" s="17" customFormat="1" spans="2:21">
@@ -18928,7 +18935,7 @@
         <v>430</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" s="17" customFormat="1" spans="2:21">
@@ -18950,7 +18957,7 @@
         <v>428</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" s="17" customFormat="1" spans="2:21">
@@ -18969,10 +18976,10 @@
         <v>166</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" s="17" customFormat="1" spans="2:21">
@@ -18991,10 +18998,10 @@
         <v>166</v>
       </c>
       <c r="T45" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="U45" s="17" t="s">
         <v>603</v>
-      </c>
-      <c r="U45" s="17" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="46" s="17" customFormat="1" spans="2:21">
@@ -19013,10 +19020,10 @@
         <v>385</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" s="17" customFormat="1" spans="2:13">
@@ -19047,7 +19054,7 @@
       </c>
       <c r="K48" s="89"/>
       <c r="L48" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M48" s="95" t="s">
         <v>381</v>
@@ -19068,7 +19075,7 @@
       </c>
       <c r="K49" s="89"/>
       <c r="L49" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M49" s="95" t="s">
         <v>166</v>
@@ -19083,7 +19090,7 @@
       <c r="I50" s="42"/>
       <c r="K50" s="89"/>
       <c r="L50" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M50" s="95" t="s">
         <v>166</v>
@@ -19188,35 +19195,35 @@
   <sheetData>
     <row r="4" customFormat="1" spans="3:6">
       <c r="C4" s="61" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F4" s="62"/>
     </row>
     <row r="5" customFormat="1" spans="3:6">
       <c r="C5" s="63" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F5" s="64"/>
     </row>
     <row r="6" customFormat="1" spans="3:18">
       <c r="C6" s="63" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F6" s="65"/>
       <c r="N6" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q6" s="86"/>
       <c r="R6" s="21">
@@ -19225,17 +19232,17 @@
     </row>
     <row r="7" customFormat="1" spans="3:18">
       <c r="C7" s="66" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F7" s="67"/>
       <c r="N7" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q7" s="87"/>
       <c r="R7" s="21">
@@ -19244,17 +19251,17 @@
     </row>
     <row r="8" customFormat="1" spans="3:18">
       <c r="C8" s="63" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F8" s="68"/>
       <c r="N8" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q8" s="88"/>
       <c r="R8" s="21">
@@ -19266,7 +19273,7 @@
     <row r="11" customFormat="1"/>
     <row r="12" customFormat="1" spans="3:19">
       <c r="C12" s="69" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
@@ -19276,7 +19283,7 @@
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
       <c r="N12" s="69" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
@@ -19318,10 +19325,10 @@
     </row>
     <row r="15" customFormat="1" spans="3:19">
       <c r="C15" s="70" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E15" s="72">
         <f>E16/SUM(E16:H16)</f>
@@ -19332,10 +19339,10 @@
         <v>0.25</v>
       </c>
       <c r="N15" s="70" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O15" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P15" s="80">
         <f>P16/SUM(P16:S16)</f>
@@ -19357,7 +19364,7 @@
     <row r="16" customFormat="1" spans="3:19">
       <c r="C16" s="73"/>
       <c r="D16" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E16" s="74">
         <f>E18*E17</f>
@@ -19369,7 +19376,7 @@
       </c>
       <c r="N16" s="73"/>
       <c r="O16" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P16" s="81">
         <f t="shared" ref="P16:S16" si="0">P18*P17</f>
@@ -19391,7 +19398,7 @@
     <row r="17" customFormat="1" spans="3:19">
       <c r="C17" s="73"/>
       <c r="D17" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E17" s="76">
         <v>3</v>
@@ -19401,7 +19408,7 @@
       </c>
       <c r="N17" s="73"/>
       <c r="O17" s="82" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P17" s="83">
         <v>50</v>
@@ -19419,7 +19426,7 @@
     <row r="18" customFormat="1" spans="3:19">
       <c r="C18" s="73"/>
       <c r="D18" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E18" s="76">
         <v>6</v>
@@ -19429,7 +19436,7 @@
       </c>
       <c r="N18" s="73"/>
       <c r="O18" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P18" s="76">
         <v>6</v>
@@ -19447,26 +19454,26 @@
     <row r="19" customFormat="1" spans="3:19">
       <c r="C19" s="77"/>
       <c r="D19" s="78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E19" s="79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F19" s="79" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="77"/>
       <c r="O19" s="79" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P19" s="79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Q19" s="79" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="S19" s="79" t="s">
         <v>7</v>
@@ -19488,10 +19495,10 @@
     </row>
     <row r="21" customFormat="1" spans="3:19">
       <c r="C21" s="70" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E21" s="72">
         <f>E22/SUM(E22:H22)</f>
@@ -19506,10 +19513,10 @@
         <v>0.11371237458194</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O21" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P21" s="80">
         <f>P22/SUM(P22:S22)</f>
@@ -19531,7 +19538,7 @@
     <row r="22" customFormat="1" spans="3:19">
       <c r="C22" s="73"/>
       <c r="D22" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E22" s="74">
         <f t="shared" ref="E22:G22" si="1">E24*E23</f>
@@ -19547,7 +19554,7 @@
       </c>
       <c r="N22" s="73"/>
       <c r="O22" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P22" s="81">
         <f t="shared" ref="P22:S22" si="2">P24*P23</f>
@@ -19569,7 +19576,7 @@
     <row r="23" customFormat="1" spans="3:19">
       <c r="C23" s="73"/>
       <c r="D23" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E23" s="76">
         <v>30</v>
@@ -19582,7 +19589,7 @@
       </c>
       <c r="N23" s="73"/>
       <c r="O23" s="82" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P23" s="83">
         <v>15</v>
@@ -19600,7 +19607,7 @@
     <row r="24" customFormat="1" spans="3:19">
       <c r="C24" s="73"/>
       <c r="D24" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E24" s="76">
         <v>6</v>
@@ -19613,7 +19620,7 @@
       </c>
       <c r="N24" s="73"/>
       <c r="O24" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P24" s="76">
         <v>17</v>
@@ -19631,32 +19638,32 @@
     <row r="25" customFormat="1" spans="3:19">
       <c r="C25" s="77"/>
       <c r="D25" s="78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E25" s="79" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G25" s="79" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="77"/>
       <c r="O25" s="79" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P25" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="79" t="s">
         <v>7</v>
       </c>
       <c r="R25" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="S25" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:19">
@@ -19675,10 +19682,10 @@
     </row>
     <row r="27" customFormat="1" spans="3:19">
       <c r="C27" s="70" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E27" s="72">
         <f>E28/SUM(E28:H28)</f>
@@ -19697,10 +19704,10 @@
         <v>0.0320284697508897</v>
       </c>
       <c r="N27" s="84" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O27" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P27" s="80">
         <f>P28/SUM(P28:S28)</f>
@@ -19722,7 +19729,7 @@
     <row r="28" customFormat="1" spans="3:19">
       <c r="C28" s="73"/>
       <c r="D28" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E28" s="74">
         <f t="shared" ref="E28:H28" si="3">E30*E29</f>
@@ -19742,7 +19749,7 @@
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P28" s="81">
         <f t="shared" ref="P28:S28" si="4">(P30*P29)+(P32*P31)</f>
@@ -19764,7 +19771,7 @@
     <row r="29" customFormat="1" spans="3:19">
       <c r="C29" s="73"/>
       <c r="D29" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E29" s="76">
         <v>20</v>
@@ -19780,7 +19787,7 @@
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="82" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P29" s="83">
         <v>2</v>
@@ -19798,7 +19805,7 @@
     <row r="30" customFormat="1" spans="3:19">
       <c r="C30" s="73"/>
       <c r="D30" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E30" s="76">
         <v>17</v>
@@ -19814,7 +19821,7 @@
       </c>
       <c r="N30" s="84"/>
       <c r="O30" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P30" s="76">
         <v>595</v>
@@ -19832,23 +19839,23 @@
     <row r="31" customFormat="1" spans="3:19">
       <c r="C31" s="77"/>
       <c r="D31" s="78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F31" s="79" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N31" s="84"/>
       <c r="O31" s="85" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P31" s="76">
         <v>50</v>
@@ -19872,7 +19879,7 @@
       <c r="H32" s="61"/>
       <c r="N32" s="84"/>
       <c r="O32" s="79" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P32" s="79">
         <v>7</v>
@@ -19889,10 +19896,10 @@
     </row>
     <row r="33" customFormat="1" spans="3:19">
       <c r="C33" s="70" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E33" s="72">
         <f>E34/SUM(E34:J34)</f>
@@ -19916,25 +19923,25 @@
       </c>
       <c r="N33" s="84"/>
       <c r="O33" s="79" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P33" s="79" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q33" s="79" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="79" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="S33" s="79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:9">
       <c r="C34" s="73"/>
       <c r="D34" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E34" s="74">
         <f t="shared" ref="E34:I34" si="5">E36*E35</f>
@@ -19960,7 +19967,7 @@
     <row r="35" customFormat="1" spans="3:9">
       <c r="C35" s="73"/>
       <c r="D35" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E35" s="76">
         <v>100</v>
@@ -19981,7 +19988,7 @@
     <row r="36" customFormat="1" spans="3:9">
       <c r="C36" s="73"/>
       <c r="D36" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E36" s="76">
         <v>17</v>
@@ -20002,19 +20009,19 @@
     <row r="37" customFormat="1" spans="3:9">
       <c r="C37" s="77"/>
       <c r="D37" s="78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E37" s="79" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I37" s="79" t="s">
         <v>10</v>
@@ -20030,10 +20037,10 @@
     </row>
     <row r="39" customFormat="1" spans="3:10">
       <c r="C39" s="70" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E39" s="72">
         <f>E40/SUM(E40:J40)</f>
@@ -20063,7 +20070,7 @@
     <row r="40" customFormat="1" spans="3:10">
       <c r="C40" s="73"/>
       <c r="D40" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E40" s="74">
         <f t="shared" ref="E40:J40" si="6">E42*E41</f>
@@ -20093,7 +20100,7 @@
     <row r="41" customFormat="1" spans="3:10">
       <c r="C41" s="73"/>
       <c r="D41" s="75" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E41" s="76">
         <v>20</v>
@@ -20117,7 +20124,7 @@
     <row r="42" customFormat="1" spans="3:10">
       <c r="C42" s="73"/>
       <c r="D42" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E42" s="76">
         <v>17</v>
@@ -20141,25 +20148,25 @@
     <row r="43" customFormat="1" spans="3:10">
       <c r="C43" s="77"/>
       <c r="D43" s="78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F43" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G43" s="79" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H43" s="79" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -20211,7 +20218,7 @@
   <sheetData>
     <row r="4" s="17" customFormat="1" spans="3:16">
       <c r="C4" s="43" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -20261,34 +20268,34 @@
         <v>349</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N8" s="42"/>
       <c r="P8" s="42"/>
@@ -20326,34 +20333,34 @@
     <row r="11" s="17" customFormat="1" spans="3:16">
       <c r="C11" s="52"/>
       <c r="D11" s="50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L11" s="50" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N11" s="42"/>
       <c r="P11" s="42"/>
@@ -20391,34 +20398,34 @@
     <row r="14" s="17" customFormat="1" spans="3:16">
       <c r="C14" s="52"/>
       <c r="D14" s="50" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N14" s="42"/>
       <c r="P14" s="42"/>
@@ -20455,13 +20462,13 @@
     </row>
     <row r="18" s="17" customFormat="1" spans="3:16">
       <c r="C18" s="49" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N18" s="42"/>
       <c r="P18" s="42"/>
@@ -20483,10 +20490,10 @@
     <row r="21" s="17" customFormat="1" spans="3:16">
       <c r="C21" s="52"/>
       <c r="D21" s="50" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N21" s="42"/>
       <c r="P21" s="42"/>
@@ -20508,28 +20515,28 @@
     <row r="24" s="17" customFormat="1" spans="3:16">
       <c r="C24" s="52"/>
       <c r="D24" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="E24" s="51" t="s">
         <v>673</v>
       </c>
-      <c r="E24" s="51" t="s">
-        <v>672</v>
-      </c>
       <c r="F24" s="50" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K24" s="51" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N24" s="42"/>
       <c r="P24" s="42"/>
@@ -20538,7 +20545,7 @@
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
@@ -20546,7 +20553,7 @@
       <c r="I25" s="54"/>
       <c r="J25" s="53"/>
       <c r="K25" s="54" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N25" s="42"/>
       <c r="P25" s="42"/>
@@ -20566,13 +20573,13 @@
     </row>
     <row r="28" s="17" customFormat="1" spans="3:16">
       <c r="C28" s="49" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N28" s="42"/>
       <c r="P28" s="42"/>
@@ -20594,10 +20601,10 @@
     <row r="31" s="17" customFormat="1" spans="3:16">
       <c r="C31" s="52"/>
       <c r="D31" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>685</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>684</v>
       </c>
       <c r="N31" s="42"/>
       <c r="P31" s="42"/>
@@ -20606,7 +20613,7 @@
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
       <c r="E32" s="54" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N32" s="42"/>
       <c r="P32" s="42"/>
@@ -20621,10 +20628,10 @@
     <row r="34" s="17" customFormat="1" spans="3:16">
       <c r="C34" s="52"/>
       <c r="D34" s="50" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N34" s="42"/>
       <c r="P34" s="42"/>
@@ -20633,7 +20640,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="54" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N35" s="42"/>
       <c r="P35" s="42"/>
@@ -20725,92 +20732,92 @@
   <sheetData>
     <row r="4" spans="6:8">
       <c r="F4" s="17" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7" s="21" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="17" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="21" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="199" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="6:6">
@@ -20821,22 +20828,22 @@
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="29" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -20854,12 +20861,12 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -20869,53 +20876,53 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="31" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P19" s="31"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="31"/>
       <c r="D20" s="31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
@@ -20931,55 +20938,55 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>730</v>
-      </c>
       <c r="E21" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -20995,44 +21002,44 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="35" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O23" s="36" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -21096,214 +21103,214 @@
   <sheetData>
     <row r="8" customFormat="1" spans="4:12">
       <c r="D8" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:12">
       <c r="D9" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H9" s="11">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:12">
       <c r="C10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H10" s="11">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="4:12">
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H11" s="11">
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="4:12">
       <c r="D12" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H12" s="11">
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="3:12">
       <c r="C13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H13" s="11">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:12">
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H14" s="11">
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:12">
       <c r="D15" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H15" s="11">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:12">
       <c r="C16" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H16" s="11">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L16" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="4:12">
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H17" s="11">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L17" t="s">
         <v>295</v>
@@ -21311,47 +21318,47 @@
     </row>
     <row r="18" customFormat="1" spans="4:12">
       <c r="D18" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H18" s="11">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:14">
       <c r="C19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H19" s="11">
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N19" s="5"/>
     </row>
@@ -21359,129 +21366,129 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H20" s="11">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="4:12">
       <c r="D21" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H21" s="11">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:12">
       <c r="C22" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H22" s="11">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="4:12">
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H23" s="11">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L23" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="4:12">
       <c r="D24" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H24" s="11">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:16">
       <c r="C25" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H25" s="11">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L25" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P25" s="4"/>
     </row>
@@ -21489,69 +21496,69 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H26" s="11">
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="11:12">
       <c r="K27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="11:12">
       <c r="K28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="11:12">
       <c r="K29" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L29" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="11:16">
       <c r="K30" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L30" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" customFormat="1" spans="11:16">
       <c r="K31" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="L31" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="11:12">
       <c r="K32" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L32" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="3"/>
+    <workbookView windowHeight="16840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="904">
   <si>
     <t>来源</t>
   </si>
@@ -1672,6 +1672,9 @@
   </si>
   <si>
     <t>【极意】玻璃大炮</t>
+  </si>
+  <si>
+    <t>【极意】击晕术</t>
   </si>
   <si>
     <t>【极意】生命提升</t>
@@ -1716,7 +1719,7 @@
     <t>可制作的晶石</t>
   </si>
   <si>
-    <t>MAX</t>
+    <t>基础最大等级</t>
   </si>
   <si>
     <t>材料</t>
@@ -4933,26 +4936,26 @@
   <sheetData>
     <row r="15" customFormat="1" spans="5:5">
       <c r="E15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="6:11">
       <c r="F16" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>862</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:13">
       <c r="E17" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>186</v>
@@ -4962,7 +4965,7 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>68</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="18" customFormat="1" spans="5:13">
       <c r="E18" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>186</v>
@@ -4984,7 +4987,7 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>68</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="19" customFormat="1" spans="5:13">
       <c r="E19" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>186</v>
@@ -5006,7 +5009,7 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>154</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="20" customFormat="1" spans="5:13">
       <c r="E20" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>186</v>
@@ -5028,7 +5031,7 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>68</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="21" customFormat="1" spans="5:13">
       <c r="E21" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>186</v>
@@ -5050,7 +5053,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>68</v>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="22" customFormat="1" spans="5:13">
       <c r="E22" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>186</v>
@@ -5072,7 +5075,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>68</v>
@@ -5084,7 +5087,7 @@
     </row>
     <row r="23" customFormat="1" spans="5:13">
       <c r="E23" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>186</v>
@@ -5094,7 +5097,7 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>68</v>
@@ -5115,7 +5118,7 @@
     </row>
     <row r="25" customFormat="1" spans="5:13">
       <c r="E25" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>186</v>
@@ -5125,10 +5128,10 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>381</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="26" customFormat="1" spans="5:13">
       <c r="E26" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>186</v>
@@ -5147,10 +5150,10 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>381</v>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="27" customFormat="1" spans="5:13">
       <c r="E27" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>186</v>
@@ -5169,10 +5172,10 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>381</v>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:13">
       <c r="E28" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>186</v>
@@ -5191,10 +5194,10 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>381</v>
@@ -5203,7 +5206,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:13">
       <c r="E29" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>186</v>
@@ -5213,10 +5216,10 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>381</v>
@@ -5225,7 +5228,7 @@
     </row>
     <row r="30" customFormat="1" spans="5:13">
       <c r="E30" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>186</v>
@@ -5235,10 +5238,10 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>381</v>
@@ -5258,31 +5261,31 @@
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:13">
       <c r="E37" s="7"/>
       <c r="F37" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H37" s="6"/>
       <c r="J37" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:13">
       <c r="E38" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>68</v>
@@ -5292,7 +5295,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>64</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="39" customFormat="1" spans="5:13">
       <c r="E39" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>68</v>
@@ -5316,7 +5319,7 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>181</v>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="40" customFormat="1" spans="5:13">
       <c r="E40" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>68</v>
@@ -5340,7 +5343,7 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>148</v>
@@ -5354,7 +5357,7 @@
     </row>
     <row r="41" customFormat="1" spans="5:13">
       <c r="E41" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>68</v>
@@ -5369,7 +5372,7 @@
     </row>
     <row r="42" customFormat="1" spans="5:13">
       <c r="E42" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>68</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="43" customFormat="1" spans="5:13">
       <c r="E43" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>68</v>
@@ -5399,7 +5402,7 @@
     </row>
     <row r="44" customFormat="1" spans="5:13">
       <c r="E44" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>68</v>
@@ -5414,7 +5417,7 @@
     </row>
     <row r="45" customFormat="1" spans="5:13">
       <c r="E45" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>68</v>
@@ -5454,33 +5457,33 @@
   <sheetData>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="27" spans="11:12">
       <c r="K27" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L27" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="28" spans="11:12">
       <c r="K28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="29" spans="11:11">
@@ -5490,13 +5493,13 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L30" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M30" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="31" spans="11:11">
@@ -5511,39 +5514,39 @@
     </row>
     <row r="33" spans="11:12">
       <c r="K33" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L33" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M35" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="11:12">
       <c r="K36" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L36" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="11:12">
       <c r="K37" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L37" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" ht="43" customHeight="1" spans="11:14">
@@ -5551,32 +5554,32 @@
         <v>516</v>
       </c>
       <c r="L38" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N38" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="11:12">
       <c r="K40" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L40" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="D46" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -5602,7 +5605,7 @@
   <dimension ref="B4:P76"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -8979,8 +8982,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="Y115" sqref="Y115"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Y113" sqref="Y113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -16972,8 +16975,12 @@
       <c r="W124" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="X124" s="106"/>
-      <c r="Y124" s="122"/>
+      <c r="X124" s="134" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y124" s="122" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="125" s="17" customFormat="1" spans="1:25">
       <c r="A125" s="107">
@@ -17049,7 +17056,7 @@
         <v>534</v>
       </c>
       <c r="Y125" s="122" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="126" s="17" customFormat="1" spans="1:25">
@@ -17199,7 +17206,7 @@
         <v>534</v>
       </c>
       <c r="Y127" s="122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" s="17" customFormat="1" spans="1:25">
@@ -17276,7 +17283,7 @@
         <v>534</v>
       </c>
       <c r="Y128" s="122" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" s="17" customFormat="1" spans="1:25">
@@ -17426,7 +17433,7 @@
         <v>534</v>
       </c>
       <c r="Y130" s="122" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" s="17" customFormat="1" spans="1:25">
@@ -17503,7 +17510,7 @@
         <v>534</v>
       </c>
       <c r="Y131" s="122" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" s="17" customFormat="1" spans="1:25">
@@ -17580,7 +17587,7 @@
         <v>534</v>
       </c>
       <c r="Y132" s="122" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" s="17" customFormat="1" spans="1:25">
@@ -17730,7 +17737,7 @@
         <v>534</v>
       </c>
       <c r="Y134" s="122" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" s="17" customFormat="1" spans="1:25">
@@ -18001,8 +18008,8 @@
   <sheetPr/>
   <dimension ref="B3:Z55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18011,14 +18018,16 @@
     <col min="2" max="2" width="14" style="89" customWidth="1"/>
     <col min="3" max="3" width="6.54545454545455" style="42" customWidth="1"/>
     <col min="4" max="4" width="11.8181818181818" style="17" customWidth="1"/>
-    <col min="5" max="6" width="4.54545454545455" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14" style="17" customWidth="1"/>
+    <col min="6" max="6" width="4.54545454545455" style="17" customWidth="1"/>
     <col min="7" max="7" width="6.54545454545455" style="17" customWidth="1"/>
     <col min="8" max="8" width="18.5454545454545" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.54545454545455" style="42" customWidth="1"/>
+    <col min="9" max="9" width="14" style="42" customWidth="1"/>
     <col min="10" max="10" width="4.54545454545455" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.54545454545455" style="89" customWidth="1"/>
     <col min="12" max="12" width="15.1818181818182" style="42" customWidth="1"/>
-    <col min="13" max="15" width="4.54545454545455" style="17" customWidth="1"/>
+    <col min="13" max="13" width="14" style="17" customWidth="1"/>
+    <col min="14" max="15" width="4.54545454545455" style="17" customWidth="1"/>
     <col min="16" max="16" width="7.54545454545455" style="89" customWidth="1"/>
     <col min="17" max="17" width="24.1818181818182" style="42" customWidth="1"/>
     <col min="18" max="18" width="9" style="17"/>
@@ -18038,7 +18047,7 @@
   <sheetData>
     <row r="3" spans="3:26">
       <c r="C3" s="69" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
@@ -18051,14 +18060,14 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="P3" s="69" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="69"/>
       <c r="S3" s="69"/>
       <c r="T3" s="69"/>
       <c r="W3" s="69" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="X3" s="69"/>
       <c r="Y3" s="69"/>
@@ -18112,22 +18121,22 @@
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
       <c r="E7" s="42" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" spans="2:23">
       <c r="B8" s="89"/>
       <c r="C8" s="90" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>367</v>
@@ -18136,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="91" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>452</v>
@@ -18145,7 +18154,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="97" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>470</v>
@@ -18154,19 +18163,19 @@
         <v>5</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S8" s="103" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T8" s="101" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="W8" s="104" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" spans="2:26">
@@ -18191,16 +18200,16 @@
         <v>5</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T9" s="101" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>367</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" spans="2:26">
@@ -18225,16 +18234,16 @@
         <v>3</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X10" s="89" t="s">
         <v>359</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="1" spans="2:20">
@@ -18300,26 +18309,26 @@
       <c r="L13" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="M13" s="42">
-        <v>5</v>
+      <c r="M13" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="P13" s="99" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S13" s="105" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>495</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" s="17" customFormat="1" spans="2:26">
@@ -18338,14 +18347,14 @@
         <v>5</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T14" s="42"/>
       <c r="X14" s="17" t="s">
         <v>417</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" s="17" customFormat="1" spans="2:17">
@@ -18364,7 +18373,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" s="17" customFormat="1" spans="2:13">
@@ -18402,7 +18411,7 @@
         <v>455</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" s="17" customFormat="1" spans="2:26">
@@ -18424,7 +18433,7 @@
         <v>494</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" s="17" customFormat="1" spans="2:15">
@@ -18437,7 +18446,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M19" s="42" t="s">
         <v>385</v>
@@ -18464,7 +18473,7 @@
         <v>375</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" s="17" customFormat="1" spans="2:26">
@@ -18486,7 +18495,7 @@
         <v>446</v>
       </c>
       <c r="Z21" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" s="17" customFormat="1" spans="2:13">
@@ -18515,7 +18524,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M23" s="42" t="s">
         <v>95</v>
@@ -18531,7 +18540,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M24" s="42" t="s">
         <v>95</v>
@@ -18540,7 +18549,7 @@
         <v>388</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" s="17" customFormat="1" spans="2:13">
@@ -18553,7 +18562,7 @@
         <v>95</v>
       </c>
       <c r="L25" s="101" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M25" s="42" t="s">
         <v>381</v>
@@ -18573,7 +18582,7 @@
         <v>370</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="12:13">
@@ -18612,7 +18621,7 @@
     <row r="30" s="17" customFormat="1" spans="2:26">
       <c r="B30" s="89"/>
       <c r="C30" s="92" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>379</v>
@@ -18621,7 +18630,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="93" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H30" s="89" t="s">
         <v>393</v>
@@ -18630,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="102" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L30" s="17" t="s">
         <v>438</v>
@@ -18642,7 +18651,7 @@
         <v>419</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" s="17" customFormat="1" spans="2:26">
@@ -18670,7 +18679,7 @@
         <v>395</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" s="17" customFormat="1" spans="2:26">
@@ -18698,7 +18707,7 @@
         <v>493</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" s="17" customFormat="1" spans="2:26">
@@ -18726,7 +18735,7 @@
         <v>522</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="1" spans="2:13">
@@ -18795,7 +18804,7 @@
         <v>3</v>
       </c>
       <c r="S36" s="89" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T36" s="42"/>
     </row>
@@ -18803,7 +18812,7 @@
       <c r="B37" s="89"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>95</v>
@@ -18817,15 +18826,15 @@
       <c r="L37" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="M37" s="42">
-        <v>5</v>
+      <c r="M37" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="S37" s="89"/>
       <c r="T37" s="94" t="s">
         <v>388</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" s="17" customFormat="1" spans="2:21">
@@ -18847,7 +18856,7 @@
         <v>382</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" s="17" customFormat="1" spans="2:21">
@@ -18869,7 +18878,7 @@
         <v>516</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" s="17" customFormat="1" spans="2:21">
@@ -18891,7 +18900,7 @@
         <v>429</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" s="17" customFormat="1" spans="2:21">
@@ -18913,7 +18922,7 @@
         <v>413</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" s="17" customFormat="1" spans="2:21">
@@ -18935,7 +18944,7 @@
         <v>430</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" s="17" customFormat="1" spans="2:21">
@@ -18957,7 +18966,7 @@
         <v>428</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" s="17" customFormat="1" spans="2:21">
@@ -18976,10 +18985,10 @@
         <v>166</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" s="17" customFormat="1" spans="2:21">
@@ -18998,10 +19007,10 @@
         <v>166</v>
       </c>
       <c r="T45" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="U45" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="U45" s="17" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="46" s="17" customFormat="1" spans="2:21">
@@ -19020,10 +19029,10 @@
         <v>385</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" s="17" customFormat="1" spans="2:13">
@@ -19054,7 +19063,7 @@
       </c>
       <c r="K48" s="89"/>
       <c r="L48" s="17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M48" s="95" t="s">
         <v>381</v>
@@ -19075,7 +19084,7 @@
       </c>
       <c r="K49" s="89"/>
       <c r="L49" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M49" s="95" t="s">
         <v>166</v>
@@ -19090,7 +19099,7 @@
       <c r="I50" s="42"/>
       <c r="K50" s="89"/>
       <c r="L50" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M50" s="95" t="s">
         <v>166</v>
@@ -19195,35 +19204,35 @@
   <sheetData>
     <row r="4" customFormat="1" spans="3:6">
       <c r="C4" s="61" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F4" s="62"/>
     </row>
     <row r="5" customFormat="1" spans="3:6">
       <c r="C5" s="63" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F5" s="64"/>
     </row>
     <row r="6" customFormat="1" spans="3:18">
       <c r="C6" s="63" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F6" s="65"/>
       <c r="N6" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q6" s="86"/>
       <c r="R6" s="21">
@@ -19232,17 +19241,17 @@
     </row>
     <row r="7" customFormat="1" spans="3:18">
       <c r="C7" s="66" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F7" s="67"/>
       <c r="N7" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q7" s="87"/>
       <c r="R7" s="21">
@@ -19251,17 +19260,17 @@
     </row>
     <row r="8" customFormat="1" spans="3:18">
       <c r="C8" s="63" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F8" s="68"/>
       <c r="N8" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q8" s="88"/>
       <c r="R8" s="21">
@@ -19273,7 +19282,7 @@
     <row r="11" customFormat="1"/>
     <row r="12" customFormat="1" spans="3:19">
       <c r="C12" s="69" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69"/>
@@ -19283,7 +19292,7 @@
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
       <c r="N12" s="69" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
@@ -19325,10 +19334,10 @@
     </row>
     <row r="15" customFormat="1" spans="3:19">
       <c r="C15" s="70" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E15" s="72">
         <f>E16/SUM(E16:H16)</f>
@@ -19339,10 +19348,10 @@
         <v>0.25</v>
       </c>
       <c r="N15" s="70" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O15" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P15" s="80">
         <f>P16/SUM(P16:S16)</f>
@@ -19364,7 +19373,7 @@
     <row r="16" customFormat="1" spans="3:19">
       <c r="C16" s="73"/>
       <c r="D16" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E16" s="74">
         <f>E18*E17</f>
@@ -19376,7 +19385,7 @@
       </c>
       <c r="N16" s="73"/>
       <c r="O16" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P16" s="81">
         <f t="shared" ref="P16:S16" si="0">P18*P17</f>
@@ -19398,7 +19407,7 @@
     <row r="17" customFormat="1" spans="3:19">
       <c r="C17" s="73"/>
       <c r="D17" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E17" s="76">
         <v>3</v>
@@ -19408,7 +19417,7 @@
       </c>
       <c r="N17" s="73"/>
       <c r="O17" s="82" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P17" s="83">
         <v>50</v>
@@ -19426,7 +19435,7 @@
     <row r="18" customFormat="1" spans="3:19">
       <c r="C18" s="73"/>
       <c r="D18" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E18" s="76">
         <v>6</v>
@@ -19436,7 +19445,7 @@
       </c>
       <c r="N18" s="73"/>
       <c r="O18" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P18" s="76">
         <v>6</v>
@@ -19454,26 +19463,26 @@
     <row r="19" customFormat="1" spans="3:19">
       <c r="C19" s="77"/>
       <c r="D19" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E19" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F19" s="79" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="77"/>
       <c r="O19" s="79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P19" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q19" s="79" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="S19" s="79" t="s">
         <v>7</v>
@@ -19495,10 +19504,10 @@
     </row>
     <row r="21" customFormat="1" spans="3:19">
       <c r="C21" s="70" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E21" s="72">
         <f>E22/SUM(E22:H22)</f>
@@ -19513,10 +19522,10 @@
         <v>0.11371237458194</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O21" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P21" s="80">
         <f>P22/SUM(P22:S22)</f>
@@ -19538,7 +19547,7 @@
     <row r="22" customFormat="1" spans="3:19">
       <c r="C22" s="73"/>
       <c r="D22" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E22" s="74">
         <f t="shared" ref="E22:G22" si="1">E24*E23</f>
@@ -19554,7 +19563,7 @@
       </c>
       <c r="N22" s="73"/>
       <c r="O22" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P22" s="81">
         <f t="shared" ref="P22:S22" si="2">P24*P23</f>
@@ -19576,7 +19585,7 @@
     <row r="23" customFormat="1" spans="3:19">
       <c r="C23" s="73"/>
       <c r="D23" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E23" s="76">
         <v>30</v>
@@ -19589,7 +19598,7 @@
       </c>
       <c r="N23" s="73"/>
       <c r="O23" s="82" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P23" s="83">
         <v>15</v>
@@ -19607,7 +19616,7 @@
     <row r="24" customFormat="1" spans="3:19">
       <c r="C24" s="73"/>
       <c r="D24" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E24" s="76">
         <v>6</v>
@@ -19620,7 +19629,7 @@
       </c>
       <c r="N24" s="73"/>
       <c r="O24" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P24" s="76">
         <v>17</v>
@@ -19638,32 +19647,32 @@
     <row r="25" customFormat="1" spans="3:19">
       <c r="C25" s="77"/>
       <c r="D25" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E25" s="79" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G25" s="79" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="77"/>
       <c r="O25" s="79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P25" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="79" t="s">
         <v>7</v>
       </c>
       <c r="R25" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="S25" s="79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:19">
@@ -19682,10 +19691,10 @@
     </row>
     <row r="27" customFormat="1" spans="3:19">
       <c r="C27" s="70" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D27" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E27" s="72">
         <f>E28/SUM(E28:H28)</f>
@@ -19704,10 +19713,10 @@
         <v>0.0320284697508897</v>
       </c>
       <c r="N27" s="84" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O27" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P27" s="80">
         <f>P28/SUM(P28:S28)</f>
@@ -19729,7 +19738,7 @@
     <row r="28" customFormat="1" spans="3:19">
       <c r="C28" s="73"/>
       <c r="D28" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E28" s="74">
         <f t="shared" ref="E28:H28" si="3">E30*E29</f>
@@ -19749,7 +19758,7 @@
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P28" s="81">
         <f t="shared" ref="P28:S28" si="4">(P30*P29)+(P32*P31)</f>
@@ -19771,7 +19780,7 @@
     <row r="29" customFormat="1" spans="3:19">
       <c r="C29" s="73"/>
       <c r="D29" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E29" s="76">
         <v>20</v>
@@ -19787,7 +19796,7 @@
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="82" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P29" s="83">
         <v>2</v>
@@ -19805,7 +19814,7 @@
     <row r="30" customFormat="1" spans="3:19">
       <c r="C30" s="73"/>
       <c r="D30" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E30" s="76">
         <v>17</v>
@@ -19821,7 +19830,7 @@
       </c>
       <c r="N30" s="84"/>
       <c r="O30" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P30" s="76">
         <v>595</v>
@@ -19839,23 +19848,23 @@
     <row r="31" customFormat="1" spans="3:19">
       <c r="C31" s="77"/>
       <c r="D31" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F31" s="79" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N31" s="84"/>
       <c r="O31" s="85" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P31" s="76">
         <v>50</v>
@@ -19879,7 +19888,7 @@
       <c r="H32" s="61"/>
       <c r="N32" s="84"/>
       <c r="O32" s="79" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P32" s="79">
         <v>7</v>
@@ -19896,10 +19905,10 @@
     </row>
     <row r="33" customFormat="1" spans="3:19">
       <c r="C33" s="70" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E33" s="72">
         <f>E34/SUM(E34:J34)</f>
@@ -19923,25 +19932,25 @@
       </c>
       <c r="N33" s="84"/>
       <c r="O33" s="79" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P33" s="79" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q33" s="79" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="S33" s="79" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:9">
       <c r="C34" s="73"/>
       <c r="D34" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E34" s="74">
         <f t="shared" ref="E34:I34" si="5">E36*E35</f>
@@ -19967,7 +19976,7 @@
     <row r="35" customFormat="1" spans="3:9">
       <c r="C35" s="73"/>
       <c r="D35" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E35" s="76">
         <v>100</v>
@@ -19988,7 +19997,7 @@
     <row r="36" customFormat="1" spans="3:9">
       <c r="C36" s="73"/>
       <c r="D36" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E36" s="76">
         <v>17</v>
@@ -20009,19 +20018,19 @@
     <row r="37" customFormat="1" spans="3:9">
       <c r="C37" s="77"/>
       <c r="D37" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E37" s="79" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I37" s="79" t="s">
         <v>10</v>
@@ -20037,10 +20046,10 @@
     </row>
     <row r="39" customFormat="1" spans="3:10">
       <c r="C39" s="70" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E39" s="72">
         <f>E40/SUM(E40:J40)</f>
@@ -20070,7 +20079,7 @@
     <row r="40" customFormat="1" spans="3:10">
       <c r="C40" s="73"/>
       <c r="D40" s="71" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E40" s="74">
         <f t="shared" ref="E40:J40" si="6">E42*E41</f>
@@ -20100,7 +20109,7 @@
     <row r="41" customFormat="1" spans="3:10">
       <c r="C41" s="73"/>
       <c r="D41" s="75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E41" s="76">
         <v>20</v>
@@ -20124,7 +20133,7 @@
     <row r="42" customFormat="1" spans="3:10">
       <c r="C42" s="73"/>
       <c r="D42" s="75" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E42" s="76">
         <v>17</v>
@@ -20148,25 +20157,25 @@
     <row r="43" customFormat="1" spans="3:10">
       <c r="C43" s="77"/>
       <c r="D43" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E43" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F43" s="79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G43" s="79" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H43" s="79" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -20218,7 +20227,7 @@
   <sheetData>
     <row r="4" s="17" customFormat="1" spans="3:16">
       <c r="C4" s="43" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -20268,34 +20277,34 @@
         <v>349</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N8" s="42"/>
       <c r="P8" s="42"/>
@@ -20333,34 +20342,34 @@
     <row r="11" s="17" customFormat="1" spans="3:16">
       <c r="C11" s="52"/>
       <c r="D11" s="50" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L11" s="50" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N11" s="42"/>
       <c r="P11" s="42"/>
@@ -20398,34 +20407,34 @@
     <row r="14" s="17" customFormat="1" spans="3:16">
       <c r="C14" s="52"/>
       <c r="D14" s="50" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N14" s="42"/>
       <c r="P14" s="42"/>
@@ -20462,13 +20471,13 @@
     </row>
     <row r="18" s="17" customFormat="1" spans="3:16">
       <c r="C18" s="49" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N18" s="42"/>
       <c r="P18" s="42"/>
@@ -20490,10 +20499,10 @@
     <row r="21" s="17" customFormat="1" spans="3:16">
       <c r="C21" s="52"/>
       <c r="D21" s="50" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N21" s="42"/>
       <c r="P21" s="42"/>
@@ -20515,28 +20524,28 @@
     <row r="24" s="17" customFormat="1" spans="3:16">
       <c r="C24" s="52"/>
       <c r="D24" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="E24" s="51" t="s">
         <v>674</v>
       </c>
-      <c r="E24" s="51" t="s">
-        <v>673</v>
-      </c>
       <c r="F24" s="50" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K24" s="51" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N24" s="42"/>
       <c r="P24" s="42"/>
@@ -20545,7 +20554,7 @@
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
@@ -20553,7 +20562,7 @@
       <c r="I25" s="54"/>
       <c r="J25" s="53"/>
       <c r="K25" s="54" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N25" s="42"/>
       <c r="P25" s="42"/>
@@ -20573,13 +20582,13 @@
     </row>
     <row r="28" s="17" customFormat="1" spans="3:16">
       <c r="C28" s="49" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N28" s="42"/>
       <c r="P28" s="42"/>
@@ -20601,10 +20610,10 @@
     <row r="31" s="17" customFormat="1" spans="3:16">
       <c r="C31" s="52"/>
       <c r="D31" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>686</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>685</v>
       </c>
       <c r="N31" s="42"/>
       <c r="P31" s="42"/>
@@ -20613,7 +20622,7 @@
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
       <c r="E32" s="54" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N32" s="42"/>
       <c r="P32" s="42"/>
@@ -20628,10 +20637,10 @@
     <row r="34" s="17" customFormat="1" spans="3:16">
       <c r="C34" s="52"/>
       <c r="D34" s="50" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N34" s="42"/>
       <c r="P34" s="42"/>
@@ -20640,7 +20649,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="54" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N35" s="42"/>
       <c r="P35" s="42"/>
@@ -20732,92 +20741,92 @@
   <sheetData>
     <row r="4" spans="6:8">
       <c r="F4" s="17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="17" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="199" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="6:6">
@@ -20828,22 +20837,22 @@
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="29" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -20861,12 +20870,12 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -20876,53 +20885,53 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P19" s="31"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="31"/>
       <c r="D20" s="31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
@@ -20938,55 +20947,55 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>731</v>
-      </c>
       <c r="E21" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -21002,44 +21011,44 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="35" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O23" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -21103,214 +21112,214 @@
   <sheetData>
     <row r="8" customFormat="1" spans="4:12">
       <c r="D8" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:12">
       <c r="D9" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H9" s="11">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:12">
       <c r="C10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H10" s="11">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="4:12">
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H11" s="11">
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="4:12">
       <c r="D12" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H12" s="11">
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="3:12">
       <c r="C13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H13" s="11">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L13" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:12">
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H14" s="11">
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:12">
       <c r="D15" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H15" s="11">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L15" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:12">
       <c r="C16" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H16" s="11">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L16" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="4:12">
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H17" s="11">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L17" t="s">
         <v>295</v>
@@ -21318,47 +21327,47 @@
     </row>
     <row r="18" customFormat="1" spans="4:12">
       <c r="D18" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H18" s="11">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:14">
       <c r="C19" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H19" s="11">
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L19" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N19" s="5"/>
     </row>
@@ -21366,129 +21375,129 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H20" s="11">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L20" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="4:12">
       <c r="D21" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H21" s="11">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L21" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:12">
       <c r="C22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H22" s="11">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="4:12">
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H23" s="11">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="4:12">
       <c r="D24" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H24" s="11">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L24" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:16">
       <c r="C25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H25" s="11">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L25" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P25" s="4"/>
     </row>
@@ -21496,69 +21505,69 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H26" s="11">
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L26" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="11:12">
       <c r="K27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L27" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="11:12">
       <c r="K28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="L28" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="11:12">
       <c r="K29" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L29" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="11:16">
       <c r="K30" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="L30" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" customFormat="1" spans="11:16">
       <c r="K31" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L31" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="P31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="11:12">
       <c r="K32" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L32" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="5"/>
+    <workbookView windowHeight="16840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="915">
   <si>
     <t>来源</t>
   </si>
@@ -1792,63 +1792,87 @@
     <t>Rank5的晶石Lv3</t>
   </si>
   <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>Rank7-8 x Rank5 各Lv1</t>
+  </si>
+  <si>
+    <t>Rank6的晶石Lv2</t>
+  </si>
+  <si>
+    <t>骨</t>
+  </si>
+  <si>
+    <t>皮</t>
+  </si>
+  <si>
+    <t>鳞</t>
+  </si>
+  <si>
+    <t>Rank10</t>
+  </si>
+  <si>
+    <t>Rank4的晶石Lv3</t>
+  </si>
+  <si>
+    <t>Rank12</t>
+  </si>
+  <si>
+    <t>Rank7-8的晶石Lv2</t>
+  </si>
+  <si>
+    <t>Rank5的晶石Lv2</t>
+  </si>
+  <si>
+    <t>Rank7-8 x Rank6 各Lv1</t>
+  </si>
+  <si>
     <t>散热网</t>
   </si>
   <si>
-    <t>Rank7-8 x Rank5 各Lv1</t>
-  </si>
-  <si>
-    <t>Rank6的晶石Lv2</t>
-  </si>
-  <si>
     <t>隔热内衬</t>
   </si>
   <si>
-    <t>Rank10</t>
-  </si>
-  <si>
-    <t>Rank4的晶石Lv3</t>
-  </si>
-  <si>
-    <t>Rank12</t>
-  </si>
-  <si>
-    <t>Rank7-8的晶石Lv2</t>
+    <t>护甲收纳口袋</t>
+  </si>
+  <si>
+    <t>改进配件</t>
+  </si>
+  <si>
+    <t>穿甲弹/箭强化</t>
+  </si>
+  <si>
+    <t>自定义配件</t>
+  </si>
+  <si>
+    <t>装甲板</t>
+  </si>
+  <si>
+    <t>带状装甲板</t>
   </si>
   <si>
     <t>弹药带</t>
   </si>
   <si>
-    <t>Rank5的晶石Lv2</t>
-  </si>
-  <si>
-    <t>银蛋+钢蛋</t>
-  </si>
-  <si>
-    <t>Rank7-8 x Rank6 各Lv1</t>
-  </si>
-  <si>
-    <t>自定义配件</t>
-  </si>
-  <si>
-    <t>改进配件</t>
-  </si>
-  <si>
-    <t>穿甲弹/箭强化</t>
-  </si>
-  <si>
-    <t>装甲板</t>
-  </si>
-  <si>
-    <t>带状装甲板</t>
-  </si>
-  <si>
-    <t>护甲收纳口袋</t>
+    <t>钢蛋</t>
   </si>
   <si>
     <t>消音连接器</t>
   </si>
   <si>
+    <t>金属链</t>
+  </si>
+  <si>
+    <t>金属钉</t>
+  </si>
+  <si>
+    <t>铁丝网 + 锯齿刀片</t>
+  </si>
+  <si>
+    <t>燃烧杆</t>
+  </si>
+  <si>
     <t>Rank4</t>
   </si>
   <si>
@@ -1856,18 +1880,6 @@
   </si>
   <si>
     <t>Rank8</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>骨</t>
-  </si>
-  <si>
-    <t>皮</t>
-  </si>
-  <si>
-    <t>鳞</t>
   </si>
   <si>
     <t>力量的代价</t>
@@ -4949,26 +4961,26 @@
   <sheetData>
     <row r="15" customFormat="1" spans="5:5">
       <c r="E15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="6:11">
       <c r="F16" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:13">
       <c r="E17" s="5" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>186</v>
@@ -4978,7 +4990,7 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>68</v>
@@ -4990,7 +5002,7 @@
     </row>
     <row r="18" customFormat="1" spans="5:13">
       <c r="E18" s="4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>186</v>
@@ -5000,7 +5012,7 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>68</v>
@@ -5012,7 +5024,7 @@
     </row>
     <row r="19" customFormat="1" spans="5:13">
       <c r="E19" s="4" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>186</v>
@@ -5022,7 +5034,7 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>154</v>
@@ -5034,7 +5046,7 @@
     </row>
     <row r="20" customFormat="1" spans="5:13">
       <c r="E20" s="4" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>186</v>
@@ -5044,7 +5056,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>68</v>
@@ -5056,7 +5068,7 @@
     </row>
     <row r="21" customFormat="1" spans="5:13">
       <c r="E21" s="4" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>186</v>
@@ -5066,7 +5078,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>68</v>
@@ -5078,7 +5090,7 @@
     </row>
     <row r="22" customFormat="1" spans="5:13">
       <c r="E22" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>186</v>
@@ -5088,7 +5100,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>68</v>
@@ -5100,7 +5112,7 @@
     </row>
     <row r="23" customFormat="1" spans="5:13">
       <c r="E23" s="4" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>186</v>
@@ -5110,7 +5122,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>68</v>
@@ -5131,7 +5143,7 @@
     </row>
     <row r="25" customFormat="1" spans="5:13">
       <c r="E25" s="4" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>186</v>
@@ -5141,10 +5153,10 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>381</v>
@@ -5153,7 +5165,7 @@
     </row>
     <row r="26" customFormat="1" spans="5:13">
       <c r="E26" s="4" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>186</v>
@@ -5163,10 +5175,10 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>381</v>
@@ -5175,7 +5187,7 @@
     </row>
     <row r="27" customFormat="1" spans="5:13">
       <c r="E27" s="4" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>186</v>
@@ -5185,10 +5197,10 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>381</v>
@@ -5197,7 +5209,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:13">
       <c r="E28" s="4" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>186</v>
@@ -5207,10 +5219,10 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>381</v>
@@ -5219,7 +5231,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:13">
       <c r="E29" s="4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>186</v>
@@ -5229,10 +5241,10 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>381</v>
@@ -5241,7 +5253,7 @@
     </row>
     <row r="30" customFormat="1" spans="5:13">
       <c r="E30" s="4" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>186</v>
@@ -5251,10 +5263,10 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>381</v>
@@ -5274,31 +5286,31 @@
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1" spans="5:5">
       <c r="E36" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="5:13">
       <c r="E37" s="1"/>
       <c r="F37" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H37" s="6"/>
       <c r="J37" s="4" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="5:13">
       <c r="E38" s="5" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>68</v>
@@ -5308,7 +5320,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>64</v>
@@ -5322,7 +5334,7 @@
     </row>
     <row r="39" customFormat="1" spans="5:13">
       <c r="E39" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>68</v>
@@ -5332,7 +5344,7 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>181</v>
@@ -5346,7 +5358,7 @@
     </row>
     <row r="40" customFormat="1" spans="5:13">
       <c r="E40" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>68</v>
@@ -5356,7 +5368,7 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>148</v>
@@ -5370,7 +5382,7 @@
     </row>
     <row r="41" customFormat="1" spans="5:13">
       <c r="E41" s="4" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>68</v>
@@ -5385,7 +5397,7 @@
     </row>
     <row r="42" customFormat="1" spans="5:13">
       <c r="E42" s="4" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>68</v>
@@ -5400,7 +5412,7 @@
     </row>
     <row r="43" customFormat="1" spans="5:13">
       <c r="E43" s="4" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>68</v>
@@ -5415,7 +5427,7 @@
     </row>
     <row r="44" customFormat="1" spans="5:13">
       <c r="E44" s="4" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>68</v>
@@ -5430,7 +5442,7 @@
     </row>
     <row r="45" customFormat="1" spans="5:13">
       <c r="E45" s="4" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>68</v>
@@ -5470,33 +5482,33 @@
   <sheetData>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="11:11">
       <c r="K22" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="11:12">
       <c r="K27" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="L27" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="11:12">
       <c r="K28" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="L28" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29" spans="11:11">
@@ -5506,13 +5518,13 @@
     </row>
     <row r="30" spans="11:13">
       <c r="K30" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L30" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="M30" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="31" spans="11:11">
@@ -5527,39 +5539,39 @@
     </row>
     <row r="33" spans="11:12">
       <c r="K33" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="L33" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="11:11">
       <c r="K34" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="M35" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="11:12">
       <c r="K36" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="L36" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="11:12">
       <c r="K37" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="L37" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" ht="43" customHeight="1" spans="11:14">
@@ -5567,32 +5579,32 @@
         <v>523</v>
       </c>
       <c r="L38" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="N38" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" spans="11:12">
       <c r="K40" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="L40" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="4:14">
       <c r="D46" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -5618,7 +5630,7 @@
   <dimension ref="B4:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -17981,10 +17993,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:Z55"/>
+  <dimension ref="B3:AA55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18011,9 +18023,9 @@
     <col min="21" max="21" width="3.54545454545455" style="16" customWidth="1"/>
     <col min="22" max="22" width="6.54545454545455" style="16" customWidth="1"/>
     <col min="23" max="23" width="5.54545454545455" style="16" customWidth="1"/>
-    <col min="24" max="24" width="14" style="16" customWidth="1"/>
+    <col min="24" max="24" width="16.2727272727273" style="16" customWidth="1"/>
     <col min="25" max="25" width="9.18181818181818" style="16" customWidth="1"/>
-    <col min="26" max="26" width="14" style="16" customWidth="1"/>
+    <col min="26" max="26" width="19.6363636363636" style="16" customWidth="1"/>
     <col min="27" max="27" width="9.54545454545454" style="16" customWidth="1"/>
     <col min="28" max="28" width="11.8181818181818" style="16" customWidth="1"/>
     <col min="29" max="29" width="2.54545454545455" style="16" customWidth="1"/>
@@ -18181,7 +18193,7 @@
         <v>577</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>367</v>
+        <v>492</v>
       </c>
       <c r="Z9" s="16" t="s">
         <v>578</v>
@@ -18214,14 +18226,14 @@
       <c r="T10" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="X10" s="86" t="s">
-        <v>360</v>
+      <c r="X10" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="Z10" s="16" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="11" s="16" customFormat="1" spans="2:20">
+    <row r="11" s="16" customFormat="1" spans="2:26">
       <c r="B11" s="86"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
@@ -18243,8 +18255,14 @@
         <v>5</v>
       </c>
       <c r="T11" s="43"/>
-    </row>
-    <row r="12" s="16" customFormat="1" spans="2:13">
+      <c r="X11" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" s="16" customFormat="1" spans="2:26">
       <c r="B12" s="86"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
@@ -18265,8 +18283,14 @@
       <c r="M12" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" s="16" customFormat="1" spans="2:26">
+      <c r="X12" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" s="16" customFormat="1" spans="2:20">
       <c r="B13" s="86"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
@@ -18288,25 +18312,19 @@
         <v>166</v>
       </c>
       <c r="P13" s="95" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S13" s="100" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" s="16" customFormat="1" spans="2:26">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" s="16" customFormat="1" spans="2:20">
       <c r="B14" s="86"/>
       <c r="C14" s="16"/>
       <c r="H14" s="16" t="s">
@@ -18322,17 +18340,11 @@
         <v>5</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T14" s="43"/>
-      <c r="X14" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" s="16" customFormat="1" spans="2:17">
+    </row>
+    <row r="15" s="16" customFormat="1" spans="2:26">
       <c r="B15" s="86"/>
       <c r="C15" s="16"/>
       <c r="H15" s="16" t="s">
@@ -18350,8 +18362,14 @@
       <c r="Q15" s="16" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="16" s="16" customFormat="1" spans="2:13">
+      <c r="X15" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" s="16" customFormat="1" spans="2:26">
       <c r="B16" s="86"/>
       <c r="C16" s="16"/>
       <c r="H16" s="16" t="s">
@@ -18365,6 +18383,12 @@
       </c>
       <c r="M16" s="43">
         <v>5</v>
+      </c>
+      <c r="X16" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="17" s="16" customFormat="1" spans="2:26">
@@ -18383,10 +18407,10 @@
         <v>166</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="Z17" s="16" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" s="16" customFormat="1" spans="2:26">
@@ -18408,10 +18432,10 @@
         <v>485</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="19" s="16" customFormat="1" spans="2:15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" s="16" customFormat="1" spans="2:26">
       <c r="B19" s="86"/>
       <c r="C19" s="16"/>
       <c r="H19" s="16" t="s">
@@ -18421,13 +18445,19 @@
         <v>3</v>
       </c>
       <c r="L19" s="96" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M19" s="43" t="s">
         <v>379</v>
       </c>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
+      <c r="X19" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="20" s="16" customFormat="1" spans="2:26">
       <c r="B20" s="86"/>
@@ -18447,11 +18477,12 @@
       <c r="X20" s="16" t="s">
         <v>374</v>
       </c>
+      <c r="Y20" s="16"/>
       <c r="Z20" s="16" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="21" s="16" customFormat="1" spans="2:26">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="1" spans="2:27">
       <c r="B21" s="86"/>
       <c r="C21" s="16"/>
       <c r="H21" s="16" t="s">
@@ -18469,11 +18500,13 @@
       <c r="X21" s="16" t="s">
         <v>446</v>
       </c>
+      <c r="Y21" s="16"/>
       <c r="Z21" s="16" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="22" s="16" customFormat="1" spans="2:13">
+        <v>597</v>
+      </c>
+      <c r="AA21" s="43"/>
+    </row>
+    <row r="22" s="16" customFormat="1" spans="2:26">
       <c r="B22" s="86"/>
       <c r="C22" s="16"/>
       <c r="H22" s="16" t="s">
@@ -18488,8 +18521,14 @@
       <c r="M22" s="43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" s="16" customFormat="1" spans="2:13">
+      <c r="X22" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" spans="2:26">
       <c r="B23" s="86"/>
       <c r="C23" s="16"/>
       <c r="H23" s="16" t="s">
@@ -18503,6 +18542,12 @@
       </c>
       <c r="M23" s="43" t="s">
         <v>95</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="24" s="16" customFormat="1" spans="2:26">
@@ -18521,13 +18566,13 @@
         <v>95</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="2:13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="1" spans="2:26">
       <c r="B25" s="86"/>
       <c r="C25" s="16"/>
       <c r="H25" s="16" t="s">
@@ -18541,6 +18586,12 @@
       </c>
       <c r="M25" s="43" t="s">
         <v>381</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="26" s="16" customFormat="1" spans="2:26">
@@ -18554,21 +18605,28 @@
         <v>166</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>370</v>
+        <v>522</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="12:13">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="12:26">
       <c r="L27" s="16" t="s">
         <v>400</v>
       </c>
       <c r="M27" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:26">
+      <c r="X27" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:27">
       <c r="B28" s="86"/>
       <c r="C28" s="43"/>
       <c r="I28" s="43"/>
@@ -18577,9 +18635,14 @@
       <c r="Q28" s="43"/>
       <c r="S28" s="86"/>
       <c r="T28" s="43"/>
-      <c r="X28" s="16"/>
+      <c r="X28" s="16" t="s">
+        <v>469</v>
+      </c>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
+      <c r="Z28" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA28" s="16"/>
     </row>
     <row r="29" s="16" customFormat="1" spans="2:20">
       <c r="B29" s="86"/>
@@ -18592,10 +18655,10 @@
       <c r="S29" s="86"/>
       <c r="T29" s="43"/>
     </row>
-    <row r="30" s="16" customFormat="1" spans="2:26">
+    <row r="30" s="16" customFormat="1" spans="2:13">
       <c r="B30" s="86"/>
       <c r="C30" s="89" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>378</v>
@@ -18604,7 +18667,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="90" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H30" s="86" t="s">
         <v>392</v>
@@ -18613,7 +18676,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="97" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>435</v>
@@ -18621,14 +18684,8 @@
       <c r="M30" s="43">
         <v>1</v>
       </c>
-      <c r="X30" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" s="16" customFormat="1" spans="2:26">
+    </row>
+    <row r="31" s="16" customFormat="1" spans="2:13">
       <c r="B31" s="86"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
@@ -18649,14 +18706,8 @@
       <c r="M31" s="43">
         <v>3</v>
       </c>
-      <c r="X31" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z31" s="16" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" s="16" customFormat="1" spans="2:26">
+    </row>
+    <row r="32" s="16" customFormat="1" spans="2:13">
       <c r="B32" s="86"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
@@ -18677,14 +18728,8 @@
       <c r="M32" s="43">
         <v>1</v>
       </c>
-      <c r="X32" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z32" s="16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="33" s="16" customFormat="1" spans="2:26">
+    </row>
+    <row r="33" s="16" customFormat="1" spans="2:13">
       <c r="B33" s="86"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
@@ -18704,12 +18749,6 @@
       </c>
       <c r="M33" s="43">
         <v>5</v>
-      </c>
-      <c r="X33" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="Z33" s="16" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="34" s="16" customFormat="1" spans="2:13">
@@ -18756,7 +18795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" s="16" customFormat="1" spans="2:20">
+    <row r="36" s="16" customFormat="1" spans="2:13">
       <c r="B36" s="86"/>
       <c r="C36" s="16"/>
       <c r="D36" s="91" t="s">
@@ -18777,14 +18816,12 @@
       <c r="M36" s="43">
         <v>3</v>
       </c>
-      <c r="S36" s="86"/>
-      <c r="T36" s="43"/>
     </row>
     <row r="37" s="16" customFormat="1" spans="2:21">
       <c r="B37" s="86"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>95</v>
@@ -18801,8 +18838,6 @@
       <c r="M37" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="S37" s="86"/>
-      <c r="T37" s="16"/>
       <c r="U37" s="86"/>
     </row>
     <row r="38" s="16" customFormat="1" spans="2:13">
@@ -18977,7 +19012,7 @@
       </c>
       <c r="K48" s="86"/>
       <c r="L48" s="16" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M48" s="43" t="s">
         <v>381</v>
@@ -19132,8 +19167,8 @@
   <sheetPr/>
   <dimension ref="C4:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -19151,35 +19186,35 @@
   <sheetData>
     <row r="4" customFormat="1" spans="3:6">
       <c r="C4" s="62" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F4" s="63"/>
     </row>
     <row r="5" customFormat="1" spans="3:6">
       <c r="C5" s="64" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F5" s="65"/>
     </row>
     <row r="6" customFormat="1" spans="3:18">
       <c r="C6" s="64" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F6" s="66"/>
       <c r="N6" s="20" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Q6" s="83"/>
       <c r="R6" s="20">
@@ -19188,17 +19223,17 @@
     </row>
     <row r="7" customFormat="1" spans="3:18">
       <c r="C7" s="67" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F7" s="68"/>
       <c r="N7" s="20" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="R7" s="20">
@@ -19207,17 +19242,17 @@
     </row>
     <row r="8" customFormat="1" spans="3:18">
       <c r="C8" s="64" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F8" s="69"/>
       <c r="N8" s="20" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Q8" s="85"/>
       <c r="R8" s="20">
@@ -19229,7 +19264,7 @@
     <row r="11" customFormat="1"/>
     <row r="12" customFormat="1" spans="3:19">
       <c r="C12" s="70" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -19239,7 +19274,7 @@
       <c r="I12" s="70"/>
       <c r="J12" s="70"/>
       <c r="N12" s="70" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="O12" s="70"/>
       <c r="P12" s="70"/>
@@ -19281,10 +19316,10 @@
     </row>
     <row r="15" customFormat="1" spans="3:19">
       <c r="C15" s="71" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E15" s="73">
         <f>E16/SUM(E16:H16)</f>
@@ -19295,10 +19330,10 @@
         <v>0.25</v>
       </c>
       <c r="N15" s="71" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="O15" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P15" s="73">
         <f>P16/SUM(P16:S16)</f>
@@ -19320,7 +19355,7 @@
     <row r="16" customFormat="1" spans="3:19">
       <c r="C16" s="74"/>
       <c r="D16" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E16" s="75">
         <f>E18*E17</f>
@@ -19332,7 +19367,7 @@
       </c>
       <c r="N16" s="74"/>
       <c r="O16" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P16" s="75">
         <f t="shared" ref="P16:S16" si="0">P18*P17</f>
@@ -19354,7 +19389,7 @@
     <row r="17" customFormat="1" spans="3:19">
       <c r="C17" s="74"/>
       <c r="D17" s="76" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E17" s="77">
         <v>3</v>
@@ -19364,7 +19399,7 @@
       </c>
       <c r="N17" s="74"/>
       <c r="O17" s="81" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P17" s="77">
         <v>50</v>
@@ -19382,7 +19417,7 @@
     <row r="18" customFormat="1" spans="3:19">
       <c r="C18" s="74"/>
       <c r="D18" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E18" s="77">
         <v>6</v>
@@ -19392,7 +19427,7 @@
       </c>
       <c r="N18" s="74"/>
       <c r="O18" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P18" s="77">
         <v>6</v>
@@ -19410,26 +19445,26 @@
     <row r="19" customFormat="1" spans="3:19">
       <c r="C19" s="78"/>
       <c r="D19" s="79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E19" s="80" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F19" s="80" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="78"/>
       <c r="O19" s="80" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="P19" s="80" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="Q19" s="80" t="s">
         <v>3</v>
       </c>
       <c r="R19" s="80" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="S19" s="80" t="s">
         <v>7</v>
@@ -19451,10 +19486,10 @@
     </row>
     <row r="21" customFormat="1" spans="3:19">
       <c r="C21" s="71" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E21" s="73">
         <f>E22/SUM(E22:H22)</f>
@@ -19469,10 +19504,10 @@
         <v>0.11371237458194</v>
       </c>
       <c r="N21" s="71" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="O21" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P21" s="73">
         <f>P22/SUM(P22:S22)</f>
@@ -19494,7 +19529,7 @@
     <row r="22" customFormat="1" spans="3:19">
       <c r="C22" s="74"/>
       <c r="D22" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E22" s="75">
         <f t="shared" ref="E22:G22" si="1">E24*E23</f>
@@ -19510,7 +19545,7 @@
       </c>
       <c r="N22" s="74"/>
       <c r="O22" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P22" s="75">
         <f t="shared" ref="P22:S22" si="2">P24*P23</f>
@@ -19532,7 +19567,7 @@
     <row r="23" customFormat="1" spans="3:19">
       <c r="C23" s="74"/>
       <c r="D23" s="76" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E23" s="77">
         <v>30</v>
@@ -19545,7 +19580,7 @@
       </c>
       <c r="N23" s="74"/>
       <c r="O23" s="81" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P23" s="77">
         <v>15</v>
@@ -19563,7 +19598,7 @@
     <row r="24" customFormat="1" spans="3:19">
       <c r="C24" s="74"/>
       <c r="D24" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E24" s="77">
         <v>6</v>
@@ -19576,7 +19611,7 @@
       </c>
       <c r="N24" s="74"/>
       <c r="O24" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P24" s="77">
         <v>18</v>
@@ -19594,32 +19629,32 @@
     <row r="25" customFormat="1" spans="3:19">
       <c r="C25" s="78"/>
       <c r="D25" s="79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E25" s="80" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="78"/>
       <c r="O25" s="80" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="P25" s="80" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Q25" s="80" t="s">
         <v>7</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="S25" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:19">
@@ -19638,10 +19673,10 @@
     </row>
     <row r="27" customFormat="1" spans="3:19">
       <c r="C27" s="71" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E27" s="73">
         <f>E28/SUM(E28:H28)</f>
@@ -19660,32 +19695,32 @@
         <v>0.0320284697508897</v>
       </c>
       <c r="N27" s="82" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="O27" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P27" s="73">
         <f>P28/SUM(P28:S28)</f>
-        <v>0.517578125</v>
+        <v>0.513059219032842</v>
       </c>
       <c r="Q27" s="73">
         <f>Q28/SUM(P28:S28)</f>
-        <v>0.361653645833333</v>
+        <v>0.39100077579519</v>
       </c>
       <c r="R27" s="73">
         <f>R28/SUM(P28:S28)</f>
-        <v>0.0807291666666667</v>
+        <v>0.0641324023791053</v>
       </c>
       <c r="S27" s="73">
         <f>S28/SUM(P28:S28)</f>
-        <v>0.0400390625</v>
+        <v>0.0318076027928627</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:19">
       <c r="C28" s="74"/>
       <c r="D28" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E28" s="75">
         <f t="shared" ref="E28:H28" si="3">E30*E29</f>
@@ -19705,15 +19740,15 @@
       </c>
       <c r="N28" s="82"/>
       <c r="O28" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P28" s="75">
         <f t="shared" ref="P28:S28" si="4">(P30*P29)+(P32*P31)</f>
-        <v>1590</v>
+        <v>1984</v>
       </c>
       <c r="Q28" s="75">
         <f t="shared" si="4"/>
-        <v>1111</v>
+        <v>1512</v>
       </c>
       <c r="R28" s="75">
         <f t="shared" si="4"/>
@@ -19727,7 +19762,7 @@
     <row r="29" customFormat="1" spans="3:19">
       <c r="C29" s="74"/>
       <c r="D29" s="76" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E29" s="77">
         <v>20</v>
@@ -19743,7 +19778,7 @@
       </c>
       <c r="N29" s="82"/>
       <c r="O29" s="81" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P29" s="77">
         <v>2</v>
@@ -19761,7 +19796,7 @@
     <row r="30" customFormat="1" spans="3:19">
       <c r="C30" s="74"/>
       <c r="D30" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E30" s="77">
         <v>17</v>
@@ -19777,13 +19812,13 @@
       </c>
       <c r="N30" s="82"/>
       <c r="O30" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="P30" s="77">
-        <v>595</v>
+        <v>792</v>
       </c>
       <c r="Q30" s="77">
-        <v>611</v>
+        <v>1012</v>
       </c>
       <c r="R30" s="77">
         <v>0</v>
@@ -19795,23 +19830,23 @@
     <row r="31" customFormat="1" spans="3:19">
       <c r="C31" s="78"/>
       <c r="D31" s="79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F31" s="80" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H31" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N31" s="82"/>
       <c r="O31" s="81" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="P31" s="77">
         <v>50</v>
@@ -19835,27 +19870,27 @@
       <c r="H32" s="62"/>
       <c r="N32" s="82"/>
       <c r="O32" s="80" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P32" s="80" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Q32" s="80" t="s">
         <v>148</v>
       </c>
       <c r="R32" s="80" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="S32" s="80" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="3:19">
       <c r="C33" s="71" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E33" s="73">
         <f>E34/SUM(E34:J34)</f>
@@ -19879,25 +19914,25 @@
       </c>
       <c r="N33" s="82"/>
       <c r="O33" s="80" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="P33" s="80" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="80" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="S33" s="80" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:9">
       <c r="C34" s="74"/>
       <c r="D34" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E34" s="75">
         <f t="shared" ref="E34:I34" si="5">E36*E35</f>
@@ -19923,7 +19958,7 @@
     <row r="35" customFormat="1" spans="3:9">
       <c r="C35" s="74"/>
       <c r="D35" s="76" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E35" s="77">
         <v>100</v>
@@ -19944,7 +19979,7 @@
     <row r="36" customFormat="1" spans="3:9">
       <c r="C36" s="74"/>
       <c r="D36" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E36" s="77">
         <v>17</v>
@@ -19965,19 +20000,19 @@
     <row r="37" customFormat="1" spans="3:9">
       <c r="C37" s="78"/>
       <c r="D37" s="79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>10</v>
@@ -19993,10 +20028,10 @@
     </row>
     <row r="39" customFormat="1" spans="3:10">
       <c r="C39" s="71" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E39" s="73">
         <f>E40/SUM(E40:J40)</f>
@@ -20026,7 +20061,7 @@
     <row r="40" customFormat="1" spans="3:10">
       <c r="C40" s="74"/>
       <c r="D40" s="72" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E40" s="75">
         <f t="shared" ref="E40:J40" si="6">E42*E41</f>
@@ -20056,7 +20091,7 @@
     <row r="41" customFormat="1" spans="3:10">
       <c r="C41" s="74"/>
       <c r="D41" s="76" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E41" s="77">
         <v>20</v>
@@ -20080,7 +20115,7 @@
     <row r="42" customFormat="1" spans="3:10">
       <c r="C42" s="74"/>
       <c r="D42" s="76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E42" s="77">
         <v>17</v>
@@ -20104,25 +20139,25 @@
     <row r="43" customFormat="1" spans="3:10">
       <c r="C43" s="78"/>
       <c r="D43" s="79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H43" s="80" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="J43" s="80" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -20174,7 +20209,7 @@
   <sheetData>
     <row r="4" s="16" customFormat="1" spans="3:16">
       <c r="C4" s="44" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -20224,34 +20259,34 @@
         <v>349</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="N8" s="43"/>
       <c r="P8" s="43"/>
@@ -20289,34 +20324,34 @@
     <row r="11" s="16" customFormat="1" spans="3:16">
       <c r="C11" s="53"/>
       <c r="D11" s="51" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K11" s="52" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M11" s="52" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="N11" s="43"/>
       <c r="P11" s="43"/>
@@ -20354,34 +20389,34 @@
     <row r="14" s="16" customFormat="1" spans="3:16">
       <c r="C14" s="53"/>
       <c r="D14" s="51" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="N14" s="43"/>
       <c r="P14" s="43"/>
@@ -20418,13 +20453,13 @@
     </row>
     <row r="18" s="16" customFormat="1" spans="3:16">
       <c r="C18" s="50" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="N18" s="43"/>
       <c r="P18" s="43"/>
@@ -20446,10 +20481,10 @@
     <row r="21" s="16" customFormat="1" spans="3:16">
       <c r="C21" s="53"/>
       <c r="D21" s="51" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="N21" s="43"/>
       <c r="P21" s="43"/>
@@ -20471,28 +20506,28 @@
     <row r="24" s="16" customFormat="1" spans="3:16">
       <c r="C24" s="53"/>
       <c r="D24" s="51" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="N24" s="43"/>
       <c r="P24" s="43"/>
@@ -20501,7 +20536,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="55"/>
@@ -20509,7 +20544,7 @@
       <c r="I25" s="55"/>
       <c r="J25" s="54"/>
       <c r="K25" s="55" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="N25" s="43"/>
       <c r="P25" s="43"/>
@@ -20529,13 +20564,13 @@
     </row>
     <row r="28" s="16" customFormat="1" spans="3:16">
       <c r="C28" s="50" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="N28" s="43"/>
       <c r="P28" s="43"/>
@@ -20557,10 +20592,10 @@
     <row r="31" s="16" customFormat="1" spans="3:16">
       <c r="C31" s="53"/>
       <c r="D31" s="51" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="N31" s="43"/>
       <c r="P31" s="43"/>
@@ -20569,7 +20604,7 @@
       <c r="C32" s="53"/>
       <c r="D32" s="54"/>
       <c r="E32" s="55" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="N32" s="43"/>
       <c r="P32" s="43"/>
@@ -20584,10 +20619,10 @@
     <row r="34" s="16" customFormat="1" spans="3:16">
       <c r="C34" s="53"/>
       <c r="D34" s="51" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="N34" s="43"/>
       <c r="P34" s="43"/>
@@ -20596,7 +20631,7 @@
       <c r="C35" s="53"/>
       <c r="D35" s="54"/>
       <c r="E35" s="55" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="N35" s="43"/>
       <c r="P35" s="43"/>
@@ -20688,92 +20723,92 @@
   <sheetData>
     <row r="4" spans="6:8">
       <c r="F4" s="16" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="16" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="16" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="6:8">
       <c r="F6" s="16" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="16" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="6:8">
       <c r="F7" s="20" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="16" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" s="16" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="16" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="6:8">
       <c r="F9" s="16" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="16" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="20" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="16" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="20" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="16" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="16" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="16" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" s="192" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="16" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="6:6">
@@ -20784,22 +20819,22 @@
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="28" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -20817,12 +20852,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="29" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -20832,53 +20867,53 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="30" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
@@ -20894,55 +20929,55 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="32" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -20958,44 +20993,44 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="34" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -21028,10 +21063,10 @@
     </row>
     <row r="37" spans="7:12">
       <c r="G37" s="36" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I37" s="42" t="s">
         <v>182</v>
@@ -21040,10 +21075,10 @@
         <v>68</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="L37" s="42" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="7:12">
@@ -21059,19 +21094,19 @@
         <v>183</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="I39" s="42" t="s">
         <v>160</v>
       </c>
       <c r="J39" s="42" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="K39" s="42" t="s">
         <v>184</v>
       </c>
       <c r="L39" s="42" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -21135,214 +21170,214 @@
   <sheetData>
     <row r="8" customFormat="1" spans="4:12">
       <c r="D8" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:12">
       <c r="D9" s="9" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="H9" s="10">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="L9" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:12">
       <c r="C10" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="H10" s="10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="L10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="4:12">
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H11" s="10">
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="L11" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="4:12">
       <c r="D12" s="9" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H12" s="10">
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="L12" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="3:12">
       <c r="C13" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H13" s="10">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="L13" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:12">
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="H14" s="10">
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="L14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="4:12">
       <c r="D15" s="9" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="H15" s="10">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="L15" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:12">
       <c r="C16" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H16" s="10">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="L16" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="4:12">
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="H17" s="10">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="L17" t="s">
         <v>295</v>
@@ -21350,47 +21385,47 @@
     </row>
     <row r="18" customFormat="1" spans="4:12">
       <c r="D18" s="9" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="H18" s="10">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="L18" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:14">
       <c r="C19" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="H19" s="10">
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="L19" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="N19" s="5"/>
     </row>
@@ -21398,129 +21433,129 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H20" s="10">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="L20" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="4:12">
       <c r="D21" s="12" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H21" s="10">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="L21" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:12">
       <c r="C22" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="H22" s="10">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="L22" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="4:12">
       <c r="D23" s="14"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="H23" s="10">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="L23" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="4:12">
       <c r="D24" s="9" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="H24" s="10">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="L24" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:16">
       <c r="C25" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="H25" s="10">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="L25" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="P25" s="4"/>
     </row>
@@ -21528,69 +21563,69 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="H26" s="10">
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="L26" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="11:12">
       <c r="K27" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="L27" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="11:12">
       <c r="K28" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="L28" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="11:12">
       <c r="K29" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="L29" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="11:16">
       <c r="K30" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="L30" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" customFormat="1" spans="11:16">
       <c r="K31" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="L31" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="P31" s="4"/>
     </row>
     <row r="32" customFormat="1" spans="11:12">
       <c r="K32" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="L32" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="4"/>
+    <workbookView windowHeight="16840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -9007,8 +9007,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -17995,8 +17995,8 @@
   <sheetPr/>
   <dimension ref="B3:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="2"/>
+    <workbookView windowHeight="16840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -537,49 +537,49 @@
     <t>15/25/35</t>
   </si>
   <si>
+    <t>双管霰弹</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>10/15/20</t>
+  </si>
+  <si>
+    <t>泵动霰弹</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>5/7/9</t>
+  </si>
+  <si>
+    <t>自动霰弹</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>双管霰弹</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>10/15/20</t>
-  </si>
-  <si>
-    <t>泵动霰弹</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>5/7/9</t>
-  </si>
-  <si>
-    <t>自动霰弹</t>
   </si>
   <si>
     <t>6</t>
@@ -5626,8 +5626,8 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="163" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C43" s="164" t="s">
         <v>120</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="163" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C46" s="164" t="s">
         <v>142</v>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="164" t="s">
         <v>166</v>
-      </c>
-      <c r="C52" s="164" t="s">
-        <v>167</v>
       </c>
       <c r="D52" s="163" t="s">
         <v>68</v>
@@ -7221,7 +7221,7 @@
         <v>143</v>
       </c>
       <c r="H52" s="163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" s="163" t="s">
         <v>86</v>
@@ -7242,16 +7242,16 @@
         <v>162</v>
       </c>
       <c r="O52" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="P52" s="163" t="s">
         <v>169</v>
-      </c>
-      <c r="P52" s="163" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="36"/>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>95</v>
@@ -7266,43 +7266,43 @@
         <v>148</v>
       </c>
       <c r="H53" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="I53" s="36" t="s">
+      <c r="J53" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="J53" s="36" t="s">
+      <c r="K53" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="L53" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L53" s="36" t="s">
+      <c r="M53" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="M53" s="36" t="s">
+      <c r="N53" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="N53" s="36" t="s">
-        <v>178</v>
       </c>
       <c r="O53" s="36" t="s">
         <v>144</v>
       </c>
       <c r="P53" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="36"/>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>152</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F54" s="36" t="s">
         <v>181</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="163" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="164" t="s">
         <v>189</v>
@@ -7378,7 +7378,7 @@
         <v>162</v>
       </c>
       <c r="I56" s="163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J56" s="163" t="s">
         <v>154</v>
@@ -7523,7 +7523,7 @@
         <v>143</v>
       </c>
       <c r="F60" s="163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" s="163" t="s">
         <v>86</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="163" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="C68" s="164" t="s">
         <v>232</v>
@@ -7786,7 +7786,7 @@
         <v>162</v>
       </c>
       <c r="K68" s="163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L68" s="163" t="s">
         <v>233</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="71" customFormat="1" spans="2:16">
       <c r="B71" s="163" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="C71" s="164" t="s">
         <v>237</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="72" spans="2:16">
       <c r="B72" s="119" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C72" s="182" t="s">
         <v>240</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="74" customFormat="1" spans="2:16">
       <c r="B74" s="163" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="C74" s="164" t="s">
         <v>241</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="75" spans="2:16">
       <c r="B75" s="119" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C75" s="182" t="s">
         <v>242</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="36" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>244</v>
@@ -8115,7 +8115,7 @@
         <v>230</v>
       </c>
       <c r="P76" s="181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +8130,7 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -10475,7 +10475,7 @@
         <v>431</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E30" s="115" t="s">
         <v>361</v>
@@ -10490,7 +10490,7 @@
         <v>362</v>
       </c>
       <c r="I30" s="110" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J30" s="115" t="s">
         <v>361</v>
@@ -10505,7 +10505,7 @@
         <v>362</v>
       </c>
       <c r="N30" s="110" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O30" s="115" t="s">
         <v>361</v>
@@ -10520,7 +10520,7 @@
         <v>362</v>
       </c>
       <c r="S30" s="110" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T30" s="115" t="s">
         <v>361</v>
@@ -11971,7 +11971,7 @@
         <v>363</v>
       </c>
       <c r="P50" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="115" t="s">
         <v>361</v>
@@ -12190,7 +12190,7 @@
         <v>416</v>
       </c>
       <c r="P53" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q53" s="114" t="s">
         <v>361</v>
@@ -12583,7 +12583,7 @@
         <v>385</v>
       </c>
       <c r="F62" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G62" s="114" t="s">
         <v>360</v>
@@ -12592,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J62" s="101" t="s">
         <v>387</v>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O62" s="112" t="s">
         <v>386</v>
@@ -12650,7 +12650,7 @@
         <v>390</v>
       </c>
       <c r="D63" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E63" s="115" t="s">
         <v>391</v>
@@ -12680,7 +12680,7 @@
         <v>381</v>
       </c>
       <c r="N63" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O63" s="115" t="s">
         <v>393</v>
@@ -12695,7 +12695,7 @@
         <v>381</v>
       </c>
       <c r="S63" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T63" s="115" t="s">
         <v>394</v>
@@ -12753,13 +12753,13 @@
         <v>379</v>
       </c>
       <c r="N64" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O64" s="114" t="s">
         <v>363</v>
       </c>
       <c r="P64" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q64" s="114" t="s">
         <v>361</v>
@@ -12811,7 +12811,7 @@
         <v>362</v>
       </c>
       <c r="I65" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J65" s="115" t="s">
         <v>467</v>
@@ -12826,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O65" s="115" t="s">
         <v>368</v>
@@ -12883,7 +12883,7 @@
         <v>362</v>
       </c>
       <c r="I66" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J66" s="114" t="s">
         <v>368</v>
@@ -12898,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O66" s="114" t="s">
         <v>407</v>
@@ -12956,7 +12956,7 @@
         <v>362</v>
       </c>
       <c r="I67" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J67" s="115" t="s">
         <v>416</v>
@@ -12971,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O67" s="115" t="s">
         <v>415</v>
@@ -12986,13 +12986,13 @@
         <v>1</v>
       </c>
       <c r="S67" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T67" s="115" t="s">
         <v>416</v>
       </c>
       <c r="U67" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V67" s="115" t="s">
         <v>361</v>
@@ -13029,7 +13029,7 @@
         <v>362</v>
       </c>
       <c r="I68" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J68" s="114" t="s">
         <v>393</v>
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="N68" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O68" s="114" t="s">
         <v>400</v>
@@ -13086,7 +13086,7 @@
         <v>422</v>
       </c>
       <c r="D69" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E69" s="115" t="s">
         <v>423</v>
@@ -13107,7 +13107,7 @@
         <v>424</v>
       </c>
       <c r="K69" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L69" s="115" t="s">
         <v>372</v>
@@ -13116,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O69" s="115" t="s">
         <v>423</v>
@@ -13173,7 +13173,7 @@
         <v>362</v>
       </c>
       <c r="I70" s="119" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J70" s="118" t="s">
         <v>429</v>
@@ -13324,7 +13324,7 @@
         <v>400</v>
       </c>
       <c r="K72" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L72" s="114" t="s">
         <v>435</v>
@@ -13339,7 +13339,7 @@
         <v>436</v>
       </c>
       <c r="P72" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q72" s="114" t="s">
         <v>437</v>
@@ -13382,7 +13382,7 @@
         <v>441</v>
       </c>
       <c r="F73" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G73" s="115" t="s">
         <v>367</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J73" s="115" t="s">
         <v>442</v>
@@ -13406,7 +13406,7 @@
         <v>362</v>
       </c>
       <c r="N73" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O73" s="115" t="s">
         <v>409</v>
@@ -13479,7 +13479,7 @@
         <v>362</v>
       </c>
       <c r="N74" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O74" s="114" t="s">
         <v>448</v>
@@ -13494,7 +13494,7 @@
         <v>362</v>
       </c>
       <c r="S74" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T74" s="114" t="s">
         <v>448</v>
@@ -13552,7 +13552,7 @@
         <v>379</v>
       </c>
       <c r="N75" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O75" s="115" t="s">
         <v>374</v>
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="S75" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T75" s="115" t="s">
         <v>453</v>
@@ -13610,7 +13610,7 @@
         <v>362</v>
       </c>
       <c r="I76" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J76" s="114" t="s">
         <v>457</v>
@@ -13625,7 +13625,7 @@
         <v>362</v>
       </c>
       <c r="N76" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O76" s="114" t="s">
         <v>509</v>
@@ -13640,7 +13640,7 @@
         <v>362</v>
       </c>
       <c r="S76" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T76" s="114" t="s">
         <v>459</v>
@@ -13668,7 +13668,7 @@
         <v>461</v>
       </c>
       <c r="D77" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E77" s="115" t="s">
         <v>462</v>
@@ -13698,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="N77" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O77" s="115" t="s">
         <v>464</v>
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T77" s="115" t="s">
         <v>464</v>
@@ -13741,7 +13741,7 @@
         <v>466</v>
       </c>
       <c r="D78" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E78" s="114" t="s">
         <v>467</v>
@@ -13756,7 +13756,7 @@
         <v>362</v>
       </c>
       <c r="I78" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J78" s="114" t="s">
         <v>406</v>
@@ -13771,7 +13771,7 @@
         <v>362</v>
       </c>
       <c r="N78" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O78" s="114" t="s">
         <v>468</v>
@@ -13783,7 +13783,7 @@
         <v>408</v>
       </c>
       <c r="R78" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="S78" s="101" t="s">
         <v>152</v>
@@ -13885,7 +13885,7 @@
         <v>476</v>
       </c>
       <c r="D80" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E80" s="114" t="s">
         <v>477</v>
@@ -13900,7 +13900,7 @@
         <v>362</v>
       </c>
       <c r="I80" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J80" s="114" t="s">
         <v>478</v>
@@ -13936,7 +13936,7 @@
         <v>479</v>
       </c>
       <c r="U80" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V80" s="112" t="s">
         <v>360</v>
@@ -13973,7 +13973,7 @@
         <v>362</v>
       </c>
       <c r="I81" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J81" s="115" t="s">
         <v>408</v>
@@ -13988,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="N81" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O81" s="115" t="s">
         <v>482</v>
@@ -14003,7 +14003,7 @@
         <v>362</v>
       </c>
       <c r="S81" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T81" s="115" t="s">
         <v>375</v>
@@ -14046,7 +14046,7 @@
         <v>381</v>
       </c>
       <c r="I82" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J82" s="114" t="s">
         <v>485</v>
@@ -14076,7 +14076,7 @@
         <v>362</v>
       </c>
       <c r="S82" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T82" s="114" t="s">
         <v>479</v>
@@ -14104,7 +14104,7 @@
         <v>488</v>
       </c>
       <c r="D83" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E83" s="115" t="s">
         <v>489</v>
@@ -14119,7 +14119,7 @@
         <v>362</v>
       </c>
       <c r="I83" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J83" s="115" t="s">
         <v>489</v>
@@ -14149,7 +14149,7 @@
         <v>362</v>
       </c>
       <c r="S83" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T83" s="115" t="s">
         <v>472</v>
@@ -14207,7 +14207,7 @@
         <v>362</v>
       </c>
       <c r="N84" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O84" s="114" t="s">
         <v>494</v>
@@ -14265,7 +14265,7 @@
         <v>362</v>
       </c>
       <c r="I85" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J85" s="115" t="s">
         <v>498</v>
@@ -14280,13 +14280,13 @@
         <v>362</v>
       </c>
       <c r="N85" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O85" s="116" t="s">
         <v>485</v>
       </c>
       <c r="P85" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q85" s="115" t="s">
         <v>361</v>
@@ -14295,13 +14295,13 @@
         <v>362</v>
       </c>
       <c r="S85" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T85" s="115" t="s">
         <v>419</v>
       </c>
       <c r="U85" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V85" s="115" t="s">
         <v>361</v>
@@ -14323,7 +14323,7 @@
         <v>500</v>
       </c>
       <c r="D86" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E86" s="114" t="s">
         <v>368</v>
@@ -14353,7 +14353,7 @@
         <v>379</v>
       </c>
       <c r="N86" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O86" s="114" t="s">
         <v>478</v>
@@ -14396,7 +14396,7 @@
         <v>502</v>
       </c>
       <c r="D87" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E87" s="115" t="s">
         <v>503</v>
@@ -14411,7 +14411,7 @@
         <v>362</v>
       </c>
       <c r="I87" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J87" s="115" t="s">
         <v>519</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="N87" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O87" s="115" t="s">
         <v>504</v>
@@ -14441,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="S87" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T87" s="115" t="s">
         <v>442</v>
@@ -14469,7 +14469,7 @@
         <v>506</v>
       </c>
       <c r="D88" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E88" s="114" t="s">
         <v>507</v>
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="N88" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O88" s="114" t="s">
         <v>508</v>
@@ -14542,7 +14542,7 @@
         <v>511</v>
       </c>
       <c r="D89" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E89" s="115" t="s">
         <v>512</v>
@@ -14557,7 +14557,7 @@
         <v>362</v>
       </c>
       <c r="I89" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J89" s="115" t="s">
         <v>513</v>
@@ -14587,7 +14587,7 @@
         <v>2</v>
       </c>
       <c r="S89" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T89" s="115" t="s">
         <v>504</v>
@@ -14615,7 +14615,7 @@
         <v>515</v>
       </c>
       <c r="D90" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E90" s="114" t="s">
         <v>516</v>
@@ -14630,7 +14630,7 @@
         <v>362</v>
       </c>
       <c r="I90" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J90" s="114" t="s">
         <v>516</v>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="N90" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O90" s="114" t="s">
         <v>400</v>
@@ -14688,7 +14688,7 @@
         <v>518</v>
       </c>
       <c r="D91" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E91" s="115" t="s">
         <v>519</v>
@@ -14709,7 +14709,7 @@
         <v>519</v>
       </c>
       <c r="K91" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L91" s="115" t="s">
         <v>437</v>
@@ -14733,7 +14733,7 @@
         <v>362</v>
       </c>
       <c r="S91" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T91" s="115" t="s">
         <v>369</v>
@@ -14761,7 +14761,7 @@
         <v>521</v>
       </c>
       <c r="D92" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E92" s="114" t="s">
         <v>407</v>
@@ -14776,7 +14776,7 @@
         <v>362</v>
       </c>
       <c r="I92" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J92" s="114" t="s">
         <v>464</v>
@@ -14791,7 +14791,7 @@
         <v>362</v>
       </c>
       <c r="N92" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O92" s="114" t="s">
         <v>522</v>
@@ -14834,7 +14834,7 @@
         <v>525</v>
       </c>
       <c r="D93" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E93" s="115" t="s">
         <v>526</v>
@@ -14864,7 +14864,7 @@
         <v>362</v>
       </c>
       <c r="N93" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O93" s="115" t="s">
         <v>526</v>
@@ -14885,7 +14885,7 @@
         <v>374</v>
       </c>
       <c r="U93" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V93" s="115" t="s">
         <v>361</v>
@@ -14907,7 +14907,7 @@
         <v>528</v>
       </c>
       <c r="D94" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E94" s="112" t="s">
         <v>424</v>
@@ -14922,7 +14922,7 @@
         <v>362</v>
       </c>
       <c r="I94" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J94" s="114" t="s">
         <v>424</v>
@@ -15003,7 +15003,7 @@
         <v>532</v>
       </c>
       <c r="D96" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E96" s="114" t="s">
         <v>361</v>
@@ -15018,7 +15018,7 @@
         <v>362</v>
       </c>
       <c r="I96" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J96" s="114" t="s">
         <v>361</v>
@@ -15033,7 +15033,7 @@
         <v>362</v>
       </c>
       <c r="N96" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O96" s="114" t="s">
         <v>361</v>
@@ -15048,7 +15048,7 @@
         <v>362</v>
       </c>
       <c r="S96" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T96" s="114" t="s">
         <v>361</v>
@@ -15264,7 +15264,7 @@
         <v>378</v>
       </c>
       <c r="F102" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G102" s="115" t="s">
         <v>365</v>
@@ -15337,7 +15337,7 @@
         <v>385</v>
       </c>
       <c r="F103" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G103" s="114" t="s">
         <v>473</v>
@@ -15367,7 +15367,7 @@
         <v>386</v>
       </c>
       <c r="P103" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q103" s="114" t="s">
         <v>420</v>
@@ -15513,7 +15513,7 @@
         <v>363</v>
       </c>
       <c r="P105" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q105" s="114" t="s">
         <v>393</v>
@@ -15565,13 +15565,13 @@
         <v>381</v>
       </c>
       <c r="I106" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J106" s="115" t="s">
         <v>400</v>
       </c>
       <c r="K106" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L106" s="115" t="s">
         <v>467</v>
@@ -15678,7 +15678,7 @@
         <v>405</v>
       </c>
       <c r="U107" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V107" s="114" t="s">
         <v>361</v>
@@ -15755,7 +15755,7 @@
         <v>416</v>
       </c>
       <c r="U108" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V108" s="115" t="s">
         <v>415</v>
@@ -15802,7 +15802,7 @@
         <v>393</v>
       </c>
       <c r="K109" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L109" s="114" t="s">
         <v>419</v>
@@ -15817,7 +15817,7 @@
         <v>400</v>
       </c>
       <c r="P109" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q109" s="114" t="s">
         <v>361</v>
@@ -15879,7 +15879,7 @@
         <v>424</v>
       </c>
       <c r="K110" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L110" s="115" t="s">
         <v>372</v>
@@ -15894,7 +15894,7 @@
         <v>423</v>
       </c>
       <c r="P110" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q110" s="115" t="s">
         <v>361</v>
@@ -15986,7 +15986,7 @@
         <v>365</v>
       </c>
       <c r="U111" s="119" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V111" s="118" t="s">
         <v>428</v>
@@ -16100,7 +16100,7 @@
         <v>381</v>
       </c>
       <c r="I113" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J113" s="114" t="s">
         <v>400</v>
@@ -16121,7 +16121,7 @@
         <v>436</v>
       </c>
       <c r="P113" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q113" s="114" t="s">
         <v>437</v>
@@ -16164,7 +16164,7 @@
         <v>441</v>
       </c>
       <c r="F114" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G114" s="115" t="s">
         <v>458</v>
@@ -16261,7 +16261,7 @@
         <v>362</v>
       </c>
       <c r="N115" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O115" s="114" t="s">
         <v>448</v>
@@ -16471,7 +16471,7 @@
         <v>462</v>
       </c>
       <c r="K118" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L118" s="116" t="s">
         <v>463</v>
@@ -16495,13 +16495,13 @@
         <v>1</v>
       </c>
       <c r="S118" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T118" s="115" t="s">
         <v>424</v>
       </c>
       <c r="U118" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V118" s="115" t="s">
         <v>464</v>
@@ -16572,7 +16572,7 @@
         <v>1</v>
       </c>
       <c r="S119" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T119" s="114" t="s">
         <v>469</v>
@@ -16619,7 +16619,7 @@
         <v>381</v>
       </c>
       <c r="I120" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J120" s="115" t="s">
         <v>472</v>
@@ -16640,7 +16640,7 @@
         <v>393</v>
       </c>
       <c r="P120" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q120" s="115" t="s">
         <v>397</v>
@@ -16696,13 +16696,13 @@
         <v>362</v>
       </c>
       <c r="I121" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J121" s="112" t="s">
         <v>479</v>
       </c>
       <c r="K121" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L121" s="114" t="s">
         <v>478</v>
@@ -16711,13 +16711,13 @@
         <v>379</v>
       </c>
       <c r="N121" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O121" s="114" t="s">
         <v>477</v>
       </c>
       <c r="P121" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q121" s="114" t="s">
         <v>368</v>
@@ -16726,13 +16726,13 @@
         <v>379</v>
       </c>
       <c r="S121" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T121" s="112" t="s">
         <v>369</v>
       </c>
       <c r="U121" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V121" s="114" t="s">
         <v>477</v>
@@ -16809,7 +16809,7 @@
         <v>409</v>
       </c>
       <c r="U122" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V122" s="115" t="s">
         <v>415</v>
@@ -16867,7 +16867,7 @@
         <v>369</v>
       </c>
       <c r="P123" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q123" s="114" t="s">
         <v>360</v>
@@ -16917,13 +16917,13 @@
         <v>362</v>
       </c>
       <c r="I124" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J124" s="115" t="s">
         <v>489</v>
       </c>
       <c r="K124" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L124" s="115" t="s">
         <v>472</v>
@@ -17030,7 +17030,7 @@
         <v>538</v>
       </c>
       <c r="U125" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V125" s="114" t="s">
         <v>492</v>
@@ -17092,7 +17092,7 @@
         <v>485</v>
       </c>
       <c r="P126" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q126" s="115" t="s">
         <v>529</v>
@@ -17144,13 +17144,13 @@
         <v>362</v>
       </c>
       <c r="I127" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J127" s="114" t="s">
         <v>386</v>
       </c>
       <c r="K127" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L127" s="114" t="s">
         <v>478</v>
@@ -17221,13 +17221,13 @@
         <v>362</v>
       </c>
       <c r="I128" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J128" s="115" t="s">
         <v>519</v>
       </c>
       <c r="K128" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L128" s="115" t="s">
         <v>503</v>
@@ -17257,7 +17257,7 @@
         <v>442</v>
       </c>
       <c r="U128" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V128" s="115" t="s">
         <v>361</v>
@@ -17375,13 +17375,13 @@
         <v>362</v>
       </c>
       <c r="I130" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J130" s="115" t="s">
         <v>526</v>
       </c>
       <c r="K130" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L130" s="115" t="s">
         <v>513</v>
@@ -17405,13 +17405,13 @@
         <v>2</v>
       </c>
       <c r="S130" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T130" s="115" t="s">
         <v>504</v>
       </c>
       <c r="U130" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V130" s="115" t="s">
         <v>512</v>
@@ -17452,13 +17452,13 @@
         <v>362</v>
       </c>
       <c r="I131" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J131" s="114" t="s">
         <v>516</v>
       </c>
       <c r="K131" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L131" s="114" t="s">
         <v>482</v>
@@ -17467,13 +17467,13 @@
         <v>379</v>
       </c>
       <c r="N131" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O131" s="114" t="s">
         <v>400</v>
       </c>
       <c r="P131" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q131" s="114" t="s">
         <v>516</v>
@@ -17535,7 +17535,7 @@
         <v>519</v>
       </c>
       <c r="K132" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L132" s="115" t="s">
         <v>437</v>
@@ -17559,13 +17559,13 @@
         <v>362</v>
       </c>
       <c r="S132" s="123" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T132" s="115" t="s">
         <v>369</v>
       </c>
       <c r="U132" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V132" s="115" t="s">
         <v>400</v>
@@ -17715,7 +17715,7 @@
         <v>374</v>
       </c>
       <c r="U134" s="116" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V134" s="115" t="s">
         <v>492</v>
@@ -17786,7 +17786,7 @@
         <v>362</v>
       </c>
       <c r="S135" s="101" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="T135" s="112" t="s">
         <v>423</v>
@@ -18306,7 +18306,7 @@
         <v>489</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P13" s="94" t="s">
         <v>584</v>
@@ -18401,7 +18401,7 @@
         <v>463</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X17" s="16" t="s">
         <v>387</v>
@@ -18492,7 +18492,7 @@
         <v>538</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X21" s="16" t="s">
         <v>446</v>
@@ -18516,7 +18516,7 @@
         <v>478</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X22" s="16" t="s">
         <v>493</v>
@@ -18599,7 +18599,7 @@
         <v>436</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X26" s="16" t="s">
         <v>522</v>
@@ -18798,7 +18798,7 @@
         <v>387</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>456</v>
@@ -18832,7 +18832,7 @@
         <v>526</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U37" s="85"/>
     </row>
@@ -18897,7 +18897,7 @@
         <v>459</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" s="16" customFormat="1" spans="2:13">
@@ -18929,7 +18929,7 @@
         <v>508</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" s="16" customFormat="1" spans="2:13">
@@ -18945,7 +18945,7 @@
         <v>494</v>
       </c>
       <c r="M44" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" s="16" customFormat="1" spans="2:13">
@@ -18961,7 +18961,7 @@
         <v>482</v>
       </c>
       <c r="M45" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" s="16" customFormat="1" spans="2:13">
@@ -18971,7 +18971,7 @@
         <v>380</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L46" s="90" t="s">
         <v>509</v>
@@ -18987,13 +18987,13 @@
         <v>428</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>442</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" s="16" customFormat="1" spans="2:17">
@@ -19004,7 +19004,7 @@
         <v>523</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K48" s="85"/>
       <c r="L48" s="16" t="s">
@@ -19025,14 +19025,14 @@
         <v>429</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K49" s="85"/>
       <c r="L49" s="16" t="s">
         <v>479</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P49" s="85"/>
       <c r="Q49" s="36"/>
@@ -19052,7 +19052,7 @@
         <v>394</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="36"/>
@@ -19075,7 +19075,7 @@
         <v>406</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P51" s="85"/>
       <c r="Q51" s="36"/>
@@ -19098,7 +19098,7 @@
         <v>504</v>
       </c>
       <c r="M52" s="36" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P52" s="85"/>
       <c r="Q52" s="36"/>
@@ -21037,7 +21037,7 @@
         <v>379</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J35" s="42" t="s">
         <v>537</v>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="1"/>
+    <workbookView windowHeight="16840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -2251,7 +2251,7 @@
     <t>资源采集(1)</t>
   </si>
   <si>
-    <t>埋藏补给(1-3)</t>
+    <t>埋藏补给(1-2)</t>
   </si>
   <si>
     <t>获取(1-3)</t>
@@ -2290,7 +2290,7 @@
     <t>资源采集(7)</t>
   </si>
   <si>
-    <t>埋藏补给(7-9)</t>
+    <t>埋藏补给(7-8)</t>
   </si>
   <si>
     <t>获取(7-9)</t>
@@ -2308,7 +2308,7 @@
     <t>强攻据点(8-12)</t>
   </si>
   <si>
-    <t>讨伐目标（8-12）</t>
+    <t>讨伐目标（9-12）</t>
   </si>
   <si>
     <t>潜入电力(9-12)</t>
@@ -2326,7 +2326,7 @@
     <t>资源采集(13)</t>
   </si>
   <si>
-    <t>埋藏补给(13-15)</t>
+    <t>埋藏补给(13-14)</t>
   </si>
   <si>
     <t>获取(13-15)</t>
@@ -2344,7 +2344,7 @@
     <t>强攻据点(14-18)</t>
   </si>
   <si>
-    <t>讨伐目标（14-18）</t>
+    <t>讨伐目标（15-18）</t>
   </si>
   <si>
     <t>潜入电力(15-18)</t>
@@ -2801,7 +2801,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>( ( ( 武器面板 ➕ 固定基础实体伤害 ) ✖ ( 百分比实体伤害 ➕ 潜行倍率 ) ✖ 百分比伤害补正 ) ➕ 固定伤害补正 ) ➗ ( 目标被穿甲后的护甲值 ➗ 100 ) ➗ 目标伤害减免</t>
+    <t xml:space="preserve"> ( ( ( 武器面板 ➕ 固定基础实体伤害 ) ✖ ( 百分比实体伤害 ➕ 潜行倍率 ) ✖ 百分比伤害补正 ) ➕ 固定伤害补正 ) ✖ ( 1 ➖ ( 目标被穿甲后的护甲值 ➗ 100 ) ) ✖ ( 1 ➖ ( 目标伤害减免 ) )</t>
   </si>
 </sst>
 </file>
@@ -5464,7 +5464,7 @@
   <dimension ref="D21:N46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5474,7 +5474,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="46.6363636363636" customWidth="1"/>
     <col min="13" max="13" width="53.3636363636364" customWidth="1"/>
-    <col min="14" max="14" width="25.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="33.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" spans="10:10">
@@ -5626,7 +5626,7 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -20695,8 +20695,8 @@
   <sheetPr/>
   <dimension ref="C4:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="7"/>
+    <workbookView windowHeight="16840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="915">
   <si>
     <t>来源</t>
   </si>
@@ -774,7 +774,7 @@
     <t>拳套</t>
   </si>
   <si>
-    <t>背包负重+18</t>
+    <t>背包负重+30</t>
   </si>
   <si>
     <t>单件护甲值5</t>
@@ -8130,8 +8130,8 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -9004,8 +9004,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -12592,16 +12592,16 @@
         <v>1</v>
       </c>
       <c r="I62" s="101" t="s">
-        <v>180</v>
+        <v>537</v>
       </c>
       <c r="J62" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="K62" s="101">
-        <v>3</v>
-      </c>
-      <c r="L62" s="112" t="s">
-        <v>386</v>
+      <c r="K62" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="L62" s="114" t="s">
+        <v>473</v>
       </c>
       <c r="M62" s="36">
         <v>1</v>
@@ -15351,11 +15351,11 @@
       <c r="J103" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="K103" s="101">
-        <v>3</v>
+      <c r="K103" s="101" t="s">
+        <v>379</v>
       </c>
       <c r="L103" s="112" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M103" s="36">
         <v>1</v>
@@ -17993,7 +17993,7 @@
   <dimension ref="B3:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18798,7 +18798,7 @@
         <v>387</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>456</v>
@@ -20695,7 +20695,7 @@
   <sheetPr/>
   <dimension ref="C4:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="2"/>
+    <workbookView windowHeight="16840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -2092,13 +2092,13 @@
     <t>学徒</t>
   </si>
   <si>
-    <t>+5%伤害补正</t>
+    <t>+5%基础实体伤害</t>
   </si>
   <si>
     <t>熟练</t>
   </si>
   <si>
-    <t>+10%伤害补正</t>
+    <t>+10%基础实体伤害</t>
   </si>
   <si>
     <t>精通</t>
@@ -2113,13 +2113,13 @@
     <t>愤怒</t>
   </si>
   <si>
-    <t>+20%伤害补正</t>
+    <t>+20%基础实体伤害</t>
   </si>
   <si>
     <t>野蛮</t>
   </si>
   <si>
-    <t>+25%伤害补正</t>
+    <t>+25%基础实体伤害</t>
   </si>
   <si>
     <t>+10%攻击速度</t>
@@ -2404,7 +2404,7 @@
     <t>魔理沙的击晕术</t>
   </si>
   <si>
-    <t>对眩晕目标造成的伤害补正提升15%</t>
+    <t>对眩晕目标造成的基础实体伤害提升15%</t>
   </si>
   <si>
     <t>courage</t>
@@ -2431,7 +2431,7 @@
     <t>魔理沙的火场怪力</t>
   </si>
   <si>
-    <t>生命在最大值10%以下时\n伤害补正提升30%</t>
+    <t>生命在最大值10%以下时\n基础实体伤害提升40%</t>
   </si>
   <si>
     <t>伤害减免</t>
@@ -2473,7 +2473,7 @@
     <t>魔理沙的射击术</t>
   </si>
   <si>
-    <t>使用远程武器时的伤害补正提升5%</t>
+    <t>使用远程武器时的基础实体伤害提升10%</t>
   </si>
   <si>
     <t>精神</t>
@@ -2488,7 +2488,7 @@
     <t>魔理沙的炮击术</t>
   </si>
   <si>
-    <t>爆炸伤害提升5%</t>
+    <t>爆炸伤害提升10%</t>
   </si>
   <si>
     <t>spirit</t>
@@ -2500,7 +2500,7 @@
     <t>魔理沙的换算术</t>
   </si>
   <si>
-    <t>任务获得的公爵币增加10%</t>
+    <t>任务获得的公爵币增加20%</t>
   </si>
   <si>
     <t>咖啡豆</t>
@@ -2569,7 +2569,7 @@
     <t>魔理沙的蛮干术</t>
   </si>
   <si>
-    <t>被攻击后，短时间内进行反击的伤害补正提升15%</t>
+    <t>被攻击后，短时间内进行反击的基础实体伤害提升15%</t>
   </si>
   <si>
     <t>upliftment</t>
@@ -2641,7 +2641,7 @@
     <t>魔理沙的粗暴射击</t>
   </si>
   <si>
-    <t>使用远程武器时的伤害补正提升15%，但是会略微增加后坐力</t>
+    <t>使用远程武器时的基础实体伤害提升15%，但是会略微增加后坐力</t>
   </si>
   <si>
     <t>魔理沙的指导术</t>
@@ -2653,13 +2653,13 @@
     <t>魔理沙的休息术</t>
   </si>
   <si>
-    <t>暂停攻击4秒后，下次进行攻击的伤害补正提升10%</t>
+    <t>暂停攻击4秒后，下次进行攻击的基础实体伤害提升10%</t>
   </si>
   <si>
     <t>魔理沙的短期催眠术</t>
   </si>
   <si>
-    <t>基础实体伤害提升5</t>
+    <t>基础实体伤害提升15</t>
   </si>
   <si>
     <t>魔理沙的轻功达人</t>
@@ -2677,7 +2677,7 @@
     <t>魔理沙的饱腹术</t>
   </si>
   <si>
-    <t>精力充沛时，伤害补正提升10%</t>
+    <t>精力充沛时，基础实体伤害提升10%</t>
   </si>
   <si>
     <t>培养皿</t>
@@ -8130,8 +8130,8 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -9004,8 +9004,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -17993,7 +17993,7 @@
   <dimension ref="B3:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -19164,7 +19164,7 @@
   <dimension ref="C4:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="C12" sqref="C12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -20180,21 +20180,20 @@
   <dimension ref="C4:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="C4" sqref="C4:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="8.72727272727273" style="16"/>
-    <col min="3" max="3" width="11.1818181818182" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.54545454545455" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.2727272727273" style="16" customWidth="1"/>
+    <col min="3" max="4" width="5.54545454545455" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.5454545454545" style="16" customWidth="1"/>
     <col min="6" max="6" width="5.54545454545455" style="16" customWidth="1"/>
     <col min="7" max="7" width="14" style="16" customWidth="1"/>
     <col min="8" max="8" width="5.54545454545455" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.5454545454545" style="16" customWidth="1"/>
     <col min="10" max="10" width="5.54545454545455" style="16" customWidth="1"/>
-    <col min="11" max="11" width="14" style="16" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" style="16" customWidth="1"/>
     <col min="12" max="12" width="5.54545454545455" style="16" customWidth="1"/>
     <col min="13" max="13" width="15.1818181818182" style="16" customWidth="1"/>
     <col min="14" max="14" width="5.54545454545455" style="36" customWidth="1"/>
@@ -21150,8 +21149,8 @@
   <sheetPr/>
   <dimension ref="C8:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="1"/>
+    <workbookView windowHeight="16840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -792,7 +792,7 @@
     <t>攻击速度+5%</t>
   </si>
   <si>
-    <t>近战攻击距离提升10%</t>
+    <t>近战攻击距离提升20%</t>
   </si>
   <si>
     <t>获得的经验值+5%</t>
@@ -831,7 +831,7 @@
     <t>摩托车手头盔</t>
   </si>
   <si>
-    <t>近战武器伤害提升10%</t>
+    <t>近战武器伤害提升20%</t>
   </si>
   <si>
     <t>伐木工装束</t>
@@ -864,7 +864,7 @@
     <t>传道者帽子</t>
   </si>
   <si>
-    <t>爆炸物伤害提升10%</t>
+    <t>爆炸物伤害提升20%</t>
   </si>
   <si>
     <t>矿工装束</t>
@@ -894,7 +894,7 @@
     <t>游牧民头饰</t>
   </si>
   <si>
-    <t>步枪武器伤害提升10%</t>
+    <t>步枪武器伤害提升20%</t>
   </si>
   <si>
     <t>拾荒者装束</t>
@@ -924,7 +924,7 @@
     <t>袭击者头盔</t>
   </si>
   <si>
-    <t>霰弹武器伤害提升10%</t>
+    <t>霰弹武器伤害提升20%</t>
   </si>
   <si>
     <t>农夫装束</t>
@@ -954,7 +954,7 @@
     <t>指挥官头盔</t>
   </si>
   <si>
-    <t>机枪武器伤害提升10%</t>
+    <t>机枪武器伤害提升20%</t>
   </si>
   <si>
     <t>护林员装束</t>
@@ -984,7 +984,7 @@
     <t>警官墨镜</t>
   </si>
   <si>
-    <t>手枪武器伤害提升10%</t>
+    <t>手枪武器伤害提升20%</t>
   </si>
   <si>
     <t>学霸装束</t>
@@ -1014,7 +1014,7 @@
     <t>盗贼兜帽</t>
   </si>
   <si>
-    <t>弓弩武器伤害提升10%</t>
+    <t>弓弩武器伤害提升20%</t>
   </si>
   <si>
     <t>刺客装束</t>
@@ -5620,7 +5620,7 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -8124,8 +8124,8 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -8998,8 +8998,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="O118" sqref="O118:R118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -792,7 +792,7 @@
     <t>攻击速度+5%</t>
   </si>
   <si>
-    <t>近战攻击距离提升20%</t>
+    <t>近战攻击距离提升0.5米</t>
   </si>
   <si>
     <t>获得的经验值+5%</t>
@@ -8125,7 +8125,7 @@
   <dimension ref="B4:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -8125,7 +8125,7 @@
   <dimension ref="B4:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="1"/>
+    <workbookView windowHeight="16840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -5623,7 +5623,7 @@
   <sheetPr/>
   <dimension ref="B4:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
@@ -9001,7 +9001,7 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
@@ -18021,8 +18021,8 @@
   <sheetPr/>
   <dimension ref="B3:AA55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="4"/>
+    <workbookView windowHeight="16840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="914">
   <si>
     <t>来源</t>
   </si>
@@ -1206,469 +1206,469 @@
     <t>搬运达人</t>
   </si>
   <si>
+    <t>PartyGirl</t>
+  </si>
+  <si>
+    <t>派对女孩</t>
+  </si>
+  <si>
+    <t>最爱蘑菇</t>
+  </si>
+  <si>
+    <t>适应瘴气环境</t>
+  </si>
+  <si>
+    <t>医疗回复</t>
+  </si>
+  <si>
+    <t>吸血鬼之吻</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>满足感</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>乔</t>
+  </si>
+  <si>
+    <t>看破</t>
+  </si>
+  <si>
+    <t>饥饿耐性</t>
+  </si>
+  <si>
+    <t>蹲下移动速度提升</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>史蒂夫</t>
+  </si>
+  <si>
+    <t>经验获取</t>
+  </si>
+  <si>
+    <t>超会心</t>
+  </si>
+  <si>
+    <t>无伤</t>
+  </si>
+  <si>
+    <t>制作达人</t>
+  </si>
+  <si>
+    <t>分解达人</t>
+  </si>
+  <si>
+    <t>TomClark</t>
+  </si>
+  <si>
+    <t>汤姆·克拉克</t>
+  </si>
+  <si>
+    <t>拾荒达人</t>
+  </si>
+  <si>
+    <t>探索者之幸运</t>
+  </si>
+  <si>
+    <t>死里逃生</t>
+  </si>
+  <si>
+    <t>破坏王</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>BusinessMan</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>炼铜</t>
+  </si>
+  <si>
+    <t>蜂蜜猎人</t>
+  </si>
+  <si>
+    <t>Burnt</t>
+  </si>
+  <si>
+    <t>被灼烧者</t>
+  </si>
+  <si>
+    <t>火场怪力</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>燃烧耐性</t>
+  </si>
+  <si>
+    <t>PlagueSpitter</t>
+  </si>
+  <si>
+    <t>瘟疫喷吐者</t>
+  </si>
+  <si>
+    <t>精灵加护</t>
+  </si>
+  <si>
+    <t>强化持续</t>
+  </si>
+  <si>
+    <t>Frostclaw</t>
+  </si>
+  <si>
+    <t>霜爪丧尸</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>跳跃性能</t>
+  </si>
+  <si>
+    <t>飞燕</t>
+  </si>
+  <si>
+    <t>异常攻击强化</t>
+  </si>
+  <si>
+    <t>佯动攻击</t>
+  </si>
+  <si>
+    <t>跳跃高度提升</t>
+  </si>
+  <si>
+    <t>Boe</t>
+  </si>
+  <si>
+    <t>布尔</t>
+  </si>
+  <si>
+    <t>机械学</t>
+  </si>
+  <si>
+    <t>属性解放</t>
+  </si>
+  <si>
+    <t>属性莲华</t>
+  </si>
+  <si>
+    <t>MaleHazmat</t>
+  </si>
+  <si>
+    <t>穿着防化服的丧尸</t>
+  </si>
+  <si>
+    <t>暴击耐性</t>
+  </si>
+  <si>
+    <t>电击耐性</t>
+  </si>
+  <si>
+    <t>电属性攻击强化</t>
+  </si>
+  <si>
+    <t>Janitor</t>
+  </si>
+  <si>
+    <t>看门人</t>
+  </si>
+  <si>
+    <t>察觉</t>
+  </si>
+  <si>
+    <t>不屈</t>
+  </si>
+  <si>
+    <t>体力提升</t>
+  </si>
+  <si>
+    <t>Inmate</t>
+  </si>
+  <si>
+    <t>犯人</t>
+  </si>
+  <si>
+    <t>跑者</t>
+  </si>
+  <si>
+    <t>贯通弹/爆破强化</t>
+  </si>
+  <si>
+    <t>驾驶名人</t>
+  </si>
+  <si>
+    <t>弹药节约</t>
+  </si>
+  <si>
+    <t>Moe</t>
+  </si>
+  <si>
+    <t>莫伊</t>
+  </si>
+  <si>
+    <t>燃血</t>
+  </si>
+  <si>
+    <t>转祸为福</t>
+  </si>
+  <si>
+    <t>治愈收割</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>实验室工作人员</t>
+  </si>
+  <si>
+    <t>精神抖擞</t>
+  </si>
+  <si>
+    <t>精准医疗</t>
+  </si>
+  <si>
+    <t>火属性攻击强化</t>
+  </si>
+  <si>
+    <t>Darlene</t>
+  </si>
+  <si>
+    <t>达琳</t>
+  </si>
+  <si>
+    <t>体术</t>
+  </si>
+  <si>
+    <t>振奋</t>
+  </si>
+  <si>
+    <t>运动达人</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>幽</t>
+  </si>
+  <si>
+    <t>玻璃大炮</t>
+  </si>
+  <si>
+    <t>弹道强化</t>
+  </si>
+  <si>
+    <t>间不容发</t>
+  </si>
+  <si>
+    <t>UtilityWorker</t>
+  </si>
+  <si>
+    <t>公用事业工人</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>Biker</t>
+  </si>
+  <si>
+    <t>摩托车手</t>
+  </si>
+  <si>
+    <t>耐力急速回复</t>
+  </si>
+  <si>
+    <t>接击弹/箭强化</t>
+  </si>
+  <si>
+    <t>Lumberjack</t>
+  </si>
+  <si>
+    <t>伐木工</t>
+  </si>
+  <si>
+    <t>击晕术</t>
+  </si>
+  <si>
+    <t>FemaleFat</t>
+  </si>
+  <si>
+    <t>大妈妈</t>
+  </si>
+  <si>
+    <t>生命提升</t>
+  </si>
+  <si>
+    <t>快速换弹</t>
+  </si>
+  <si>
+    <t>炮术</t>
+  </si>
+  <si>
+    <t>FatHawaiian</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>回复速度</t>
+  </si>
+  <si>
+    <t>通常弹/箭强化</t>
+  </si>
+  <si>
+    <t>Bowler</t>
+  </si>
+  <si>
+    <t>投球手</t>
+  </si>
+  <si>
+    <t>FatCop</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>防御缓冲</t>
+  </si>
+  <si>
+    <t>攻击守势</t>
+  </si>
+  <si>
+    <t>Skateboarder</t>
+  </si>
+  <si>
+    <t>暴徒</t>
+  </si>
+  <si>
+    <t>力量解放</t>
+  </si>
+  <si>
+    <t>装填扩充</t>
+  </si>
+  <si>
+    <t>特殊射击强化</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>战魂</t>
+  </si>
+  <si>
+    <t>炮击手</t>
+  </si>
+  <si>
+    <t>Wight</t>
+  </si>
+  <si>
+    <t>怀特</t>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>Screamer</t>
+  </si>
+  <si>
+    <t>尖叫丧尸</t>
+  </si>
+  <si>
+    <t>自动化指示</t>
+  </si>
+  <si>
+    <t>Mutated</t>
+  </si>
+  <si>
+    <t>变异丧尸</t>
+  </si>
+  <si>
+    <t>异常莲华</t>
+  </si>
+  <si>
+    <t>属性耐性</t>
+  </si>
+  <si>
+    <t>Demolition</t>
+  </si>
+  <si>
+    <t>爆破丧尸</t>
+  </si>
+  <si>
+    <t>炸弹客</t>
+  </si>
+  <si>
+    <t>SteveCrawler</t>
+  </si>
+  <si>
+    <t>爬行者</t>
+  </si>
+  <si>
+    <t>狂野恢复</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>ResearchInstituteLeader</t>
+  </si>
+  <si>
+    <t>院长</t>
+  </si>
+  <si>
+    <t>4件套</t>
+  </si>
+  <si>
+    <t>晶石系统加倍</t>
+  </si>
+  <si>
+    <t>总点数偏移</t>
+  </si>
+  <si>
+    <t>晶化12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>盛宴</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>可安装多技能晶石</t>
+  </si>
+  <si>
+    <t>狂化30</t>
+  </si>
+  <si>
     <t>酒精耐性</t>
   </si>
   <si>
-    <t>PartyGirl</t>
-  </si>
-  <si>
-    <t>派对女孩</t>
-  </si>
-  <si>
-    <t>最爱蘑菇</t>
-  </si>
-  <si>
-    <t>适应瘴气环境</t>
-  </si>
-  <si>
-    <t>医疗回复</t>
-  </si>
-  <si>
-    <t>吸血鬼之吻</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>护士</t>
-  </si>
-  <si>
-    <t>满足感</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>乔</t>
-  </si>
-  <si>
-    <t>看破</t>
-  </si>
-  <si>
-    <t>饥饿耐性</t>
-  </si>
-  <si>
-    <t>蹲下移动速度提升</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>史蒂夫</t>
-  </si>
-  <si>
-    <t>经验获取</t>
-  </si>
-  <si>
-    <t>超会心</t>
-  </si>
-  <si>
-    <t>无伤</t>
-  </si>
-  <si>
-    <t>制作达人</t>
-  </si>
-  <si>
-    <t>分解达人</t>
-  </si>
-  <si>
-    <t>TomClark</t>
-  </si>
-  <si>
-    <t>汤姆·克拉克</t>
-  </si>
-  <si>
-    <t>拾荒达人</t>
-  </si>
-  <si>
-    <t>探索者之幸运</t>
-  </si>
-  <si>
-    <t>死里逃生</t>
-  </si>
-  <si>
-    <t>破坏王</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>BusinessMan</t>
-  </si>
-  <si>
-    <t>商人</t>
-  </si>
-  <si>
-    <t>炼铜</t>
-  </si>
-  <si>
-    <t>蜂蜜猎人</t>
-  </si>
-  <si>
-    <t>Burnt</t>
-  </si>
-  <si>
-    <t>被灼烧者</t>
-  </si>
-  <si>
-    <t>火场怪力</t>
-  </si>
-  <si>
-    <t>怨恨</t>
-  </si>
-  <si>
-    <t>燃烧耐性</t>
-  </si>
-  <si>
-    <t>PlagueSpitter</t>
-  </si>
-  <si>
-    <t>瘟疫喷吐者</t>
-  </si>
-  <si>
-    <t>精灵加护</t>
-  </si>
-  <si>
-    <t>强化持续</t>
-  </si>
-  <si>
-    <t>Frostclaw</t>
-  </si>
-  <si>
-    <t>霜爪丧尸</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-  </si>
-  <si>
-    <t>跳跃性能</t>
-  </si>
-  <si>
-    <t>飞燕</t>
-  </si>
-  <si>
-    <t>异常攻击强化</t>
-  </si>
-  <si>
-    <t>佯动攻击</t>
-  </si>
-  <si>
-    <t>跳跃高度提升</t>
-  </si>
-  <si>
-    <t>Boe</t>
-  </si>
-  <si>
-    <t>布尔</t>
-  </si>
-  <si>
-    <t>机械学</t>
-  </si>
-  <si>
-    <t>属性解放</t>
-  </si>
-  <si>
-    <t>属性莲华</t>
-  </si>
-  <si>
-    <t>MaleHazmat</t>
-  </si>
-  <si>
-    <t>穿着防化服的丧尸</t>
-  </si>
-  <si>
-    <t>暴击耐性</t>
-  </si>
-  <si>
-    <t>电击耐性</t>
-  </si>
-  <si>
-    <t>电属性攻击强化</t>
-  </si>
-  <si>
-    <t>Janitor</t>
-  </si>
-  <si>
-    <t>看门人</t>
-  </si>
-  <si>
-    <t>察觉</t>
-  </si>
-  <si>
-    <t>不屈</t>
-  </si>
-  <si>
-    <t>体力提升</t>
-  </si>
-  <si>
-    <t>Inmate</t>
-  </si>
-  <si>
-    <t>犯人</t>
-  </si>
-  <si>
-    <t>跑者</t>
-  </si>
-  <si>
-    <t>贯通弹/爆破强化</t>
-  </si>
-  <si>
-    <t>驾驶名人</t>
-  </si>
-  <si>
-    <t>弹药节约</t>
-  </si>
-  <si>
-    <t>Moe</t>
-  </si>
-  <si>
-    <t>莫伊</t>
-  </si>
-  <si>
-    <t>燃血</t>
-  </si>
-  <si>
-    <t>转祸为福</t>
-  </si>
-  <si>
-    <t>治愈收割</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>实验室工作人员</t>
-  </si>
-  <si>
-    <t>精神抖擞</t>
-  </si>
-  <si>
-    <t>精准医疗</t>
-  </si>
-  <si>
-    <t>火属性攻击强化</t>
-  </si>
-  <si>
-    <t>Darlene</t>
-  </si>
-  <si>
-    <t>达琳</t>
-  </si>
-  <si>
-    <t>体术</t>
-  </si>
-  <si>
-    <t>振奋</t>
-  </si>
-  <si>
-    <t>运动达人</t>
-  </si>
-  <si>
-    <t>Yo</t>
-  </si>
-  <si>
-    <t>幽</t>
-  </si>
-  <si>
-    <t>玻璃大炮</t>
-  </si>
-  <si>
-    <t>弹道强化</t>
-  </si>
-  <si>
-    <t>间不容发</t>
-  </si>
-  <si>
-    <t>UtilityWorker</t>
-  </si>
-  <si>
-    <t>公用事业工人</t>
-  </si>
-  <si>
-    <t>集中</t>
-  </si>
-  <si>
-    <t>Biker</t>
-  </si>
-  <si>
-    <t>摩托车手</t>
-  </si>
-  <si>
-    <t>耐力急速回复</t>
-  </si>
-  <si>
-    <t>接击弹/箭强化</t>
-  </si>
-  <si>
-    <t>Lumberjack</t>
-  </si>
-  <si>
-    <t>伐木工</t>
-  </si>
-  <si>
-    <t>击晕术</t>
-  </si>
-  <si>
-    <t>FemaleFat</t>
-  </si>
-  <si>
-    <t>大妈妈</t>
-  </si>
-  <si>
-    <t>生命提升</t>
-  </si>
-  <si>
-    <t>快速换弹</t>
-  </si>
-  <si>
-    <t>炮术</t>
-  </si>
-  <si>
-    <t>FatHawaiian</t>
-  </si>
-  <si>
-    <t>游客</t>
-  </si>
-  <si>
-    <t>回复速度</t>
-  </si>
-  <si>
-    <t>通常弹/箭强化</t>
-  </si>
-  <si>
-    <t>Bowler</t>
-  </si>
-  <si>
-    <t>投球手</t>
-  </si>
-  <si>
-    <t>FatCop</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>防御缓冲</t>
-  </si>
-  <si>
-    <t>攻击守势</t>
-  </si>
-  <si>
-    <t>Skateboarder</t>
-  </si>
-  <si>
-    <t>暴徒</t>
-  </si>
-  <si>
-    <t>力量解放</t>
-  </si>
-  <si>
-    <t>装填扩充</t>
-  </si>
-  <si>
-    <t>特殊射击强化</t>
-  </si>
-  <si>
-    <t>Soldier</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>战魂</t>
-  </si>
-  <si>
-    <t>炮击手</t>
-  </si>
-  <si>
-    <t>Wight</t>
-  </si>
-  <si>
-    <t>怀特</t>
-  </si>
-  <si>
-    <t>挑战</t>
-  </si>
-  <si>
-    <t>Screamer</t>
-  </si>
-  <si>
-    <t>尖叫丧尸</t>
-  </si>
-  <si>
-    <t>自动化指示</t>
-  </si>
-  <si>
-    <t>Mutated</t>
-  </si>
-  <si>
-    <t>变异丧尸</t>
-  </si>
-  <si>
-    <t>异常莲华</t>
-  </si>
-  <si>
-    <t>属性耐性</t>
-  </si>
-  <si>
-    <t>Demolition</t>
-  </si>
-  <si>
-    <t>爆破丧尸</t>
-  </si>
-  <si>
-    <t>炸弹客</t>
-  </si>
-  <si>
-    <t>SteveCrawler</t>
-  </si>
-  <si>
-    <t>爬行者</t>
-  </si>
-  <si>
-    <t>狂野恢复</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>ResearchInstituteLeader</t>
-  </si>
-  <si>
-    <t>院长</t>
-  </si>
-  <si>
-    <t>4件套</t>
-  </si>
-  <si>
-    <t>晶石系统加倍</t>
-  </si>
-  <si>
-    <t>总点数偏移</t>
-  </si>
-  <si>
-    <t>晶化12</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>盛宴</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>可安装多技能晶石</t>
-  </si>
-  <si>
-    <t>狂化30</t>
-  </si>
-  <si>
-    <t>2件套</t>
+    <t>3件套</t>
   </si>
   <si>
     <t>【极意】潜伏</t>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="29" spans="10:13">
       <c r="K29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="10:13">
@@ -5570,7 +5570,7 @@
     </row>
     <row r="38" ht="43" customHeight="1" spans="4:14">
       <c r="K38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L38" t="s">
         <v>906</v>
@@ -8127,8 +8127,8 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -9001,8 +9001,8 @@
   <sheetPr/>
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -9894,11 +9894,11 @@
       <c r="S21" s="101">
         <v>3</v>
       </c>
-      <c r="T21" s="118" t="s">
-        <v>389</v>
-      </c>
-      <c r="U21" s="101">
-        <v>1</v>
+      <c r="T21" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="U21" s="101" t="s">
+        <v>380</v>
       </c>
       <c r="V21" s="116" t="s">
         <v>362</v>
@@ -9914,16 +9914,16 @@
         <v>151</v>
       </c>
       <c r="B22" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="117" t="s">
         <v>390</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>391</v>
       </c>
       <c r="D22" s="113">
         <v>3</v>
       </c>
       <c r="E22" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F22" s="120">
         <v>1</v>
@@ -9938,7 +9938,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K22" s="120">
         <v>1</v>
@@ -9953,7 +9953,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P22" s="120">
         <v>1</v>
@@ -9968,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="T22" s="119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U22" s="120">
         <v>1</v>
@@ -9987,16 +9987,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="100" t="s">
         <v>396</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>397</v>
       </c>
       <c r="D23" s="101">
         <v>3</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F23" s="101">
         <v>1</v>
@@ -10017,7 +10017,7 @@
         <v>382</v>
       </c>
       <c r="L23" s="118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M23" s="101">
         <v>1</v>
@@ -10060,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="117" t="s">
         <v>399</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>400</v>
       </c>
       <c r="D24" s="113">
         <v>3</v>
@@ -10084,13 +10084,13 @@
         <v>2</v>
       </c>
       <c r="J24" s="119" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="120">
+        <v>1</v>
+      </c>
+      <c r="L24" s="119" t="s">
         <v>401</v>
-      </c>
-      <c r="K24" s="120">
-        <v>1</v>
-      </c>
-      <c r="L24" s="119" t="s">
-        <v>402</v>
       </c>
       <c r="M24" s="120">
         <v>1</v>
@@ -10114,7 +10114,7 @@
         <v>3</v>
       </c>
       <c r="T24" s="119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U24" s="120">
         <v>1</v>
@@ -10133,16 +10133,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="100" t="s">
         <v>404</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>405</v>
       </c>
       <c r="D25" s="101">
         <v>3</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F25" s="101">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M25" s="101">
         <v>1</v>
@@ -10172,13 +10172,13 @@
         <v>2</v>
       </c>
       <c r="O25" s="118" t="s">
+        <v>407</v>
+      </c>
+      <c r="P25" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="116" t="s">
         <v>408</v>
-      </c>
-      <c r="P25" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="116" t="s">
-        <v>409</v>
       </c>
       <c r="R25" s="41" t="s">
         <v>382</v>
@@ -10187,13 +10187,13 @@
         <v>2</v>
       </c>
       <c r="T25" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U25" s="101">
         <v>1</v>
       </c>
       <c r="V25" s="118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W25" s="101">
         <v>1</v>
@@ -10206,16 +10206,16 @@
         <v>151</v>
       </c>
       <c r="B26" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="117" t="s">
         <v>411</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>412</v>
       </c>
       <c r="D26" s="113">
         <v>3</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F26" s="120">
         <v>1</v>
@@ -10230,13 +10230,13 @@
         <v>2</v>
       </c>
       <c r="J26" s="119" t="s">
+        <v>413</v>
+      </c>
+      <c r="K26" s="120">
+        <v>1</v>
+      </c>
+      <c r="L26" s="119" t="s">
         <v>414</v>
-      </c>
-      <c r="K26" s="120">
-        <v>1</v>
-      </c>
-      <c r="L26" s="119" t="s">
-        <v>415</v>
       </c>
       <c r="M26" s="120">
         <v>1</v>
@@ -10245,13 +10245,13 @@
         <v>2</v>
       </c>
       <c r="O26" s="119" t="s">
+        <v>415</v>
+      </c>
+      <c r="P26" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="119" t="s">
         <v>416</v>
-      </c>
-      <c r="P26" s="120">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="119" t="s">
-        <v>417</v>
       </c>
       <c r="R26" s="120">
         <v>1</v>
@@ -10260,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="T26" s="119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U26" s="120">
         <v>1</v>
@@ -10279,16 +10279,16 @@
         <v>151</v>
       </c>
       <c r="B27" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="100" t="s">
         <v>418</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>419</v>
       </c>
       <c r="D27" s="101">
         <v>3</v>
       </c>
       <c r="E27" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F27" s="101">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K27" s="101" t="s">
         <v>380</v>
@@ -10318,13 +10318,13 @@
         <v>2</v>
       </c>
       <c r="O27" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P27" s="101">
         <v>1</v>
       </c>
       <c r="Q27" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R27" s="101">
         <v>1</v>
@@ -10333,7 +10333,7 @@
         <v>2</v>
       </c>
       <c r="T27" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U27" s="101" t="s">
         <v>380</v>
@@ -10352,16 +10352,16 @@
         <v>151</v>
       </c>
       <c r="B28" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C28" s="117" t="s">
         <v>422</v>
-      </c>
-      <c r="C28" s="117" t="s">
-        <v>423</v>
       </c>
       <c r="D28" s="113">
         <v>3</v>
       </c>
       <c r="E28" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F28" s="120">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K28" s="120" t="s">
         <v>382</v>
@@ -10391,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P28" s="120" t="s">
         <v>380</v>
@@ -10406,7 +10406,7 @@
         <v>2</v>
       </c>
       <c r="T28" s="119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U28" s="120">
         <v>1</v>
@@ -10425,16 +10425,16 @@
         <v>151</v>
       </c>
       <c r="B29" s="121" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="121" t="s">
         <v>427</v>
-      </c>
-      <c r="C29" s="121" t="s">
-        <v>428</v>
       </c>
       <c r="D29" s="122">
         <v>3</v>
       </c>
       <c r="E29" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F29" s="122" t="s">
         <v>382</v>
@@ -10449,13 +10449,13 @@
         <v>2</v>
       </c>
       <c r="J29" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K29" s="122" t="s">
         <v>382</v>
       </c>
       <c r="L29" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M29" s="122" t="s">
         <v>382</v>
@@ -10464,7 +10464,7 @@
         <v>3</v>
       </c>
       <c r="O29" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P29" s="122" t="s">
         <v>382</v>
@@ -10479,7 +10479,7 @@
         <v>2</v>
       </c>
       <c r="T29" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U29" s="122" t="s">
         <v>382</v>
@@ -10498,10 +10498,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" s="117" t="s">
         <v>431</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>432</v>
       </c>
       <c r="D30" s="113">
         <v>4</v>
@@ -10571,16 +10571,16 @@
         <v>151</v>
       </c>
       <c r="B31" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="100" t="s">
         <v>433</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>434</v>
       </c>
       <c r="D31" s="101">
         <v>3</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F31" s="101">
         <v>1</v>
@@ -10595,13 +10595,13 @@
         <v>1</v>
       </c>
       <c r="J31" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K31" s="101" t="s">
         <v>382</v>
       </c>
       <c r="L31" s="118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M31" s="101">
         <v>1</v>
@@ -10610,13 +10610,13 @@
         <v>2</v>
       </c>
       <c r="O31" s="118" t="s">
+        <v>436</v>
+      </c>
+      <c r="P31" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="118" t="s">
         <v>437</v>
-      </c>
-      <c r="P31" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="118" t="s">
-        <v>438</v>
       </c>
       <c r="R31" s="101">
         <v>1</v>
@@ -10625,7 +10625,7 @@
         <v>3</v>
       </c>
       <c r="T31" s="118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U31" s="101">
         <v>1</v>
@@ -10644,16 +10644,16 @@
         <v>151</v>
       </c>
       <c r="B32" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="117" t="s">
         <v>440</v>
-      </c>
-      <c r="C32" s="117" t="s">
-        <v>441</v>
       </c>
       <c r="D32" s="113">
         <v>3</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F32" s="120">
         <v>2</v>
@@ -10668,13 +10668,13 @@
         <v>2</v>
       </c>
       <c r="J32" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K32" s="120">
         <v>1</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M32" s="120">
         <v>1</v>
@@ -10683,13 +10683,13 @@
         <v>2</v>
       </c>
       <c r="O32" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P32" s="120">
         <v>1</v>
       </c>
       <c r="Q32" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R32" s="120">
         <v>1</v>
@@ -10698,7 +10698,7 @@
         <v>2</v>
       </c>
       <c r="T32" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U32" s="120" t="s">
         <v>380</v>
@@ -10717,16 +10717,16 @@
         <v>151</v>
       </c>
       <c r="B33" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="100" t="s">
         <v>445</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>446</v>
       </c>
       <c r="D33" s="101">
         <v>3</v>
       </c>
       <c r="E33" s="118" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F33" s="101">
         <v>1</v>
@@ -10747,16 +10747,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="118" t="s">
+        <v>447</v>
+      </c>
+      <c r="M33" s="101">
+        <v>1</v>
+      </c>
+      <c r="N33" s="101">
+        <v>1</v>
+      </c>
+      <c r="O33" s="118" t="s">
         <v>448</v>
-      </c>
-      <c r="M33" s="101">
-        <v>1</v>
-      </c>
-      <c r="N33" s="101">
-        <v>1</v>
-      </c>
-      <c r="O33" s="118" t="s">
-        <v>449</v>
       </c>
       <c r="P33" s="101" t="s">
         <v>380</v>
@@ -10790,10 +10790,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="117" t="s">
         <v>450</v>
-      </c>
-      <c r="C34" s="117" t="s">
-        <v>451</v>
       </c>
       <c r="D34" s="113">
         <v>3</v>
@@ -10829,13 +10829,13 @@
         <v>2</v>
       </c>
       <c r="O34" s="119" t="s">
+        <v>451</v>
+      </c>
+      <c r="P34" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="119" t="s">
         <v>452</v>
-      </c>
-      <c r="P34" s="120">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="119" t="s">
-        <v>453</v>
       </c>
       <c r="R34" s="120">
         <v>1</v>
@@ -10844,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="T34" s="119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U34" s="120">
         <v>1</v>
@@ -10863,31 +10863,31 @@
         <v>0</v>
       </c>
       <c r="B35" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>455</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>456</v>
       </c>
       <c r="D35" s="101">
         <v>3</v>
       </c>
       <c r="E35" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" s="101">
+        <v>1</v>
+      </c>
+      <c r="G35" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="I35" s="101">
+        <v>1</v>
+      </c>
+      <c r="J35" s="118" t="s">
         <v>457</v>
-      </c>
-      <c r="F35" s="101">
-        <v>1</v>
-      </c>
-      <c r="G35" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="I35" s="101">
-        <v>1</v>
-      </c>
-      <c r="J35" s="118" t="s">
-        <v>458</v>
       </c>
       <c r="K35" s="101" t="s">
         <v>380</v>
@@ -10902,22 +10902,22 @@
         <v>2</v>
       </c>
       <c r="O35" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P35" s="101">
         <v>1</v>
       </c>
       <c r="Q35" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="R35" s="101">
+        <v>1</v>
+      </c>
+      <c r="S35" s="101">
+        <v>1</v>
+      </c>
+      <c r="T35" s="118" t="s">
         <v>459</v>
-      </c>
-      <c r="R35" s="101">
-        <v>1</v>
-      </c>
-      <c r="S35" s="101">
-        <v>1</v>
-      </c>
-      <c r="T35" s="118" t="s">
-        <v>460</v>
       </c>
       <c r="U35" s="101" t="s">
         <v>380</v>
@@ -10936,52 +10936,52 @@
         <v>382</v>
       </c>
       <c r="B36" s="117" t="s">
+        <v>460</v>
+      </c>
+      <c r="C36" s="117" t="s">
         <v>461</v>
-      </c>
-      <c r="C36" s="117" t="s">
-        <v>462</v>
       </c>
       <c r="D36" s="113">
         <v>3</v>
       </c>
       <c r="E36" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="F36" s="120">
+        <v>1</v>
+      </c>
+      <c r="G36" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="H36" s="120" t="s">
+        <v>363</v>
+      </c>
+      <c r="I36" s="113">
+        <v>1</v>
+      </c>
+      <c r="J36" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" s="120">
+        <v>1</v>
+      </c>
+      <c r="L36" s="120" t="s">
         <v>463</v>
       </c>
-      <c r="F36" s="120">
-        <v>1</v>
-      </c>
-      <c r="G36" s="119" t="s">
-        <v>362</v>
-      </c>
-      <c r="H36" s="120" t="s">
-        <v>363</v>
-      </c>
-      <c r="I36" s="113">
-        <v>1</v>
-      </c>
-      <c r="J36" s="119" t="s">
-        <v>463</v>
-      </c>
-      <c r="K36" s="120">
-        <v>1</v>
-      </c>
-      <c r="L36" s="120" t="s">
+      <c r="M36" s="120">
+        <v>1</v>
+      </c>
+      <c r="N36" s="113">
+        <v>1</v>
+      </c>
+      <c r="O36" s="119" t="s">
         <v>464</v>
       </c>
-      <c r="M36" s="120">
-        <v>1</v>
-      </c>
-      <c r="N36" s="113">
-        <v>1</v>
-      </c>
-      <c r="O36" s="119" t="s">
-        <v>465</v>
-      </c>
       <c r="P36" s="120">
         <v>1</v>
       </c>
       <c r="Q36" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R36" s="120">
         <v>1</v>
@@ -10990,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U36" s="120" t="s">
         <v>380</v>
@@ -11009,16 +11009,16 @@
         <v>382</v>
       </c>
       <c r="B37" s="100" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="100" t="s">
         <v>466</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>467</v>
       </c>
       <c r="D37" s="101">
         <v>3</v>
       </c>
       <c r="E37" s="118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F37" s="101">
         <v>1</v>
@@ -11033,13 +11033,13 @@
         <v>2</v>
       </c>
       <c r="J37" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K37" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L37" s="118" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M37" s="101">
         <v>1</v>
@@ -11048,13 +11048,13 @@
         <v>2</v>
       </c>
       <c r="O37" s="118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P37" s="101">
         <v>1</v>
       </c>
       <c r="Q37" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R37" s="101" t="s">
         <v>382</v>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="T37" s="118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U37" s="101" t="s">
         <v>380</v>
@@ -11082,16 +11082,16 @@
         <v>151</v>
       </c>
       <c r="B38" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="117" t="s">
         <v>471</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>472</v>
       </c>
       <c r="D38" s="113">
         <v>3</v>
       </c>
       <c r="E38" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F38" s="120">
         <v>1</v>
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K38" s="120" t="s">
         <v>380</v>
@@ -11121,13 +11121,13 @@
         <v>2</v>
       </c>
       <c r="O38" s="119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P38" s="120">
         <v>1</v>
       </c>
       <c r="Q38" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R38" s="120">
         <v>1</v>
@@ -11136,13 +11136,13 @@
         <v>2</v>
       </c>
       <c r="T38" s="120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U38" s="120" t="s">
         <v>382</v>
       </c>
       <c r="V38" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W38" s="120">
         <v>1</v>
@@ -11155,16 +11155,16 @@
         <v>382</v>
       </c>
       <c r="B39" s="100" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" s="100" t="s">
         <v>476</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>477</v>
       </c>
       <c r="D39" s="101">
         <v>3</v>
       </c>
       <c r="E39" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F39" s="101">
         <v>1</v>
@@ -11179,7 +11179,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K39" s="101">
         <v>1</v>
@@ -11194,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P39" s="101">
         <v>1</v>
@@ -11209,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="T39" s="116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U39" s="41" t="s">
         <v>382</v>
@@ -11228,16 +11228,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" s="117" t="s">
         <v>481</v>
-      </c>
-      <c r="C40" s="117" t="s">
-        <v>482</v>
       </c>
       <c r="D40" s="113">
         <v>3</v>
       </c>
       <c r="E40" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F40" s="120">
         <v>1</v>
@@ -11267,13 +11267,13 @@
         <v>2</v>
       </c>
       <c r="O40" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P40" s="120">
         <v>1</v>
       </c>
       <c r="Q40" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R40" s="120">
         <v>1</v>
@@ -11288,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="V40" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W40" s="120">
         <v>1</v>
@@ -11301,10 +11301,10 @@
         <v>382</v>
       </c>
       <c r="B41" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="100" t="s">
         <v>484</v>
-      </c>
-      <c r="C41" s="100" t="s">
-        <v>485</v>
       </c>
       <c r="D41" s="101">
         <v>3</v>
@@ -11325,13 +11325,13 @@
         <v>2</v>
       </c>
       <c r="J41" s="118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K41" s="101">
         <v>1</v>
       </c>
       <c r="L41" s="118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M41" s="101">
         <v>1</v>
@@ -11355,13 +11355,13 @@
         <v>1</v>
       </c>
       <c r="T41" s="118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U41" s="101" t="s">
         <v>382</v>
       </c>
       <c r="V41" s="118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W41" s="101">
         <v>1</v>
@@ -11374,16 +11374,16 @@
         <v>382</v>
       </c>
       <c r="B42" s="117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="117" t="s">
         <v>488</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>489</v>
       </c>
       <c r="D42" s="113">
         <v>3</v>
       </c>
       <c r="E42" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F42" s="120">
         <v>1</v>
@@ -11398,13 +11398,13 @@
         <v>1</v>
       </c>
       <c r="J42" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K42" s="120">
         <v>1</v>
       </c>
       <c r="L42" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M42" s="120">
         <v>1</v>
@@ -11428,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U42" s="120">
         <v>2</v>
@@ -11447,16 +11447,16 @@
         <v>151</v>
       </c>
       <c r="B43" s="100" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="100" t="s">
         <v>491</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>492</v>
       </c>
       <c r="D43" s="101">
         <v>3</v>
       </c>
       <c r="E43" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F43" s="101">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K43" s="101" t="s">
         <v>380</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="118" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P43" s="101" t="s">
         <v>380</v>
@@ -11501,7 +11501,7 @@
         <v>3</v>
       </c>
       <c r="T43" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U43" s="101">
         <v>1</v>
@@ -11520,16 +11520,16 @@
         <v>151</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="C44" s="117" t="s">
         <v>496</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>497</v>
       </c>
       <c r="D44" s="113">
         <v>3</v>
       </c>
       <c r="E44" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F44" s="120">
         <v>1</v>
@@ -11544,13 +11544,13 @@
         <v>2</v>
       </c>
       <c r="J44" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K44" s="120">
         <v>1</v>
       </c>
       <c r="L44" s="119" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M44" s="120" t="s">
         <v>382</v>
@@ -11559,7 +11559,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="119" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P44" s="120" t="s">
         <v>380</v>
@@ -11574,7 +11574,7 @@
         <v>2</v>
       </c>
       <c r="T44" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U44" s="120">
         <v>2</v>
@@ -11593,10 +11593,10 @@
         <v>382</v>
       </c>
       <c r="B45" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="100" t="s">
         <v>500</v>
-      </c>
-      <c r="C45" s="100" t="s">
-        <v>501</v>
       </c>
       <c r="D45" s="101">
         <v>3</v>
@@ -11617,7 +11617,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K45" s="101">
         <v>1</v>
@@ -11638,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R45" s="101">
         <v>1</v>
@@ -11653,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="V45" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W45" s="101">
         <v>1</v>
@@ -11666,16 +11666,16 @@
         <v>382</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>501</v>
+      </c>
+      <c r="C46" s="117" t="s">
         <v>502</v>
-      </c>
-      <c r="C46" s="117" t="s">
-        <v>503</v>
       </c>
       <c r="D46" s="113">
         <v>3</v>
       </c>
       <c r="E46" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F46" s="120">
         <v>1</v>
@@ -11690,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K46" s="120">
         <v>1</v>
@@ -11705,13 +11705,13 @@
         <v>1</v>
       </c>
       <c r="O46" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P46" s="120">
         <v>1</v>
       </c>
       <c r="Q46" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R46" s="120">
         <v>1</v>
@@ -11720,13 +11720,13 @@
         <v>2</v>
       </c>
       <c r="T46" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U46" s="120">
         <v>1</v>
       </c>
       <c r="V46" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W46" s="120">
         <v>1</v>
@@ -11739,16 +11739,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="100" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="100" t="s">
         <v>506</v>
-      </c>
-      <c r="C47" s="100" t="s">
-        <v>507</v>
       </c>
       <c r="D47" s="101">
         <v>3</v>
       </c>
       <c r="E47" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F47" s="101">
         <v>1</v>
@@ -11763,7 +11763,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K47" s="101">
         <v>1</v>
@@ -11778,7 +11778,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="118" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P47" s="101">
         <v>1</v>
@@ -11793,7 +11793,7 @@
         <v>2</v>
       </c>
       <c r="T47" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U47" s="101">
         <v>1</v>
@@ -11812,31 +11812,31 @@
         <v>382</v>
       </c>
       <c r="B48" s="117" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="117" t="s">
         <v>511</v>
-      </c>
-      <c r="C48" s="117" t="s">
-        <v>512</v>
       </c>
       <c r="D48" s="113">
         <v>3</v>
       </c>
       <c r="E48" s="119" t="s">
+        <v>512</v>
+      </c>
+      <c r="F48" s="120">
+        <v>1</v>
+      </c>
+      <c r="G48" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" s="120" t="s">
+        <v>363</v>
+      </c>
+      <c r="I48" s="113">
+        <v>1</v>
+      </c>
+      <c r="J48" s="119" t="s">
         <v>513</v>
-      </c>
-      <c r="F48" s="120">
-        <v>1</v>
-      </c>
-      <c r="G48" s="119" t="s">
-        <v>362</v>
-      </c>
-      <c r="H48" s="120" t="s">
-        <v>363</v>
-      </c>
-      <c r="I48" s="113">
-        <v>1</v>
-      </c>
-      <c r="J48" s="119" t="s">
-        <v>514</v>
       </c>
       <c r="K48" s="120" t="s">
         <v>380</v>
@@ -11866,13 +11866,13 @@
         <v>1</v>
       </c>
       <c r="T48" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U48" s="120">
         <v>1</v>
       </c>
       <c r="V48" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W48" s="120" t="s">
         <v>382</v>
@@ -11885,16 +11885,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" s="100" t="s">
         <v>515</v>
-      </c>
-      <c r="C49" s="100" t="s">
-        <v>516</v>
       </c>
       <c r="D49" s="101">
         <v>3</v>
       </c>
       <c r="E49" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F49" s="101">
         <v>1</v>
@@ -11909,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K49" s="101" t="s">
         <v>380</v>
@@ -11924,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P49" s="101" t="s">
         <v>380</v>
@@ -11939,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="T49" s="118" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U49" s="101">
         <v>1</v>
@@ -11958,16 +11958,16 @@
         <v>382</v>
       </c>
       <c r="B50" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="C50" s="117" t="s">
         <v>518</v>
-      </c>
-      <c r="C50" s="117" t="s">
-        <v>519</v>
       </c>
       <c r="D50" s="113">
         <v>3</v>
       </c>
       <c r="E50" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F50" s="120">
         <v>1</v>
@@ -11982,13 +11982,13 @@
         <v>2</v>
       </c>
       <c r="J50" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K50" s="120">
         <v>1</v>
       </c>
       <c r="L50" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M50" s="120" t="s">
         <v>382</v>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="V50" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W50" s="120">
         <v>1</v>
@@ -12031,16 +12031,16 @@
         <v>382</v>
       </c>
       <c r="B51" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="C51" s="100" t="s">
         <v>521</v>
-      </c>
-      <c r="C51" s="100" t="s">
-        <v>522</v>
       </c>
       <c r="D51" s="101">
         <v>3</v>
       </c>
       <c r="E51" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F51" s="101">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K51" s="101">
         <v>1</v>
@@ -12070,7 +12070,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P51" s="101" t="s">
         <v>380</v>
@@ -12085,7 +12085,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U51" s="101">
         <v>1</v>
@@ -12104,16 +12104,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="117" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52" s="117" t="s">
         <v>525</v>
-      </c>
-      <c r="C52" s="117" t="s">
-        <v>526</v>
       </c>
       <c r="D52" s="113">
         <v>3</v>
       </c>
       <c r="E52" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F52" s="120">
         <v>1</v>
@@ -12128,7 +12128,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K52" s="120" t="s">
         <v>380</v>
@@ -12143,13 +12143,13 @@
         <v>1</v>
       </c>
       <c r="O52" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P52" s="120">
         <v>1</v>
       </c>
       <c r="Q52" s="119" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R52" s="120">
         <v>1</v>
@@ -12177,16 +12177,16 @@
         <v>382</v>
       </c>
       <c r="B53" s="100" t="s">
+        <v>527</v>
+      </c>
+      <c r="C53" s="100" t="s">
         <v>528</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>529</v>
       </c>
       <c r="D53" s="101">
         <v>3</v>
       </c>
       <c r="E53" s="118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F53" s="101">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K53" s="101" t="s">
         <v>380</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P53" s="101" t="s">
         <v>179</v>
@@ -12231,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="T53" s="118" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U53" s="101" t="s">
         <v>380</v>
@@ -12270,13 +12270,13 @@
     </row>
     <row r="55" s="16" customFormat="1" spans="1:25">
       <c r="A55" s="101" t="s">
+        <v>530</v>
+      </c>
+      <c r="B55" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="C55" s="100" t="s">
         <v>532</v>
-      </c>
-      <c r="C55" s="100" t="s">
-        <v>533</v>
       </c>
       <c r="D55" s="101" t="s">
         <v>179</v>
@@ -12339,10 +12339,10 @@
         <v>363</v>
       </c>
       <c r="X55" s="115" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y55" s="101" t="s">
         <v>534</v>
-      </c>
-      <c r="Y55" s="101" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="56" s="16" customFormat="1" spans="1:25">
@@ -12424,10 +12424,10 @@
     </row>
     <row r="59" s="16" customFormat="1" spans="1:25">
       <c r="A59" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="B59" s="124" t="s">
         <v>536</v>
-      </c>
-      <c r="B59" s="124" t="s">
-        <v>537</v>
       </c>
       <c r="C59" s="124" t="s">
         <v>350</v>
@@ -12630,7 +12630,7 @@
         <v>380</v>
       </c>
       <c r="L62" s="118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M62" s="41">
         <v>1</v>
@@ -12653,17 +12653,17 @@
       <c r="S62" s="101">
         <v>7</v>
       </c>
-      <c r="T62" s="41" t="s">
-        <v>389</v>
+      <c r="T62" s="116" t="s">
+        <v>387</v>
       </c>
       <c r="U62" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="V62" s="118" t="s">
-        <v>362</v>
+        <v>382</v>
+      </c>
+      <c r="V62" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="W62" s="101" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="X62" s="100"/>
       <c r="Y62" s="101"/>
@@ -12673,16 +12673,16 @@
         <v>0</v>
       </c>
       <c r="B63" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="117" t="s">
         <v>390</v>
-      </c>
-      <c r="C63" s="117" t="s">
-        <v>391</v>
       </c>
       <c r="D63" s="125">
         <v>6</v>
       </c>
       <c r="E63" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" s="120" t="s">
         <v>380</v>
@@ -12697,13 +12697,13 @@
         <v>7</v>
       </c>
       <c r="J63" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K63" s="120">
         <v>1</v>
       </c>
       <c r="L63" s="119" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M63" s="120" t="s">
         <v>382</v>
@@ -12712,13 +12712,13 @@
         <v>6</v>
       </c>
       <c r="O63" s="119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P63" s="120">
         <v>2</v>
       </c>
       <c r="Q63" s="119" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="R63" s="120" t="s">
         <v>382</v>
@@ -12727,13 +12727,13 @@
         <v>6</v>
       </c>
       <c r="T63" s="119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U63" s="120" t="s">
         <v>382</v>
       </c>
       <c r="V63" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W63" s="120">
         <v>1</v>
@@ -12746,16 +12746,16 @@
         <v>0</v>
       </c>
       <c r="B64" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="100" t="s">
         <v>396</v>
-      </c>
-      <c r="C64" s="100" t="s">
-        <v>397</v>
       </c>
       <c r="D64" s="101">
         <v>7</v>
       </c>
       <c r="E64" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F64" s="101">
         <v>2</v>
@@ -12776,7 +12776,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M64" s="101" t="s">
         <v>380</v>
@@ -12800,7 +12800,7 @@
         <v>7</v>
       </c>
       <c r="T64" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U64" s="101" t="s">
         <v>382</v>
@@ -12819,10 +12819,10 @@
         <v>151</v>
       </c>
       <c r="B65" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="117" t="s">
         <v>399</v>
-      </c>
-      <c r="C65" s="117" t="s">
-        <v>400</v>
       </c>
       <c r="D65" s="125">
         <v>7</v>
@@ -12843,13 +12843,13 @@
         <v>6</v>
       </c>
       <c r="J65" s="119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K65" s="120" t="s">
         <v>382</v>
       </c>
       <c r="L65" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M65" s="120">
         <v>1</v>
@@ -12873,13 +12873,13 @@
         <v>5</v>
       </c>
       <c r="T65" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U65" s="120" t="s">
         <v>380</v>
       </c>
       <c r="V65" s="119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W65" s="120">
         <v>1</v>
@@ -12891,16 +12891,16 @@
         <v>0</v>
       </c>
       <c r="B66" s="100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" s="100" t="s">
         <v>404</v>
-      </c>
-      <c r="C66" s="100" t="s">
-        <v>405</v>
       </c>
       <c r="D66" s="101">
         <v>7</v>
       </c>
       <c r="E66" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F66" s="101" t="s">
         <v>380</v>
@@ -12921,7 +12921,7 @@
         <v>382</v>
       </c>
       <c r="L66" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M66" s="101">
         <v>1</v>
@@ -12930,7 +12930,7 @@
         <v>6</v>
       </c>
       <c r="O66" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P66" s="101">
         <v>2</v>
@@ -12945,7 +12945,7 @@
         <v>7</v>
       </c>
       <c r="T66" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U66" s="101" t="s">
         <v>380</v>
@@ -12964,16 +12964,16 @@
         <v>151</v>
       </c>
       <c r="B67" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="117" t="s">
         <v>411</v>
-      </c>
-      <c r="C67" s="117" t="s">
-        <v>412</v>
       </c>
       <c r="D67" s="125">
         <v>7</v>
       </c>
       <c r="E67" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F67" s="120" t="s">
         <v>380</v>
@@ -12988,13 +12988,13 @@
         <v>6</v>
       </c>
       <c r="J67" s="119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K67" s="120" t="s">
         <v>380</v>
       </c>
       <c r="L67" s="119" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M67" s="120">
         <v>1</v>
@@ -13003,13 +13003,13 @@
         <v>6</v>
       </c>
       <c r="O67" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P67" s="120">
         <v>2</v>
       </c>
       <c r="Q67" s="119" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R67" s="120">
         <v>1</v>
@@ -13018,7 +13018,7 @@
         <v>6</v>
       </c>
       <c r="T67" s="119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U67" s="120" t="s">
         <v>179</v>
@@ -13037,16 +13037,16 @@
         <v>151</v>
       </c>
       <c r="B68" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="C68" s="100" t="s">
         <v>418</v>
-      </c>
-      <c r="C68" s="100" t="s">
-        <v>419</v>
       </c>
       <c r="D68" s="101">
         <v>7</v>
       </c>
       <c r="E68" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F68" s="101" t="s">
         <v>380</v>
@@ -13061,13 +13061,13 @@
         <v>6</v>
       </c>
       <c r="J68" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K68" s="101">
         <v>2</v>
       </c>
       <c r="L68" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M68" s="101">
         <v>1</v>
@@ -13076,7 +13076,7 @@
         <v>6</v>
       </c>
       <c r="O68" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P68" s="101">
         <v>2</v>
@@ -13091,7 +13091,7 @@
         <v>7</v>
       </c>
       <c r="T68" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U68" s="101">
         <v>2</v>
@@ -13109,16 +13109,16 @@
         <v>151</v>
       </c>
       <c r="B69" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" s="117" t="s">
         <v>422</v>
-      </c>
-      <c r="C69" s="117" t="s">
-        <v>423</v>
       </c>
       <c r="D69" s="125">
         <v>6</v>
       </c>
       <c r="E69" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F69" s="120" t="s">
         <v>380</v>
@@ -13133,7 +13133,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K69" s="120" t="s">
         <v>179</v>
@@ -13148,7 +13148,7 @@
         <v>6</v>
       </c>
       <c r="O69" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P69" s="120" t="s">
         <v>380</v>
@@ -13163,7 +13163,7 @@
         <v>7</v>
       </c>
       <c r="T69" s="119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U69" s="120" t="s">
         <v>380</v>
@@ -13181,16 +13181,16 @@
         <v>0</v>
       </c>
       <c r="B70" s="121" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" s="121" t="s">
         <v>427</v>
-      </c>
-      <c r="C70" s="121" t="s">
-        <v>428</v>
       </c>
       <c r="D70" s="122">
         <v>7</v>
       </c>
       <c r="E70" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F70" s="122" t="s">
         <v>380</v>
@@ -13205,13 +13205,13 @@
         <v>6</v>
       </c>
       <c r="J70" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K70" s="122" t="s">
         <v>380</v>
       </c>
       <c r="L70" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M70" s="122" t="s">
         <v>382</v>
@@ -13220,7 +13220,7 @@
         <v>7</v>
       </c>
       <c r="O70" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P70" s="122" t="s">
         <v>382</v>
@@ -13253,10 +13253,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="C71" s="117" t="s">
         <v>431</v>
-      </c>
-      <c r="C71" s="117" t="s">
-        <v>432</v>
       </c>
       <c r="D71" s="125">
         <v>9</v>
@@ -13326,16 +13326,16 @@
         <v>0</v>
       </c>
       <c r="B72" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C72" s="100" t="s">
         <v>433</v>
-      </c>
-      <c r="C72" s="100" t="s">
-        <v>434</v>
       </c>
       <c r="D72" s="101">
         <v>7</v>
       </c>
       <c r="E72" s="118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F72" s="101">
         <v>2</v>
@@ -13350,13 +13350,13 @@
         <v>3</v>
       </c>
       <c r="J72" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K72" s="101" t="s">
         <v>179</v>
       </c>
       <c r="L72" s="118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M72" s="101">
         <v>1</v>
@@ -13365,13 +13365,13 @@
         <v>4</v>
       </c>
       <c r="O72" s="118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P72" s="101" t="s">
         <v>179</v>
       </c>
       <c r="Q72" s="118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R72" s="101">
         <v>1</v>
@@ -13380,7 +13380,7 @@
         <v>7</v>
       </c>
       <c r="T72" s="118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U72" s="101">
         <v>2</v>
@@ -13399,16 +13399,16 @@
         <v>0</v>
       </c>
       <c r="B73" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="C73" s="117" t="s">
         <v>440</v>
-      </c>
-      <c r="C73" s="117" t="s">
-        <v>441</v>
       </c>
       <c r="D73" s="125">
         <v>7</v>
       </c>
       <c r="E73" s="119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F73" s="120" t="s">
         <v>179</v>
@@ -13423,7 +13423,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K73" s="120">
         <v>2</v>
@@ -13438,13 +13438,13 @@
         <v>6</v>
       </c>
       <c r="O73" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P73" s="120">
         <v>3</v>
       </c>
       <c r="Q73" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R73" s="120">
         <v>1</v>
@@ -13453,7 +13453,7 @@
         <v>7</v>
       </c>
       <c r="T73" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U73" s="120" t="s">
         <v>380</v>
@@ -13472,16 +13472,16 @@
         <v>151</v>
       </c>
       <c r="B74" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C74" s="100" t="s">
         <v>445</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>446</v>
       </c>
       <c r="D74" s="101">
         <v>7</v>
       </c>
       <c r="E74" s="118" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F74" s="101" t="s">
         <v>380</v>
@@ -13511,7 +13511,7 @@
         <v>6</v>
       </c>
       <c r="O74" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P74" s="101">
         <v>2</v>
@@ -13526,7 +13526,7 @@
         <v>6</v>
       </c>
       <c r="T74" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U74" s="101" t="s">
         <v>380</v>
@@ -13545,16 +13545,16 @@
         <v>382</v>
       </c>
       <c r="B75" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="117" t="s">
         <v>450</v>
-      </c>
-      <c r="C75" s="117" t="s">
-        <v>451</v>
       </c>
       <c r="D75" s="125">
         <v>7</v>
       </c>
       <c r="E75" s="119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F75" s="120" t="s">
         <v>380</v>
@@ -13569,7 +13569,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K75" s="120">
         <v>2</v>
@@ -13590,7 +13590,7 @@
         <v>380</v>
       </c>
       <c r="Q75" s="119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R75" s="120">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>6</v>
       </c>
       <c r="T75" s="119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U75" s="120">
         <v>3</v>
@@ -13618,16 +13618,16 @@
         <v>151</v>
       </c>
       <c r="B76" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C76" s="100" t="s">
         <v>455</v>
-      </c>
-      <c r="C76" s="100" t="s">
-        <v>456</v>
       </c>
       <c r="D76" s="101">
         <v>7</v>
       </c>
       <c r="E76" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F76" s="101" t="s">
         <v>380</v>
@@ -13642,7 +13642,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K76" s="101" t="s">
         <v>380</v>
@@ -13657,7 +13657,7 @@
         <v>6</v>
       </c>
       <c r="O76" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P76" s="101">
         <v>2</v>
@@ -13672,7 +13672,7 @@
         <v>6</v>
       </c>
       <c r="T76" s="118" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U76" s="101">
         <v>2</v>
@@ -13691,16 +13691,16 @@
         <v>0</v>
       </c>
       <c r="B77" s="117" t="s">
+        <v>460</v>
+      </c>
+      <c r="C77" s="117" t="s">
         <v>461</v>
-      </c>
-      <c r="C77" s="117" t="s">
-        <v>462</v>
       </c>
       <c r="D77" s="125">
         <v>6</v>
       </c>
       <c r="E77" s="119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F77" s="120">
         <v>2</v>
@@ -13715,13 +13715,13 @@
         <v>6</v>
       </c>
       <c r="J77" s="119" t="s">
+        <v>462</v>
+      </c>
+      <c r="K77" s="120">
+        <v>1</v>
+      </c>
+      <c r="L77" s="120" t="s">
         <v>463</v>
-      </c>
-      <c r="K77" s="120">
-        <v>1</v>
-      </c>
-      <c r="L77" s="120" t="s">
-        <v>464</v>
       </c>
       <c r="M77" s="120">
         <v>1</v>
@@ -13730,13 +13730,13 @@
         <v>6</v>
       </c>
       <c r="O77" s="119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P77" s="120">
         <v>1</v>
       </c>
       <c r="Q77" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R77" s="120">
         <v>1</v>
@@ -13745,7 +13745,7 @@
         <v>6</v>
       </c>
       <c r="T77" s="119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U77" s="120" t="s">
         <v>380</v>
@@ -13764,16 +13764,16 @@
         <v>0</v>
       </c>
       <c r="B78" s="100" t="s">
+        <v>465</v>
+      </c>
+      <c r="C78" s="100" t="s">
         <v>466</v>
-      </c>
-      <c r="C78" s="100" t="s">
-        <v>467</v>
       </c>
       <c r="D78" s="101">
         <v>6</v>
       </c>
       <c r="E78" s="118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F78" s="101">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K78" s="101" t="s">
         <v>380</v>
@@ -13803,13 +13803,13 @@
         <v>6</v>
       </c>
       <c r="O78" s="118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P78" s="101">
         <v>1</v>
       </c>
       <c r="Q78" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R78" s="101" t="s">
         <v>179</v>
@@ -13818,10 +13818,10 @@
         <v>3</v>
       </c>
       <c r="T78" s="118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U78" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V78" s="118" t="s">
         <v>362</v>
@@ -13837,16 +13837,16 @@
         <v>151</v>
       </c>
       <c r="B79" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" s="117" t="s">
         <v>471</v>
-      </c>
-      <c r="C79" s="117" t="s">
-        <v>472</v>
       </c>
       <c r="D79" s="125">
         <v>7</v>
       </c>
       <c r="E79" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F79" s="120">
         <v>2</v>
@@ -13861,10 +13861,10 @@
         <v>3</v>
       </c>
       <c r="J79" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K79" s="120" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L79" s="119" t="s">
         <v>362</v>
@@ -13876,13 +13876,13 @@
         <v>7</v>
       </c>
       <c r="O79" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P79" s="120">
         <v>1</v>
       </c>
       <c r="Q79" s="119" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R79" s="120">
         <v>1</v>
@@ -13891,13 +13891,13 @@
         <v>6</v>
       </c>
       <c r="T79" s="120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U79" s="120">
         <v>2</v>
       </c>
       <c r="V79" s="119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W79" s="120">
         <v>1</v>
@@ -13908,16 +13908,16 @@
         <v>151</v>
       </c>
       <c r="B80" s="100" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" s="100" t="s">
         <v>476</v>
-      </c>
-      <c r="C80" s="100" t="s">
-        <v>477</v>
       </c>
       <c r="D80" s="101">
         <v>6</v>
       </c>
       <c r="E80" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F80" s="101">
         <v>2</v>
@@ -13932,7 +13932,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K80" s="101" t="s">
         <v>380</v>
@@ -13947,7 +13947,7 @@
         <v>3</v>
       </c>
       <c r="O80" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P80" s="101" t="s">
         <v>380</v>
@@ -13962,7 +13962,7 @@
         <v>4</v>
       </c>
       <c r="T80" s="116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U80" s="41" t="s">
         <v>179</v>
@@ -13981,16 +13981,16 @@
         <v>0</v>
       </c>
       <c r="B81" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="C81" s="117" t="s">
         <v>481</v>
-      </c>
-      <c r="C81" s="117" t="s">
-        <v>482</v>
       </c>
       <c r="D81" s="125">
         <v>7</v>
       </c>
       <c r="E81" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F81" s="120">
         <v>2</v>
@@ -14005,13 +14005,13 @@
         <v>6</v>
       </c>
       <c r="J81" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K81" s="120">
         <v>3</v>
       </c>
       <c r="L81" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M81" s="120">
         <v>1</v>
@@ -14020,7 +14020,7 @@
         <v>6</v>
       </c>
       <c r="O81" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P81" s="120">
         <v>2</v>
@@ -14041,7 +14041,7 @@
         <v>2</v>
       </c>
       <c r="V81" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W81" s="120">
         <v>1</v>
@@ -14054,10 +14054,10 @@
         <v>0</v>
       </c>
       <c r="B82" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="C82" s="100" t="s">
         <v>484</v>
-      </c>
-      <c r="C82" s="100" t="s">
-        <v>485</v>
       </c>
       <c r="D82" s="101">
         <v>7</v>
@@ -14069,7 +14069,7 @@
         <v>382</v>
       </c>
       <c r="G82" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H82" s="101" t="s">
         <v>382</v>
@@ -14078,13 +14078,13 @@
         <v>6</v>
       </c>
       <c r="J82" s="118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K82" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L82" s="118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M82" s="101">
         <v>1</v>
@@ -14096,7 +14096,7 @@
         <v>370</v>
       </c>
       <c r="P82" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q82" s="118" t="s">
         <v>362</v>
@@ -14108,13 +14108,13 @@
         <v>6</v>
       </c>
       <c r="T82" s="118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U82" s="101" t="s">
         <v>382</v>
       </c>
       <c r="V82" s="118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W82" s="101">
         <v>1</v>
@@ -14127,16 +14127,16 @@
         <v>0</v>
       </c>
       <c r="B83" s="117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="117" t="s">
         <v>488</v>
-      </c>
-      <c r="C83" s="117" t="s">
-        <v>489</v>
       </c>
       <c r="D83" s="125">
         <v>6</v>
       </c>
       <c r="E83" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F83" s="120">
         <v>2</v>
@@ -14151,13 +14151,13 @@
         <v>6</v>
       </c>
       <c r="J83" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K83" s="120">
         <v>1</v>
       </c>
       <c r="L83" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M83" s="120">
         <v>1</v>
@@ -14181,7 +14181,7 @@
         <v>6</v>
       </c>
       <c r="T83" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U83" s="120" t="s">
         <v>380</v>
@@ -14200,16 +14200,16 @@
         <v>0</v>
       </c>
       <c r="B84" s="100" t="s">
+        <v>490</v>
+      </c>
+      <c r="C84" s="100" t="s">
         <v>491</v>
-      </c>
-      <c r="C84" s="100" t="s">
-        <v>492</v>
       </c>
       <c r="D84" s="101">
         <v>7</v>
       </c>
       <c r="E84" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F84" s="101">
         <v>2</v>
@@ -14224,7 +14224,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K84" s="101" t="s">
         <v>380</v>
@@ -14239,7 +14239,7 @@
         <v>6</v>
       </c>
       <c r="O84" s="118" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P84" s="101" t="s">
         <v>380</v>
@@ -14254,7 +14254,7 @@
         <v>6</v>
       </c>
       <c r="T84" s="118" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U84" s="101">
         <v>2</v>
@@ -14273,16 +14273,16 @@
         <v>0</v>
       </c>
       <c r="B85" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="C85" s="117" t="s">
         <v>496</v>
-      </c>
-      <c r="C85" s="117" t="s">
-        <v>497</v>
       </c>
       <c r="D85" s="125">
         <v>7</v>
       </c>
       <c r="E85" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85" s="120">
         <v>2</v>
@@ -14297,7 +14297,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K85" s="120" t="s">
         <v>380</v>
@@ -14312,7 +14312,7 @@
         <v>6</v>
       </c>
       <c r="O85" s="120" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P85" s="120" t="s">
         <v>179</v>
@@ -14327,7 +14327,7 @@
         <v>6</v>
       </c>
       <c r="T85" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U85" s="120" t="s">
         <v>179</v>
@@ -14346,10 +14346,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="100" t="s">
         <v>500</v>
-      </c>
-      <c r="C86" s="100" t="s">
-        <v>501</v>
       </c>
       <c r="D86" s="101">
         <v>6</v>
@@ -14376,7 +14376,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M86" s="101" t="s">
         <v>380</v>
@@ -14385,7 +14385,7 @@
         <v>6</v>
       </c>
       <c r="O86" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P86" s="101" t="s">
         <v>382</v>
@@ -14400,7 +14400,7 @@
         <v>7</v>
       </c>
       <c r="T86" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U86" s="101" t="s">
         <v>380</v>
@@ -14419,16 +14419,16 @@
         <v>0</v>
       </c>
       <c r="B87" s="117" t="s">
+        <v>501</v>
+      </c>
+      <c r="C87" s="117" t="s">
         <v>502</v>
-      </c>
-      <c r="C87" s="117" t="s">
-        <v>503</v>
       </c>
       <c r="D87" s="125">
         <v>6</v>
       </c>
       <c r="E87" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F87" s="120">
         <v>2</v>
@@ -14443,13 +14443,13 @@
         <v>6</v>
       </c>
       <c r="J87" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K87" s="120">
         <v>1</v>
       </c>
       <c r="L87" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M87" s="120">
         <v>1</v>
@@ -14458,13 +14458,13 @@
         <v>6</v>
       </c>
       <c r="O87" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P87" s="120">
         <v>1</v>
       </c>
       <c r="Q87" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R87" s="120">
         <v>1</v>
@@ -14473,7 +14473,7 @@
         <v>6</v>
       </c>
       <c r="T87" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U87" s="120">
         <v>2</v>
@@ -14492,16 +14492,16 @@
         <v>0</v>
       </c>
       <c r="B88" s="100" t="s">
+        <v>505</v>
+      </c>
+      <c r="C88" s="100" t="s">
         <v>506</v>
-      </c>
-      <c r="C88" s="100" t="s">
-        <v>507</v>
       </c>
       <c r="D88" s="101">
         <v>6</v>
       </c>
       <c r="E88" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F88" s="101">
         <v>2</v>
@@ -14516,7 +14516,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K88" s="101">
         <v>3</v>
@@ -14531,7 +14531,7 @@
         <v>6</v>
       </c>
       <c r="O88" s="118" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P88" s="101">
         <v>2</v>
@@ -14546,7 +14546,7 @@
         <v>5</v>
       </c>
       <c r="T88" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U88" s="101">
         <v>2</v>
@@ -14565,16 +14565,16 @@
         <v>0</v>
       </c>
       <c r="B89" s="117" t="s">
+        <v>510</v>
+      </c>
+      <c r="C89" s="117" t="s">
         <v>511</v>
-      </c>
-      <c r="C89" s="117" t="s">
-        <v>512</v>
       </c>
       <c r="D89" s="125">
         <v>6</v>
       </c>
       <c r="E89" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F89" s="120">
         <v>2</v>
@@ -14589,7 +14589,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K89" s="120" t="s">
         <v>380</v>
@@ -14604,7 +14604,7 @@
         <v>4</v>
       </c>
       <c r="O89" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P89" s="120">
         <v>2</v>
@@ -14619,7 +14619,7 @@
         <v>6</v>
       </c>
       <c r="T89" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U89" s="120" t="s">
         <v>380</v>
@@ -14638,16 +14638,16 @@
         <v>0</v>
       </c>
       <c r="B90" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" s="100" t="s">
         <v>515</v>
-      </c>
-      <c r="C90" s="100" t="s">
-        <v>516</v>
       </c>
       <c r="D90" s="101">
         <v>6</v>
       </c>
       <c r="E90" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F90" s="101">
         <v>2</v>
@@ -14662,13 +14662,13 @@
         <v>6</v>
       </c>
       <c r="J90" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K90" s="101">
         <v>1</v>
       </c>
       <c r="L90" s="118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M90" s="101">
         <v>1</v>
@@ -14677,13 +14677,13 @@
         <v>6</v>
       </c>
       <c r="O90" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P90" s="101">
         <v>1</v>
       </c>
       <c r="Q90" s="118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R90" s="101" t="s">
         <v>382</v>
@@ -14692,7 +14692,7 @@
         <v>7</v>
       </c>
       <c r="T90" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U90" s="41" t="s">
         <v>380</v>
@@ -14711,16 +14711,16 @@
         <v>0</v>
       </c>
       <c r="B91" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" s="117" t="s">
         <v>518</v>
-      </c>
-      <c r="C91" s="117" t="s">
-        <v>519</v>
       </c>
       <c r="D91" s="125">
         <v>6</v>
       </c>
       <c r="E91" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F91" s="120">
         <v>2</v>
@@ -14735,13 +14735,13 @@
         <v>4</v>
       </c>
       <c r="J91" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K91" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L91" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M91" s="120" t="s">
         <v>382</v>
@@ -14753,7 +14753,7 @@
         <v>364</v>
       </c>
       <c r="P91" s="120" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q91" s="119" t="s">
         <v>362</v>
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="V91" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W91" s="120">
         <v>1</v>
@@ -14784,16 +14784,16 @@
         <v>0</v>
       </c>
       <c r="B92" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="C92" s="100" t="s">
         <v>521</v>
-      </c>
-      <c r="C92" s="100" t="s">
-        <v>522</v>
       </c>
       <c r="D92" s="101">
         <v>6</v>
       </c>
       <c r="E92" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F92" s="101">
         <v>2</v>
@@ -14808,7 +14808,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K92" s="101" t="s">
         <v>380</v>
@@ -14823,13 +14823,13 @@
         <v>6</v>
       </c>
       <c r="O92" s="118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P92" s="101" t="s">
         <v>380</v>
       </c>
       <c r="Q92" s="118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R92" s="101" t="s">
         <v>382</v>
@@ -14838,7 +14838,7 @@
         <v>7</v>
       </c>
       <c r="T92" s="118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U92" s="101" t="s">
         <v>380</v>
@@ -14857,16 +14857,16 @@
         <v>0</v>
       </c>
       <c r="B93" s="117" t="s">
+        <v>524</v>
+      </c>
+      <c r="C93" s="117" t="s">
         <v>525</v>
-      </c>
-      <c r="C93" s="117" t="s">
-        <v>526</v>
       </c>
       <c r="D93" s="125">
         <v>6</v>
       </c>
       <c r="E93" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F93" s="120">
         <v>2</v>
@@ -14881,7 +14881,7 @@
         <v>7</v>
       </c>
       <c r="J93" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K93" s="120" t="s">
         <v>380</v>
@@ -14896,13 +14896,13 @@
         <v>6</v>
       </c>
       <c r="O93" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P93" s="120">
         <v>1</v>
       </c>
       <c r="Q93" s="119" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R93" s="120">
         <v>1</v>
@@ -14930,16 +14930,16 @@
         <v>151</v>
       </c>
       <c r="B94" s="100" t="s">
+        <v>527</v>
+      </c>
+      <c r="C94" s="100" t="s">
         <v>528</v>
-      </c>
-      <c r="C94" s="100" t="s">
-        <v>529</v>
       </c>
       <c r="D94" s="101">
         <v>6</v>
       </c>
       <c r="E94" s="116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F94" s="101">
         <v>2</v>
@@ -14954,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K94" s="101" t="s">
         <v>380</v>
@@ -14969,7 +14969,7 @@
         <v>7</v>
       </c>
       <c r="O94" s="118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P94" s="101" t="s">
         <v>380</v>
@@ -14984,13 +14984,13 @@
         <v>3</v>
       </c>
       <c r="T94" s="116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U94" s="101">
         <v>3</v>
       </c>
       <c r="V94" s="116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W94" s="101" t="s">
         <v>382</v>
@@ -15023,13 +15023,13 @@
     </row>
     <row r="96" s="16" customFormat="1" spans="1:25">
       <c r="A96" s="101" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B96" s="100" t="s">
+        <v>531</v>
+      </c>
+      <c r="C96" s="100" t="s">
         <v>532</v>
-      </c>
-      <c r="C96" s="100" t="s">
-        <v>533</v>
       </c>
       <c r="D96" s="101" t="s">
         <v>94</v>
@@ -15092,10 +15092,10 @@
         <v>363</v>
       </c>
       <c r="X96" s="115" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y96" s="101" t="s">
         <v>534</v>
-      </c>
-      <c r="Y96" s="101" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="97" s="16" customFormat="1" spans="1:25">
@@ -15152,7 +15152,7 @@
     <row r="99" s="16" customFormat="1" spans="1:25">
       <c r="A99" s="100"/>
       <c r="B99" s="111" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C99" s="111"/>
       <c r="D99" s="41"/>
@@ -15178,10 +15178,10 @@
     </row>
     <row r="100" s="16" customFormat="1" spans="1:25">
       <c r="A100" s="101" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B100" s="126" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C100" s="126" t="s">
         <v>350</v>
@@ -15326,7 +15326,7 @@
         <v>2</v>
       </c>
       <c r="Q102" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R102" s="120" t="s">
         <v>382</v>
@@ -15369,7 +15369,7 @@
         <v>179</v>
       </c>
       <c r="G103" s="118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H103" s="101">
         <v>1</v>
@@ -15384,7 +15384,7 @@
         <v>380</v>
       </c>
       <c r="L103" s="116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M103" s="41">
         <v>1</v>
@@ -15399,7 +15399,7 @@
         <v>179</v>
       </c>
       <c r="Q103" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R103" s="101" t="s">
         <v>382</v>
@@ -15408,13 +15408,13 @@
         <v>7</v>
       </c>
       <c r="T103" s="41" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="U103" s="41" t="s">
         <v>380</v>
       </c>
       <c r="V103" s="118" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="W103" s="101" t="s">
         <v>382</v>
@@ -15427,16 +15427,16 @@
         <v>0</v>
       </c>
       <c r="B104" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="C104" s="117" t="s">
         <v>390</v>
-      </c>
-      <c r="C104" s="117" t="s">
-        <v>391</v>
       </c>
       <c r="D104" s="125">
         <v>7</v>
       </c>
       <c r="E104" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F104" s="120" t="s">
         <v>380</v>
@@ -15451,13 +15451,13 @@
         <v>7</v>
       </c>
       <c r="J104" s="119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K104" s="120">
         <v>1</v>
       </c>
       <c r="L104" s="119" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M104" s="120" t="s">
         <v>382</v>
@@ -15466,13 +15466,13 @@
         <v>6</v>
       </c>
       <c r="O104" s="119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P104" s="120" t="s">
         <v>380</v>
       </c>
       <c r="Q104" s="119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R104" s="120" t="s">
         <v>380</v>
@@ -15481,13 +15481,13 @@
         <v>7</v>
       </c>
       <c r="T104" s="119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U104" s="120">
         <v>1</v>
       </c>
       <c r="V104" s="119" t="s">
-        <v>389</v>
+        <v>542</v>
       </c>
       <c r="W104" s="120">
         <v>1</v>
@@ -15500,16 +15500,16 @@
         <v>0</v>
       </c>
       <c r="B105" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" s="100" t="s">
         <v>396</v>
-      </c>
-      <c r="C105" s="100" t="s">
-        <v>397</v>
       </c>
       <c r="D105" s="101">
         <v>7</v>
       </c>
       <c r="E105" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F105" s="101">
         <v>2</v>
@@ -15524,7 +15524,7 @@
         <v>7</v>
       </c>
       <c r="J105" s="116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K105" s="101" t="s">
         <v>380</v>
@@ -15545,7 +15545,7 @@
         <v>179</v>
       </c>
       <c r="Q105" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R105" s="101" t="s">
         <v>380</v>
@@ -15554,7 +15554,7 @@
         <v>7</v>
       </c>
       <c r="T105" s="118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U105" s="101" t="s">
         <v>382</v>
@@ -15573,10 +15573,10 @@
         <v>151</v>
       </c>
       <c r="B106" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="C106" s="117" t="s">
         <v>399</v>
-      </c>
-      <c r="C106" s="117" t="s">
-        <v>400</v>
       </c>
       <c r="D106" s="125">
         <v>7</v>
@@ -15597,13 +15597,13 @@
         <v>5</v>
       </c>
       <c r="J106" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K106" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L106" s="119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M106" s="120" t="s">
         <v>380</v>
@@ -15612,7 +15612,7 @@
         <v>6</v>
       </c>
       <c r="O106" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P106" s="120">
         <v>2</v>
@@ -15627,13 +15627,13 @@
         <v>7</v>
       </c>
       <c r="T106" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U106" s="120" t="s">
         <v>382</v>
       </c>
       <c r="V106" s="119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W106" s="120">
         <v>1</v>
@@ -15650,22 +15650,22 @@
         <v>382</v>
       </c>
       <c r="B107" s="100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="100" t="s">
         <v>404</v>
-      </c>
-      <c r="C107" s="100" t="s">
-        <v>405</v>
       </c>
       <c r="D107" s="101">
         <v>7</v>
       </c>
       <c r="E107" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F107" s="101" t="s">
         <v>380</v>
       </c>
       <c r="G107" s="116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H107" s="41" t="s">
         <v>382</v>
@@ -15680,7 +15680,7 @@
         <v>380</v>
       </c>
       <c r="L107" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M107" s="101">
         <v>1</v>
@@ -15689,13 +15689,13 @@
         <v>6</v>
       </c>
       <c r="O107" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P107" s="101" t="s">
         <v>380</v>
       </c>
       <c r="Q107" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R107" s="101" t="s">
         <v>380</v>
@@ -15704,7 +15704,7 @@
         <v>7</v>
       </c>
       <c r="T107" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U107" s="101" t="s">
         <v>179</v>
@@ -15727,16 +15727,16 @@
         <v>151</v>
       </c>
       <c r="B108" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C108" s="117" t="s">
         <v>411</v>
-      </c>
-      <c r="C108" s="117" t="s">
-        <v>412</v>
       </c>
       <c r="D108" s="125">
         <v>7</v>
       </c>
       <c r="E108" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F108" s="120" t="s">
         <v>380</v>
@@ -15751,13 +15751,13 @@
         <v>7</v>
       </c>
       <c r="J108" s="119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K108" s="120" t="s">
         <v>380</v>
       </c>
       <c r="L108" s="119" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M108" s="120">
         <v>1</v>
@@ -15766,13 +15766,13 @@
         <v>7</v>
       </c>
       <c r="O108" s="119" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P108" s="120" t="s">
         <v>382</v>
       </c>
       <c r="Q108" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R108" s="120" t="s">
         <v>382</v>
@@ -15781,13 +15781,13 @@
         <v>6</v>
       </c>
       <c r="T108" s="119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U108" s="120" t="s">
         <v>179</v>
       </c>
       <c r="V108" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W108" s="120">
         <v>2</v>
@@ -15804,22 +15804,22 @@
         <v>151</v>
       </c>
       <c r="B109" s="100" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="100" t="s">
         <v>418</v>
-      </c>
-      <c r="C109" s="100" t="s">
-        <v>419</v>
       </c>
       <c r="D109" s="101">
         <v>7</v>
       </c>
       <c r="E109" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F109" s="101" t="s">
         <v>380</v>
       </c>
       <c r="G109" s="116" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H109" s="41" t="s">
         <v>382</v>
@@ -15828,13 +15828,13 @@
         <v>6</v>
       </c>
       <c r="J109" s="118" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K109" s="101" t="s">
         <v>179</v>
       </c>
       <c r="L109" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M109" s="101" t="s">
         <v>380</v>
@@ -15843,7 +15843,7 @@
         <v>6</v>
       </c>
       <c r="O109" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P109" s="101" t="s">
         <v>179</v>
@@ -15858,13 +15858,13 @@
         <v>7</v>
       </c>
       <c r="T109" s="118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U109" s="101">
         <v>2</v>
       </c>
       <c r="V109" s="118" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W109" s="101" t="s">
         <v>382</v>
@@ -15881,16 +15881,16 @@
         <v>151</v>
       </c>
       <c r="B110" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" s="117" t="s">
         <v>422</v>
-      </c>
-      <c r="C110" s="117" t="s">
-        <v>423</v>
       </c>
       <c r="D110" s="125">
         <v>7</v>
       </c>
       <c r="E110" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F110" s="120" t="s">
         <v>380</v>
@@ -15905,7 +15905,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K110" s="120" t="s">
         <v>179</v>
@@ -15920,7 +15920,7 @@
         <v>6</v>
       </c>
       <c r="O110" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P110" s="120" t="s">
         <v>179</v>
@@ -15935,13 +15935,13 @@
         <v>6</v>
       </c>
       <c r="T110" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U110" s="120" t="s">
         <v>380</v>
       </c>
       <c r="V110" s="119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W110" s="120" t="s">
         <v>380</v>
@@ -15958,16 +15958,16 @@
         <v>0</v>
       </c>
       <c r="B111" s="121" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" s="121" t="s">
         <v>427</v>
-      </c>
-      <c r="C111" s="121" t="s">
-        <v>428</v>
       </c>
       <c r="D111" s="122">
         <v>7</v>
       </c>
       <c r="E111" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F111" s="122" t="s">
         <v>380</v>
@@ -15982,7 +15982,7 @@
         <v>7</v>
       </c>
       <c r="J111" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K111" s="122" t="s">
         <v>380</v>
@@ -15997,13 +15997,13 @@
         <v>7</v>
       </c>
       <c r="O111" s="123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P111" s="122" t="s">
         <v>382</v>
       </c>
       <c r="Q111" s="123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R111" s="122" t="s">
         <v>382</v>
@@ -16018,7 +16018,7 @@
         <v>179</v>
       </c>
       <c r="V111" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W111" s="122" t="s">
         <v>380</v>
@@ -16035,10 +16035,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" s="117" t="s">
         <v>431</v>
-      </c>
-      <c r="C112" s="117" t="s">
-        <v>432</v>
       </c>
       <c r="D112" s="125">
         <v>8</v>
@@ -16108,22 +16108,22 @@
         <v>0</v>
       </c>
       <c r="B113" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C113" s="100" t="s">
         <v>433</v>
-      </c>
-      <c r="C113" s="100" t="s">
-        <v>434</v>
       </c>
       <c r="D113" s="101">
         <v>7</v>
       </c>
       <c r="E113" s="118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F113" s="101">
         <v>2</v>
       </c>
       <c r="G113" s="123" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H113" s="122" t="s">
         <v>382</v>
@@ -16132,13 +16132,13 @@
         <v>5</v>
       </c>
       <c r="J113" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K113" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L113" s="118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M113" s="101">
         <v>1</v>
@@ -16147,13 +16147,13 @@
         <v>6</v>
       </c>
       <c r="O113" s="118" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P113" s="101" t="s">
         <v>179</v>
       </c>
       <c r="Q113" s="118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R113" s="101">
         <v>1</v>
@@ -16162,7 +16162,7 @@
         <v>7</v>
       </c>
       <c r="T113" s="118" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U113" s="101">
         <v>2</v>
@@ -16181,22 +16181,22 @@
         <v>0</v>
       </c>
       <c r="B114" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" s="117" t="s">
         <v>440</v>
-      </c>
-      <c r="C114" s="117" t="s">
-        <v>441</v>
       </c>
       <c r="D114" s="125">
         <v>7</v>
       </c>
       <c r="E114" s="119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F114" s="120" t="s">
         <v>179</v>
       </c>
       <c r="G114" s="119" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H114" s="120">
         <v>1</v>
@@ -16205,13 +16205,13 @@
         <v>6</v>
       </c>
       <c r="J114" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K114" s="120">
         <v>2</v>
       </c>
       <c r="L114" s="119" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M114" s="120" t="s">
         <v>380</v>
@@ -16220,13 +16220,13 @@
         <v>7</v>
       </c>
       <c r="O114" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P114" s="120">
         <v>3</v>
       </c>
       <c r="Q114" s="119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R114" s="120">
         <v>1</v>
@@ -16235,7 +16235,7 @@
         <v>7</v>
       </c>
       <c r="T114" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U114" s="120" t="s">
         <v>380</v>
@@ -16254,22 +16254,22 @@
         <v>151</v>
       </c>
       <c r="B115" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C115" s="100" t="s">
         <v>445</v>
-      </c>
-      <c r="C115" s="100" t="s">
-        <v>446</v>
       </c>
       <c r="D115" s="101">
         <v>7</v>
       </c>
       <c r="E115" s="118" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F115" s="101" t="s">
         <v>380</v>
       </c>
       <c r="G115" s="123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H115" s="122" t="s">
         <v>382</v>
@@ -16293,13 +16293,13 @@
         <v>5</v>
       </c>
       <c r="O115" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P115" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q115" s="118" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R115" s="101" t="s">
         <v>382</v>
@@ -16308,13 +16308,13 @@
         <v>7</v>
       </c>
       <c r="T115" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U115" s="101" t="s">
         <v>382</v>
       </c>
       <c r="V115" s="118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W115" s="101" t="s">
         <v>382</v>
@@ -16327,22 +16327,22 @@
         <v>382</v>
       </c>
       <c r="B116" s="117" t="s">
+        <v>449</v>
+      </c>
+      <c r="C116" s="117" t="s">
         <v>450</v>
-      </c>
-      <c r="C116" s="117" t="s">
-        <v>451</v>
       </c>
       <c r="D116" s="125">
         <v>7</v>
       </c>
       <c r="E116" s="119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F116" s="120" t="s">
         <v>380</v>
       </c>
       <c r="G116" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H116" s="120" t="s">
         <v>382</v>
@@ -16354,10 +16354,10 @@
         <v>375</v>
       </c>
       <c r="K116" s="120" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L116" s="119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M116" s="120">
         <v>1</v>
@@ -16366,7 +16366,7 @@
         <v>6</v>
       </c>
       <c r="O116" s="119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P116" s="120">
         <v>3</v>
@@ -16381,13 +16381,13 @@
         <v>6</v>
       </c>
       <c r="T116" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U116" s="120" t="s">
         <v>380</v>
       </c>
       <c r="V116" s="119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W116" s="120" t="s">
         <v>380</v>
@@ -16400,16 +16400,16 @@
         <v>151</v>
       </c>
       <c r="B117" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C117" s="100" t="s">
         <v>455</v>
-      </c>
-      <c r="C117" s="100" t="s">
-        <v>456</v>
       </c>
       <c r="D117" s="101">
         <v>7</v>
       </c>
       <c r="E117" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F117" s="101" t="s">
         <v>380</v>
@@ -16424,13 +16424,13 @@
         <v>6</v>
       </c>
       <c r="J117" s="118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K117" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L117" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M117" s="122" t="s">
         <v>380</v>
@@ -16439,7 +16439,7 @@
         <v>7</v>
       </c>
       <c r="O117" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P117" s="101">
         <v>2</v>
@@ -16454,13 +16454,13 @@
         <v>6</v>
       </c>
       <c r="T117" s="118" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U117" s="101">
         <v>2</v>
       </c>
       <c r="V117" s="118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W117" s="122" t="s">
         <v>380</v>
@@ -16473,16 +16473,16 @@
         <v>0</v>
       </c>
       <c r="B118" s="117" t="s">
+        <v>460</v>
+      </c>
+      <c r="C118" s="117" t="s">
         <v>461</v>
-      </c>
-      <c r="C118" s="117" t="s">
-        <v>462</v>
       </c>
       <c r="D118" s="125">
         <v>7</v>
       </c>
       <c r="E118" s="119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F118" s="120">
         <v>2</v>
@@ -16497,13 +16497,13 @@
         <v>5</v>
       </c>
       <c r="J118" s="119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K118" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L118" s="120" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M118" s="120" t="s">
         <v>380</v>
@@ -16512,13 +16512,13 @@
         <v>6</v>
       </c>
       <c r="O118" s="119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P118" s="120" t="s">
         <v>380</v>
       </c>
       <c r="Q118" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R118" s="120">
         <v>1</v>
@@ -16527,13 +16527,13 @@
         <v>5</v>
       </c>
       <c r="T118" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U118" s="120" t="s">
         <v>179</v>
       </c>
       <c r="V118" s="119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W118" s="120" t="s">
         <v>380</v>
@@ -16550,16 +16550,16 @@
         <v>0</v>
       </c>
       <c r="B119" s="100" t="s">
+        <v>465</v>
+      </c>
+      <c r="C119" s="100" t="s">
         <v>466</v>
-      </c>
-      <c r="C119" s="100" t="s">
-        <v>467</v>
       </c>
       <c r="D119" s="101">
         <v>7</v>
       </c>
       <c r="E119" s="118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F119" s="101">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         <v>7</v>
       </c>
       <c r="J119" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K119" s="101" t="s">
         <v>380</v>
@@ -16589,13 +16589,13 @@
         <v>6</v>
       </c>
       <c r="O119" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P119" s="101" t="s">
         <v>380</v>
       </c>
       <c r="Q119" s="118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R119" s="101">
         <v>1</v>
@@ -16604,13 +16604,13 @@
         <v>5</v>
       </c>
       <c r="T119" s="118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U119" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V119" s="118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W119" s="101" t="s">
         <v>382</v>
@@ -16627,16 +16627,16 @@
         <v>151</v>
       </c>
       <c r="B120" s="117" t="s">
+        <v>470</v>
+      </c>
+      <c r="C120" s="117" t="s">
         <v>471</v>
-      </c>
-      <c r="C120" s="117" t="s">
-        <v>472</v>
       </c>
       <c r="D120" s="125">
         <v>7</v>
       </c>
       <c r="E120" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F120" s="120">
         <v>2</v>
@@ -16651,13 +16651,13 @@
         <v>5</v>
       </c>
       <c r="J120" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K120" s="120" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L120" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M120" s="120" t="s">
         <v>382</v>
@@ -16666,13 +16666,13 @@
         <v>6</v>
       </c>
       <c r="O120" s="119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P120" s="120" t="s">
         <v>179</v>
       </c>
       <c r="Q120" s="119" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R120" s="120" t="s">
         <v>380</v>
@@ -16681,13 +16681,13 @@
         <v>6</v>
       </c>
       <c r="T120" s="120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U120" s="120">
         <v>2</v>
       </c>
       <c r="V120" s="120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W120" s="120">
         <v>2</v>
@@ -16704,16 +16704,16 @@
         <v>382</v>
       </c>
       <c r="B121" s="100" t="s">
+        <v>475</v>
+      </c>
+      <c r="C121" s="100" t="s">
         <v>476</v>
-      </c>
-      <c r="C121" s="100" t="s">
-        <v>477</v>
       </c>
       <c r="D121" s="101">
         <v>7</v>
       </c>
       <c r="E121" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F121" s="101">
         <v>2</v>
@@ -16728,13 +16728,13 @@
         <v>5</v>
       </c>
       <c r="J121" s="116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K121" s="41" t="s">
         <v>179</v>
       </c>
       <c r="L121" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M121" s="101" t="s">
         <v>380</v>
@@ -16743,7 +16743,7 @@
         <v>5</v>
       </c>
       <c r="O121" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P121" s="101" t="s">
         <v>179</v>
@@ -16764,7 +16764,7 @@
         <v>179</v>
       </c>
       <c r="V121" s="118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W121" s="101">
         <v>2</v>
@@ -16781,16 +16781,16 @@
         <v>0</v>
       </c>
       <c r="B122" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="C122" s="117" t="s">
         <v>481</v>
-      </c>
-      <c r="C122" s="117" t="s">
-        <v>482</v>
       </c>
       <c r="D122" s="125">
         <v>7</v>
       </c>
       <c r="E122" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F122" s="120">
         <v>2</v>
@@ -16805,13 +16805,13 @@
         <v>7</v>
       </c>
       <c r="J122" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K122" s="120">
         <v>3</v>
       </c>
       <c r="L122" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M122" s="120">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>6</v>
       </c>
       <c r="O122" s="119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P122" s="120">
         <v>2</v>
@@ -16835,13 +16835,13 @@
         <v>7</v>
       </c>
       <c r="T122" s="119" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U122" s="120" t="s">
         <v>179</v>
       </c>
       <c r="V122" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W122" s="120">
         <v>1</v>
@@ -16854,10 +16854,10 @@
         <v>382</v>
       </c>
       <c r="B123" s="100" t="s">
+        <v>483</v>
+      </c>
+      <c r="C123" s="100" t="s">
         <v>484</v>
-      </c>
-      <c r="C123" s="100" t="s">
-        <v>485</v>
       </c>
       <c r="D123" s="101">
         <v>7</v>
@@ -16878,13 +16878,13 @@
         <v>7</v>
       </c>
       <c r="J123" s="118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K123" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L123" s="118" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M123" s="101">
         <v>1</v>
@@ -16908,13 +16908,13 @@
         <v>6</v>
       </c>
       <c r="T123" s="118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U123" s="101" t="s">
         <v>380</v>
       </c>
       <c r="V123" s="118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W123" s="101">
         <v>1</v>
@@ -16925,16 +16925,16 @@
         <v>382</v>
       </c>
       <c r="B124" s="117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C124" s="117" t="s">
         <v>488</v>
-      </c>
-      <c r="C124" s="117" t="s">
-        <v>489</v>
       </c>
       <c r="D124" s="125">
         <v>7</v>
       </c>
       <c r="E124" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F124" s="120">
         <v>2</v>
@@ -16949,13 +16949,13 @@
         <v>5</v>
       </c>
       <c r="J124" s="119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K124" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L124" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M124" s="120" t="s">
         <v>380</v>
@@ -16964,7 +16964,7 @@
         <v>6</v>
       </c>
       <c r="O124" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P124" s="120" t="s">
         <v>380</v>
@@ -16979,13 +16979,13 @@
         <v>7</v>
       </c>
       <c r="T124" s="119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U124" s="120" t="s">
         <v>382</v>
       </c>
       <c r="V124" s="119" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W124" s="120" t="s">
         <v>382</v>
@@ -17002,16 +17002,16 @@
         <v>0</v>
       </c>
       <c r="B125" s="100" t="s">
+        <v>490</v>
+      </c>
+      <c r="C125" s="100" t="s">
         <v>491</v>
-      </c>
-      <c r="C125" s="100" t="s">
-        <v>492</v>
       </c>
       <c r="D125" s="101">
         <v>7</v>
       </c>
       <c r="E125" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F125" s="101">
         <v>2</v>
@@ -17026,7 +17026,7 @@
         <v>7</v>
       </c>
       <c r="J125" s="118" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K125" s="101" t="s">
         <v>380</v>
@@ -17041,13 +17041,13 @@
         <v>6</v>
       </c>
       <c r="O125" s="118" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P125" s="101" t="s">
         <v>380</v>
       </c>
       <c r="Q125" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R125" s="101">
         <v>2</v>
@@ -17056,13 +17056,13 @@
         <v>6</v>
       </c>
       <c r="T125" s="118" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U125" s="101" t="s">
         <v>179</v>
       </c>
       <c r="V125" s="118" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W125" s="101" t="s">
         <v>382</v>
@@ -17079,16 +17079,16 @@
         <v>0</v>
       </c>
       <c r="B126" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="C126" s="117" t="s">
         <v>496</v>
-      </c>
-      <c r="C126" s="117" t="s">
-        <v>497</v>
       </c>
       <c r="D126" s="125">
         <v>7</v>
       </c>
       <c r="E126" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F126" s="120">
         <v>2</v>
@@ -17103,7 +17103,7 @@
         <v>7</v>
       </c>
       <c r="J126" s="119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K126" s="120" t="s">
         <v>380</v>
@@ -17118,13 +17118,13 @@
         <v>6</v>
       </c>
       <c r="O126" s="120" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P126" s="120" t="s">
         <v>179</v>
       </c>
       <c r="Q126" s="119" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R126" s="120" t="s">
         <v>380</v>
@@ -17133,13 +17133,13 @@
         <v>7</v>
       </c>
       <c r="T126" s="119" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U126" s="120" t="s">
         <v>382</v>
       </c>
       <c r="V126" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W126" s="120" t="s">
         <v>382</v>
@@ -17152,10 +17152,10 @@
         <v>382</v>
       </c>
       <c r="B127" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C127" s="100" t="s">
         <v>500</v>
-      </c>
-      <c r="C127" s="100" t="s">
-        <v>501</v>
       </c>
       <c r="D127" s="101">
         <v>7</v>
@@ -17182,7 +17182,7 @@
         <v>179</v>
       </c>
       <c r="L127" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M127" s="101" t="s">
         <v>380</v>
@@ -17197,7 +17197,7 @@
         <v>382</v>
       </c>
       <c r="Q127" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R127" s="101">
         <v>1</v>
@@ -17206,13 +17206,13 @@
         <v>7</v>
       </c>
       <c r="T127" s="118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U127" s="101" t="s">
         <v>382</v>
       </c>
       <c r="V127" s="118" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W127" s="101" t="s">
         <v>382</v>
@@ -17229,16 +17229,16 @@
         <v>0</v>
       </c>
       <c r="B128" s="117" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="117" t="s">
         <v>502</v>
-      </c>
-      <c r="C128" s="117" t="s">
-        <v>503</v>
       </c>
       <c r="D128" s="125">
         <v>7</v>
       </c>
       <c r="E128" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F128" s="120">
         <v>2</v>
@@ -17253,13 +17253,13 @@
         <v>5</v>
       </c>
       <c r="J128" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K128" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L128" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M128" s="120" t="s">
         <v>380</v>
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="O128" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P128" s="120">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>6</v>
       </c>
       <c r="T128" s="119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U128" s="120" t="s">
         <v>179</v>
@@ -17306,16 +17306,16 @@
         <v>0</v>
       </c>
       <c r="B129" s="100" t="s">
+        <v>505</v>
+      </c>
+      <c r="C129" s="100" t="s">
         <v>506</v>
-      </c>
-      <c r="C129" s="100" t="s">
-        <v>507</v>
       </c>
       <c r="D129" s="101">
         <v>7</v>
       </c>
       <c r="E129" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F129" s="101">
         <v>2</v>
@@ -17330,7 +17330,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="118" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K129" s="101">
         <v>3</v>
@@ -17345,13 +17345,13 @@
         <v>6</v>
       </c>
       <c r="O129" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P129" s="101">
         <v>2</v>
       </c>
       <c r="Q129" s="118" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R129" s="101" t="s">
         <v>382</v>
@@ -17360,7 +17360,7 @@
         <v>7</v>
       </c>
       <c r="T129" s="118" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U129" s="101" t="s">
         <v>382</v>
@@ -17383,16 +17383,16 @@
         <v>382</v>
       </c>
       <c r="B130" s="117" t="s">
+        <v>510</v>
+      </c>
+      <c r="C130" s="117" t="s">
         <v>511</v>
-      </c>
-      <c r="C130" s="117" t="s">
-        <v>512</v>
       </c>
       <c r="D130" s="125">
         <v>7</v>
       </c>
       <c r="E130" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F130" s="120">
         <v>2</v>
@@ -17407,13 +17407,13 @@
         <v>5</v>
       </c>
       <c r="J130" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K130" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L130" s="119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M130" s="120" t="s">
         <v>380</v>
@@ -17422,7 +17422,7 @@
         <v>6</v>
       </c>
       <c r="O130" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P130" s="120">
         <v>2</v>
@@ -17437,13 +17437,13 @@
         <v>5</v>
       </c>
       <c r="T130" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U130" s="120" t="s">
         <v>179</v>
       </c>
       <c r="V130" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W130" s="120">
         <v>2</v>
@@ -17460,16 +17460,16 @@
         <v>382</v>
       </c>
       <c r="B131" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="C131" s="100" t="s">
         <v>515</v>
-      </c>
-      <c r="C131" s="100" t="s">
-        <v>516</v>
       </c>
       <c r="D131" s="101">
         <v>7</v>
       </c>
       <c r="E131" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F131" s="101">
         <v>2</v>
@@ -17484,13 +17484,13 @@
         <v>5</v>
       </c>
       <c r="J131" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K131" s="101" t="s">
         <v>179</v>
       </c>
       <c r="L131" s="118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M131" s="101" t="s">
         <v>380</v>
@@ -17499,13 +17499,13 @@
         <v>5</v>
       </c>
       <c r="O131" s="118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P131" s="101" t="s">
         <v>179</v>
       </c>
       <c r="Q131" s="118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R131" s="101" t="s">
         <v>380</v>
@@ -17514,13 +17514,13 @@
         <v>7</v>
       </c>
       <c r="T131" s="118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U131" s="41" t="s">
         <v>382</v>
       </c>
       <c r="V131" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W131" s="101" t="s">
         <v>382</v>
@@ -17537,16 +17537,16 @@
         <v>382</v>
       </c>
       <c r="B132" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="C132" s="117" t="s">
         <v>518</v>
-      </c>
-      <c r="C132" s="117" t="s">
-        <v>519</v>
       </c>
       <c r="D132" s="125">
         <v>7</v>
       </c>
       <c r="E132" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F132" s="120">
         <v>2</v>
@@ -17561,13 +17561,13 @@
         <v>6</v>
       </c>
       <c r="J132" s="119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K132" s="120" t="s">
         <v>179</v>
       </c>
       <c r="L132" s="119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M132" s="120" t="s">
         <v>382</v>
@@ -17597,7 +17597,7 @@
         <v>179</v>
       </c>
       <c r="V132" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W132" s="120" t="s">
         <v>380</v>
@@ -17614,16 +17614,16 @@
         <v>151</v>
       </c>
       <c r="B133" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="C133" s="100" t="s">
         <v>521</v>
-      </c>
-      <c r="C133" s="100" t="s">
-        <v>522</v>
       </c>
       <c r="D133" s="101">
         <v>7</v>
       </c>
       <c r="E133" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F133" s="101">
         <v>2</v>
@@ -17638,13 +17638,13 @@
         <v>6</v>
       </c>
       <c r="J133" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K133" s="101" t="s">
         <v>380</v>
       </c>
       <c r="L133" s="118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M133" s="101" t="s">
         <v>380</v>
@@ -17653,13 +17653,13 @@
         <v>7</v>
       </c>
       <c r="O133" s="118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P133" s="101" t="s">
         <v>382</v>
       </c>
       <c r="Q133" s="118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R133" s="101" t="s">
         <v>382</v>
@@ -17668,13 +17668,13 @@
         <v>6</v>
       </c>
       <c r="T133" s="118" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U133" s="101" t="s">
         <v>380</v>
       </c>
       <c r="V133" s="118" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W133" s="41" t="s">
         <v>380</v>
@@ -17687,16 +17687,16 @@
         <v>382</v>
       </c>
       <c r="B134" s="117" t="s">
+        <v>524</v>
+      </c>
+      <c r="C134" s="117" t="s">
         <v>525</v>
-      </c>
-      <c r="C134" s="117" t="s">
-        <v>526</v>
       </c>
       <c r="D134" s="125">
         <v>7</v>
       </c>
       <c r="E134" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F134" s="120">
         <v>2</v>
@@ -17711,13 +17711,13 @@
         <v>6</v>
       </c>
       <c r="J134" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K134" s="120" t="s">
         <v>380</v>
       </c>
       <c r="L134" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M134" s="120" t="s">
         <v>380</v>
@@ -17726,13 +17726,13 @@
         <v>7</v>
       </c>
       <c r="O134" s="119" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P134" s="120">
         <v>1</v>
       </c>
       <c r="Q134" s="119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R134" s="120">
         <v>1</v>
@@ -17747,7 +17747,7 @@
         <v>179</v>
       </c>
       <c r="V134" s="119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W134" s="120" t="s">
         <v>380</v>
@@ -17764,16 +17764,16 @@
         <v>151</v>
       </c>
       <c r="B135" s="100" t="s">
+        <v>527</v>
+      </c>
+      <c r="C135" s="100" t="s">
         <v>528</v>
-      </c>
-      <c r="C135" s="100" t="s">
-        <v>529</v>
       </c>
       <c r="D135" s="101">
         <v>7</v>
       </c>
       <c r="E135" s="116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F135" s="101">
         <v>2</v>
@@ -17788,7 +17788,7 @@
         <v>7</v>
       </c>
       <c r="J135" s="116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K135" s="101" t="s">
         <v>380</v>
@@ -17803,10 +17803,10 @@
         <v>6</v>
       </c>
       <c r="O135" s="118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P135" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q135" s="118" t="s">
         <v>362</v>
@@ -17818,13 +17818,13 @@
         <v>5</v>
       </c>
       <c r="T135" s="116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U135" s="101">
         <v>3</v>
       </c>
       <c r="V135" s="116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W135" s="101" t="s">
         <v>380</v>
@@ -17858,10 +17858,10 @@
         <v>563</v>
       </c>
       <c r="B137" s="100" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="100" t="s">
         <v>532</v>
-      </c>
-      <c r="C137" s="100" t="s">
-        <v>533</v>
       </c>
       <c r="D137" s="101" t="s">
         <v>94</v>
@@ -17924,10 +17924,10 @@
         <v>363</v>
       </c>
       <c r="X137" s="115" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y137" s="101" t="s">
         <v>534</v>
-      </c>
-      <c r="Y137" s="101" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="138" s="16" customFormat="1" spans="1:25">
@@ -18021,8 +18021,8 @@
   <sheetPr/>
   <dimension ref="B3:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18161,7 +18161,7 @@
         <v>570</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I8" s="41">
         <v>2</v>
@@ -18170,7 +18170,7 @@
         <v>571</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M8" s="41">
         <v>5</v>
@@ -18201,13 +18201,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I9" s="41">
         <v>1</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M9" s="41">
         <v>5</v>
@@ -18219,7 +18219,7 @@
         <v>578</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Z9" s="16" t="s">
         <v>579</v>
@@ -18235,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I10" s="41">
         <v>1</v>
@@ -18263,26 +18263,26 @@
       <c r="B11" s="85"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E11" s="41">
         <v>3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I11" s="41">
         <v>1</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M11" s="41">
         <v>5</v>
       </c>
       <c r="T11" s="41"/>
       <c r="X11" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z11" s="16" t="s">
         <v>584</v>
@@ -18298,19 +18298,19 @@
         <v>3</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I12" s="41">
         <v>1</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M12" s="41">
         <v>3</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z12" s="16" t="s">
         <v>585</v>
@@ -18320,19 +18320,19 @@
       <c r="B13" s="85"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>382</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I13" s="41" t="s">
         <v>380</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M13" s="41" t="s">
         <v>179</v>
@@ -18354,13 +18354,13 @@
       <c r="B14" s="85"/>
       <c r="C14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I14" s="41" t="s">
         <v>380</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M14" s="41">
         <v>5</v>
@@ -18376,13 +18376,13 @@
       <c r="B15" s="85"/>
       <c r="C15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I15" s="41">
         <v>3</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M15" s="41">
         <v>3</v>
@@ -18404,13 +18404,13 @@
       <c r="B16" s="85"/>
       <c r="C16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I16" s="41">
         <v>3</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M16" s="41">
         <v>5</v>
@@ -18432,7 +18432,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M17" s="41" t="s">
         <v>179</v>
@@ -18454,13 +18454,13 @@
         <v>5</v>
       </c>
       <c r="L18" s="95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M18" s="41" t="s">
         <v>380</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z18" s="16" t="s">
         <v>597</v>
@@ -18470,13 +18470,13 @@
       <c r="B19" s="85"/>
       <c r="C19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I19" s="41">
         <v>3</v>
       </c>
       <c r="L19" s="95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M19" s="41" t="s">
         <v>380</v>
@@ -18484,7 +18484,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
       <c r="X19" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z19" s="16" t="s">
         <v>598</v>
@@ -18494,13 +18494,13 @@
       <c r="B20" s="85"/>
       <c r="C20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I20" s="41">
         <v>3</v>
       </c>
       <c r="L20" s="95" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M20" s="41" t="s">
         <v>380</v>
@@ -18517,19 +18517,19 @@
       <c r="B21" s="85"/>
       <c r="C21" s="16"/>
       <c r="H21" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I21" s="41">
         <v>2</v>
       </c>
       <c r="L21" s="95" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M21" s="41" t="s">
         <v>179</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16" t="s">
@@ -18547,13 +18547,13 @@
         <v>5</v>
       </c>
       <c r="L22" s="95" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M22" s="41" t="s">
         <v>179</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z22" s="16" t="s">
         <v>601</v>
@@ -18563,19 +18563,19 @@
       <c r="B23" s="85"/>
       <c r="C23" s="16"/>
       <c r="H23" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I23" s="41">
         <v>3</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M23" s="41" t="s">
         <v>94</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Z23" s="16" t="s">
         <v>602</v>
@@ -18585,13 +18585,13 @@
       <c r="B24" s="85"/>
       <c r="C24" s="16"/>
       <c r="H24" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I24" s="41">
         <v>3</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M24" s="41" t="s">
         <v>94</v>
@@ -18613,13 +18613,13 @@
         <v>94</v>
       </c>
       <c r="L25" s="91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M25" s="41" t="s">
         <v>382</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Z25" s="16" t="s">
         <v>604</v>
@@ -18630,13 +18630,13 @@
       <c r="C26" s="16"/>
       <c r="I26" s="41"/>
       <c r="L26" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M26" s="41" t="s">
         <v>179</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z26" s="16" t="s">
         <v>605</v>
@@ -18644,13 +18644,13 @@
     </row>
     <row r="27" spans="2:27">
       <c r="L27" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M27" s="2">
         <v>7</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z27" s="16" t="s">
         <v>606</v>
@@ -18666,7 +18666,7 @@
       <c r="S28" s="85"/>
       <c r="T28" s="41"/>
       <c r="X28" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16" t="s">
@@ -18700,7 +18700,7 @@
         <v>609</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I30" s="41">
         <v>1</v>
@@ -18709,7 +18709,7 @@
         <v>610</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M30" s="41">
         <v>1</v>
@@ -18725,7 +18725,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I31" s="41">
         <v>1</v>
@@ -18741,19 +18741,19 @@
       <c r="B32" s="85"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E32" s="41">
         <v>3</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I32" s="41">
         <v>1</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M32" s="41">
         <v>1</v>
@@ -18763,19 +18763,19 @@
       <c r="B33" s="85"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E33" s="41">
         <v>3</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I33" s="41">
         <v>5</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M33" s="41">
         <v>5</v>
@@ -18785,13 +18785,13 @@
       <c r="B34" s="85"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="41">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I34" s="41">
         <v>5</v>
@@ -18807,19 +18807,19 @@
       <c r="B35" s="85"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>382</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I35" s="41">
         <v>3</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M35" s="41">
         <v>5</v>
@@ -18835,13 +18835,13 @@
         <v>380</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I36" s="41">
         <v>3</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M36" s="41">
         <v>3</v>
@@ -18857,13 +18857,13 @@
         <v>94</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I37" s="41">
         <v>3</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M37" s="41" t="s">
         <v>179</v>
@@ -18874,13 +18874,13 @@
       <c r="B38" s="85"/>
       <c r="C38" s="16"/>
       <c r="H38" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I38" s="41">
         <v>5</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M38" s="41">
         <v>5</v>
@@ -18890,13 +18890,13 @@
       <c r="B39" s="85"/>
       <c r="C39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I39" s="41">
         <v>3</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M39" s="41">
         <v>3</v>
@@ -18906,13 +18906,13 @@
       <c r="B40" s="85"/>
       <c r="C40" s="16"/>
       <c r="H40" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I40" s="41">
         <v>3</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M40" s="41">
         <v>5</v>
@@ -18928,7 +18928,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M41" s="41" t="s">
         <v>179</v>
@@ -18944,10 +18944,10 @@
         <v>3</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" s="16" customFormat="1" spans="2:21">
@@ -18960,7 +18960,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M43" s="41" t="s">
         <v>179</v>
@@ -18976,7 +18976,7 @@
         <v>382</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M44" s="41" t="s">
         <v>179</v>
@@ -18986,13 +18986,13 @@
       <c r="B45" s="85"/>
       <c r="C45" s="16"/>
       <c r="H45" s="16" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>380</v>
+        <v>179</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M45" s="41" t="s">
         <v>179</v>
@@ -19002,13 +19002,13 @@
       <c r="B46" s="85"/>
       <c r="C46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="I46" s="41" t="s">
         <v>179</v>
       </c>
       <c r="L46" s="91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M46" s="41" t="s">
         <v>380</v>
@@ -19018,13 +19018,13 @@
       <c r="B47" s="85"/>
       <c r="C47" s="16"/>
       <c r="H47" s="16" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="I47" s="41" t="s">
         <v>179</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M47" s="41" t="s">
         <v>179</v>
@@ -19035,7 +19035,7 @@
       <c r="C48" s="41"/>
       <c r="G48" s="99"/>
       <c r="H48" s="16" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="I48" s="41" t="s">
         <v>179</v>
@@ -19056,14 +19056,14 @@
       <c r="D49" s="85"/>
       <c r="G49" s="99"/>
       <c r="H49" s="16" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="I49" s="41" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="K49" s="85"/>
       <c r="L49" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M49" s="41" t="s">
         <v>179</v>
@@ -19076,14 +19076,14 @@
       <c r="C50" s="41"/>
       <c r="G50" s="99"/>
       <c r="H50" s="16" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="I50" s="41" t="s">
         <v>94</v>
       </c>
       <c r="K50" s="85"/>
       <c r="L50" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M50" s="41" t="s">
         <v>179</v>
@@ -19099,14 +19099,14 @@
       <c r="C51" s="41"/>
       <c r="G51" s="99"/>
       <c r="H51" s="16" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="I51" s="41" t="s">
         <v>94</v>
       </c>
       <c r="K51" s="85"/>
       <c r="L51" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M51" s="41" t="s">
         <v>179</v>
@@ -19121,15 +19121,9 @@
       <c r="B52" s="85"/>
       <c r="C52" s="41"/>
       <c r="G52" s="99"/>
-      <c r="H52" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>94</v>
-      </c>
       <c r="K52" s="85"/>
       <c r="L52" s="91" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M52" s="41" t="s">
         <v>179</v>
@@ -19147,7 +19141,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="85"/>
       <c r="L53" s="91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M53" s="41" t="s">
         <v>380</v>
@@ -19198,7 +19192,7 @@
   <dimension ref="C4:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:J14"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -19367,19 +19361,19 @@
       </c>
       <c r="P15" s="75">
         <f>P16/SUM(P16:S16)</f>
-        <v>0.578034682080925</v>
+        <v>0.579150579150579</v>
       </c>
       <c r="Q15" s="75">
         <f>Q16/SUM(P16:S16)</f>
-        <v>0.308285163776493</v>
+        <v>0.308880308880309</v>
       </c>
       <c r="R15" s="75">
         <f>R16/SUM(P16:S16)</f>
-        <v>0.069364161849711</v>
+        <v>0.0694980694980695</v>
       </c>
       <c r="S15" s="75">
         <f>S16/SUM(P16:S16)</f>
-        <v>0.0443159922928709</v>
+        <v>0.0424710424710425</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:19">
@@ -19413,7 +19407,7 @@
       </c>
       <c r="S16" s="77">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:19">
@@ -19469,7 +19463,7 @@
         <v>18</v>
       </c>
       <c r="S18" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:19">
@@ -19541,19 +19535,19 @@
       </c>
       <c r="P21" s="75">
         <f>P22/SUM(P22:S22)</f>
-        <v>0.572033898305085</v>
+        <v>0.579399141630901</v>
       </c>
       <c r="Q21" s="75">
         <f>Q22/SUM(P22:S22)</f>
-        <v>0.292372881355932</v>
+        <v>0.283261802575107</v>
       </c>
       <c r="R21" s="75">
         <f>R22/SUM(P22:S22)</f>
-        <v>0.0847457627118644</v>
+        <v>0.0858369098712446</v>
       </c>
       <c r="S21" s="75">
         <f>S22/SUM(P22:S22)</f>
-        <v>0.0508474576271186</v>
+        <v>0.0515021459227468</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:19">
@@ -19583,7 +19577,7 @@
       </c>
       <c r="Q22" s="77">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="R22" s="77">
         <f t="shared" si="2"/>
@@ -19647,7 +19641,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="79">
         <v>20</v>
@@ -19732,19 +19726,19 @@
       </c>
       <c r="P27" s="75">
         <f>P28/SUM(P28:S28)</f>
-        <v>0.513059219032842</v>
+        <v>0.518964164268899</v>
       </c>
       <c r="Q27" s="75">
         <f>Q28/SUM(P28:S28)</f>
-        <v>0.39100077579519</v>
+        <v>0.383991629610254</v>
       </c>
       <c r="R27" s="75">
         <f>R28/SUM(P28:S28)</f>
-        <v>0.0641324023791053</v>
+        <v>0.0648705205336123</v>
       </c>
       <c r="S27" s="75">
         <f>S28/SUM(P28:S28)</f>
-        <v>0.0318076027928627</v>
+        <v>0.0321736855872352</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:19">
@@ -19778,7 +19772,7 @@
       </c>
       <c r="Q28" s="77">
         <f t="shared" si="4"/>
-        <v>1512</v>
+        <v>1468</v>
       </c>
       <c r="R28" s="77">
         <f t="shared" si="4"/>
@@ -19848,7 +19842,7 @@
         <v>792</v>
       </c>
       <c r="Q30" s="79">
-        <v>1012</v>
+        <v>968</v>
       </c>
       <c r="R30" s="79">
         <v>0</v>
@@ -21073,7 +21067,7 @@
         <v>179</v>
       </c>
       <c r="J35" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>94</v>

--- a/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
+++ b/IridescentAlchemy-TraceOfBattle/ReadMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16840" activeTab="2"/>
+    <workbookView windowHeight="16840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="制作素材" sheetId="7" r:id="rId1"/>
@@ -984,7 +984,7 @@
     <t>学霸护目镜</t>
   </si>
   <si>
-    <t>护甲等级+10</t>
+    <t>获得的经验值提升20%</t>
   </si>
   <si>
     <t>警官墨镜</t>
@@ -8127,8 +8127,8 @@
   <sheetPr/>
   <dimension ref="B4:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81818181818182" defaultRowHeight="14"/>
@@ -20207,7 +20207,7 @@
   <sheetPr/>
   <dimension ref="C4:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:M6"/>
     </sheetView>
   </sheetViews>
